--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\tool-box\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3E8521-B9B3-4A9E-96BE-8CAA45238FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D076D46-64D3-47D0-9E2A-DDE56DFCB2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="124">
   <si>
     <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,28 @@
   </si>
   <si>
     <t>개발요청에 대한 초기 프로젝트 정보 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 종료,백업</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,49 +1365,16 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1397,11 +1386,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1418,19 +1431,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2387,13 +2409,13 @@
                   <c:v>104145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -2964,13 +2986,13 @@
                   <c:v>104145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -5307,7 +5329,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5328,15 +5350,15 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -5496,7 +5518,7 @@
       <c r="H8" s="31"/>
       <c r="I8" s="23"/>
       <c r="K8" s="35" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -5670,15 +5692,15 @@
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5695,11 +5717,11 @@
       <c r="E18" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5716,11 +5738,11 @@
       <c r="E19" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5737,11 +5759,11 @@
       <c r="E20" s="36">
         <v>4</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5758,11 +5780,11 @@
       <c r="E21" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="95"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5779,11 +5801,11 @@
       <c r="E22" s="36">
         <v>1</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5800,11 +5822,11 @@
       <c r="E23" s="55">
         <v>24</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5821,11 +5843,11 @@
       <c r="E24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5842,11 +5864,11 @@
       <c r="E25" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5863,11 +5885,11 @@
       <c r="E26" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5884,11 +5906,11 @@
       <c r="E27" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5905,11 +5927,11 @@
       <c r="E28" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5926,11 +5948,11 @@
       <c r="E29" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5947,11 +5969,11 @@
       <c r="E30" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5968,11 +5990,11 @@
       <c r="E31" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5989,11 +6011,11 @@
       <c r="E32" s="49">
         <v>3</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="85"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="79"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -6020,141 +6042,141 @@
     </row>
     <row r="35" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="73"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="88" t="s">
+      <c r="C36" s="84"/>
+      <c r="D36" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="90"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81" t="s">
+      <c r="C37" s="67"/>
+      <c r="D37" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="72"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81" t="s">
+      <c r="C38" s="67"/>
+      <c r="D38" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="83"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81" t="s">
+      <c r="C39" s="67"/>
+      <c r="D39" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="72"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81" t="s">
+      <c r="C40" s="67"/>
+      <c r="D40" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="83"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81" t="s">
+      <c r="C41" s="67"/>
+      <c r="D41" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="83"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="72"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81" t="s">
+      <c r="C42" s="67"/>
+      <c r="D42" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81" t="s">
+      <c r="C43" s="67"/>
+      <c r="D43" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="83"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="91" t="s">
+      <c r="C44" s="69"/>
+      <c r="D44" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="93"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="75"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C45"/>
@@ -6194,27 +6216,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="F23:H23"/>
@@ -6230,6 +6231,27 @@
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8028,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D3E6F-5235-4035-822F-8FB39F1F9837}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -8846,11 +8868,11 @@
       </c>
       <c r="L49" s="11">
         <f>SUM(L52:L1048557)</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M49" s="12">
         <f>SUM(M51:M1048556)</f>
-        <v>1374714</v>
+        <v>1562175</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>92</v>
@@ -9423,7 +9445,9 @@
       <c r="B71" s="13">
         <v>45889</v>
       </c>
-      <c r="C71" s="14"/>
+      <c r="C71" s="14">
+        <v>3</v>
+      </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
@@ -9434,18 +9458,20 @@
       <c r="K71" s="14"/>
       <c r="L71" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M71" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
         <v>45890</v>
       </c>
-      <c r="C72" s="14"/>
+      <c r="C72" s="14">
+        <v>3</v>
+      </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
@@ -9456,18 +9482,20 @@
       <c r="K72" s="14"/>
       <c r="L72" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M72" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
         <v>45891</v>
       </c>
-      <c r="C73" s="14"/>
+      <c r="C73" s="14">
+        <v>3</v>
+      </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
@@ -9478,11 +9506,11 @@
       <c r="K73" s="14"/>
       <c r="L73" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M73" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D076D46-64D3-47D0-9E2A-DDE56DFCB2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E0F1AF-0D60-42C1-9ECC-F58330FD2BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="5" r:id="rId1"/>
@@ -1365,16 +1365,49 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,35 +1419,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1431,28 +1440,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2418,7 +2418,7 @@
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2995,7 +2995,7 @@
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -5328,7 +5328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D4C3-4BCC-41B6-A92A-03CFAAF5CCE9}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -5350,15 +5350,15 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -5692,15 +5692,15 @@
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5717,11 +5717,11 @@
       <c r="E18" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="F18" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5738,11 +5738,11 @@
       <c r="E19" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5759,11 +5759,11 @@
       <c r="E20" s="36">
         <v>4</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5780,11 +5780,11 @@
       <c r="E21" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="93" t="s">
+      <c r="F21" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5801,11 +5801,11 @@
       <c r="E22" s="36">
         <v>1</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5822,11 +5822,11 @@
       <c r="E23" s="55">
         <v>24</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5843,11 +5843,11 @@
       <c r="E24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5864,11 +5864,11 @@
       <c r="E25" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="76"/>
-      <c r="H25" s="77"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5885,11 +5885,11 @@
       <c r="E26" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="77"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5906,11 +5906,11 @@
       <c r="E27" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="76"/>
-      <c r="H27" s="77"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5927,11 +5927,11 @@
       <c r="E28" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="76" t="s">
+      <c r="F28" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5948,11 +5948,11 @@
       <c r="E29" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F29" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5969,11 +5969,11 @@
       <c r="E30" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="76" t="s">
+      <c r="F30" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="76"/>
-      <c r="H30" s="77"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5990,11 +5990,11 @@
       <c r="E31" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6011,11 +6011,11 @@
       <c r="E32" s="49">
         <v>3</v>
       </c>
-      <c r="F32" s="78" t="s">
+      <c r="F32" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="79"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="85"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -6042,141 +6042,141 @@
     </row>
     <row r="35" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="82"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85" t="s">
+      <c r="C36" s="87"/>
+      <c r="D36" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="90"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="70" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="72"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="83"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="70" t="s">
+      <c r="C38" s="80"/>
+      <c r="D38" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="72"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="83"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="70" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="72"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="83"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="70" t="s">
+      <c r="C40" s="80"/>
+      <c r="D40" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="72"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="83"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="70" t="s">
+      <c r="C41" s="80"/>
+      <c r="D41" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="72"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="83"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="70" t="s">
+      <c r="C42" s="80"/>
+      <c r="D42" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="72"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="70" t="s">
+      <c r="C43" s="80"/>
+      <c r="D43" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="83"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="73" t="s">
+      <c r="C44" s="95"/>
+      <c r="D44" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="75"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C45"/>
@@ -6216,6 +6216,27 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="F23:H23"/>
@@ -6231,27 +6252,6 @@
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8050,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D3E6F-5235-4035-822F-8FB39F1F9837}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -8868,11 +8868,11 @@
       </c>
       <c r="L49" s="11">
         <f>SUM(L52:L1048557)</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M49" s="12">
         <f>SUM(M51:M1048556)</f>
-        <v>1562175</v>
+        <v>1624662</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>92</v>
@@ -9517,7 +9517,9 @@
       <c r="B74" s="13">
         <v>45892</v>
       </c>
-      <c r="C74" s="14"/>
+      <c r="C74" s="14">
+        <v>3</v>
+      </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
@@ -9527,19 +9529,18 @@
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
       <c r="L74" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(C74:K74)</f>
+        <v>3</v>
       </c>
       <c r="M74" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="13">
         <v>45893</v>
       </c>
-      <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E0F1AF-0D60-42C1-9ECC-F58330FD2BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB5C406-2F0E-46CA-A9E0-4D98B560FD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2418,22 +2418,22 @@
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>104145</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -2995,22 +2995,22 @@
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>104145</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -6279,8 +6279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234D44F0-91DA-4CD1-A18C-3E5459E98741}">
   <dimension ref="B1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51:H110"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -8050,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D3E6F-5235-4035-822F-8FB39F1F9837}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -8868,11 +8868,11 @@
       </c>
       <c r="L49" s="11">
         <f>SUM(L52:L1048557)</f>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M49" s="12">
         <f>SUM(M51:M1048556)</f>
-        <v>1624662</v>
+        <v>1853781</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>92</v>
@@ -9517,9 +9517,7 @@
       <c r="B74" s="13">
         <v>45892</v>
       </c>
-      <c r="C74" s="14">
-        <v>3</v>
-      </c>
+      <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
@@ -9530,11 +9528,11 @@
       <c r="K74" s="14"/>
       <c r="L74" s="16">
         <f>SUM(C74:K74)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M74" s="17">
         <f t="shared" si="1"/>
-        <v>62487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
@@ -9562,7 +9560,9 @@
       <c r="B76" s="13">
         <v>45894</v>
       </c>
-      <c r="C76" s="14"/>
+      <c r="C76" s="14">
+        <v>3</v>
+      </c>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
@@ -9573,18 +9573,20 @@
       <c r="K76" s="14"/>
       <c r="L76" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M76" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <v>45895</v>
       </c>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>3</v>
+      </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
@@ -9595,18 +9597,20 @@
       <c r="K77" s="14"/>
       <c r="L77" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M77" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
         <v>45896</v>
       </c>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>3</v>
+      </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
@@ -9617,19 +9621,23 @@
       <c r="K78" s="14"/>
       <c r="L78" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M78" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="13">
         <v>45897</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="14">
+        <v>3</v>
+      </c>
+      <c r="D79" s="14">
+        <v>2</v>
+      </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -9639,11 +9647,11 @@
       <c r="K79" s="14"/>
       <c r="L79" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M79" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104145</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB5C406-2F0E-46CA-A9E0-4D98B560FD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6529D0-68DD-4B32-A03F-234FCF620C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="124">
   <si>
     <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,9 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>❌ 종료,삭제</t>
-  </si>
-  <si>
     <t>✅ 유지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,9 +239,6 @@
   <si>
     <t>라이브 방송에서 호응을 위한 자동화 메크로</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>🌐프로그램대기</t>
   </si>
   <si>
     <t>네이버 블로그의 검색 엔진 순위를 체크하는 도구</t>
@@ -583,6 +577,14 @@
       </rPr>
       <t xml:space="preserve"> 종료,백업</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EIBE 워크 스페이스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">벤쳐기업심사 대응용 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1171,12 +1173,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1361,6 +1376,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2239,10 +2269,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'8月'!$B$51:$B$82</c:f>
+              <c:f>'8月'!$B$51:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd;@</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45869</c:v>
                 </c:pt>
@@ -2329,25 +2359,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45897</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45898</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45899</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8月'!$M$51:$M$82</c:f>
+              <c:f>'8月'!$M$51:$M$79</c:f>
               <c:numCache>
                 <c:formatCode>"₩"#,##0;[Red]"₩"#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>124974</c:v>
                 </c:pt>
@@ -2434,15 +2455,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2816,10 +2828,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'8月'!$B$51:$B$82</c:f>
+              <c:f>'8月'!$B$51:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd;@</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45869</c:v>
                 </c:pt>
@@ -2906,25 +2918,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45897</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45898</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45899</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8月'!$M$51:$M$82</c:f>
+              <c:f>'8月'!$M$51:$M$79</c:f>
               <c:numCache>
                 <c:formatCode>"₩"#,##0;[Red]"₩"#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>124974</c:v>
                 </c:pt>
@@ -3011,15 +3014,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5233,10 +5227,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="65"/>
+      <c r="B1" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
@@ -5326,11 +5320,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D4C3-4BCC-41B6-A92A-03CFAAF5CCE9}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5350,15 +5342,15 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -5373,7 +5365,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>30</v>
@@ -5401,11 +5393,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="28">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="G4" s="29">
         <f>F4*20829</f>
-        <v>1437201</v>
+        <v>2624454</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="23"/>
@@ -5428,11 +5420,11 @@
         <v>2</v>
       </c>
       <c r="F5" s="28">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G5" s="29">
         <f>F5*20829</f>
-        <v>666528</v>
+        <v>916476</v>
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="23"/>
@@ -5455,11 +5447,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="28">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G6" s="29">
         <f>F6*20829</f>
-        <v>312435</v>
+        <v>499896</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="23"/>
@@ -5518,19 +5510,19 @@
       <c r="H8" s="31"/>
       <c r="I8" s="23"/>
       <c r="K8" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="D9" s="36" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>46</v>
       </c>
       <c r="E9" s="37">
         <v>24</v>
@@ -5545,7 +5537,7 @@
       <c r="H9" s="31"/>
       <c r="I9" s="23"/>
       <c r="K9" s="54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -5557,7 +5549,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
@@ -5581,31 +5573,31 @@
         <v>7</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="30">
         <v>3</v>
       </c>
       <c r="F11" s="28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>187461</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
-      <c r="B12" s="33" t="s">
-        <v>39</v>
+      <c r="B12" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="30">
         <v>1</v>
@@ -5622,38 +5614,38 @@
     </row>
     <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="33" t="s">
-        <v>50</v>
+      <c r="B13" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="30">
         <v>2</v>
       </c>
       <c r="F13" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41658</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
-      <c r="B14" s="35" t="s">
-        <v>43</v>
+      <c r="B14" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="30">
         <v>1</v>
@@ -5692,15 +5684,15 @@
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
+      <c r="B17" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5709,19 +5701,19 @@
         <v>27</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="64" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+        <v>93</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5730,19 +5722,19 @@
         <v>33</v>
       </c>
       <c r="C19" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="F19" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5751,19 +5743,19 @@
         <v>33</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="36">
         <v>4</v>
       </c>
-      <c r="F20" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
+      <c r="F20" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5772,82 +5764,80 @@
         <v>33</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
+        <v>56</v>
+      </c>
+      <c r="F21" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
-      <c r="B22" s="33" t="s">
-        <v>63</v>
+      <c r="B22" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="36">
+        <v>123</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="36">
         <v>1</v>
       </c>
-      <c r="F22" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="44"/>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="55">
-        <v>24</v>
-      </c>
-      <c r="F23" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="23"/>
+      <c r="F23" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
-      <c r="B24" s="34" t="s">
-        <v>41</v>
+      <c r="B24" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
+        <v>63</v>
+      </c>
+      <c r="E24" s="55">
+        <v>24</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5856,19 +5846,19 @@
         <v>41</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67"/>
+        <v>56</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="71"/>
+      <c r="H25" s="72"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5877,19 +5867,19 @@
         <v>41</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
+        <v>56</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5898,19 +5888,19 @@
         <v>41</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
+        <v>56</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5919,19 +5909,19 @@
         <v>41</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
+        <v>56</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5940,19 +5930,19 @@
         <v>41</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
+        <v>56</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5961,19 +5951,19 @@
         <v>41</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
+        <v>56</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="71"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5982,54 +5972,64 @@
         <v>41</v>
       </c>
       <c r="C31" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="48" t="s">
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C33" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="49">
+        <v>3</v>
+      </c>
+      <c r="F33" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="49">
-        <v>3</v>
-      </c>
-      <c r="F32" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="90"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -6040,146 +6040,154 @@
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
-      <c r="B35" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="73"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="90"/>
+      <c r="B36" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="78"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
+      <c r="B37" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="95"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="83"/>
+      <c r="B38" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="85"/>
+      <c r="D38" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="88"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="85"/>
+      <c r="D39" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="85"/>
+      <c r="D40" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="79" t="s">
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="88"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81" t="s">
+      <c r="C42" s="85"/>
+      <c r="D42" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="83"/>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="79" t="s">
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="88"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81" t="s">
+      <c r="C43" s="85"/>
+      <c r="D43" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="83"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="79" t="s">
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="88"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81" t="s">
+      <c r="C44" s="85"/>
+      <c r="D44" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="79" t="s">
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="88"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81" t="s">
+      <c r="C45" s="100"/>
+      <c r="D45" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="83"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="93"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C45"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="98"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C46"/>
@@ -6214,60 +6222,64 @@
     <row r="56" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C56"/>
     </row>
+    <row r="57" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C57"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B40:C40"/>
+  <mergeCells count="37">
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="D42:H42"/>
     <mergeCell ref="D43:H43"/>
     <mergeCell ref="D44:H44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F30" r:id="rId1" xr:uid="{70469821-F4A1-45E6-81DB-DCB3E045A4A3}"/>
-    <hyperlink ref="F29" r:id="rId2" xr:uid="{010F319D-5544-456F-8543-315EAC3E62B0}"/>
-    <hyperlink ref="F28" r:id="rId3" xr:uid="{A0F2177D-F3B7-4E46-9918-BC37E0D24315}"/>
-    <hyperlink ref="F27" r:id="rId4" xr:uid="{38943063-13B7-4D29-B1D4-2A574961C1C3}"/>
-    <hyperlink ref="F26" r:id="rId5" xr:uid="{BBF2FD60-87DC-4E72-9513-705EC310C7C1}"/>
-    <hyperlink ref="F25" r:id="rId6" xr:uid="{5FD013A6-7ADF-45DA-8DBB-411212CABE28}"/>
-    <hyperlink ref="F24" r:id="rId7" xr:uid="{C9C5A18F-1BBB-4475-8F42-863DBF5D7D02}"/>
-    <hyperlink ref="F23" r:id="rId8" location="ai" xr:uid="{FF060DD9-CE1A-4C58-87A0-04BB6668BF85}"/>
+    <hyperlink ref="F31" r:id="rId1" xr:uid="{70469821-F4A1-45E6-81DB-DCB3E045A4A3}"/>
+    <hyperlink ref="F30" r:id="rId2" xr:uid="{010F319D-5544-456F-8543-315EAC3E62B0}"/>
+    <hyperlink ref="F29" r:id="rId3" xr:uid="{A0F2177D-F3B7-4E46-9918-BC37E0D24315}"/>
+    <hyperlink ref="F28" r:id="rId4" xr:uid="{38943063-13B7-4D29-B1D4-2A574961C1C3}"/>
+    <hyperlink ref="F27" r:id="rId5" xr:uid="{BBF2FD60-87DC-4E72-9513-705EC310C7C1}"/>
+    <hyperlink ref="F26" r:id="rId6" xr:uid="{5FD013A6-7ADF-45DA-8DBB-411212CABE28}"/>
+    <hyperlink ref="F25" r:id="rId7" xr:uid="{C9C5A18F-1BBB-4475-8F42-863DBF5D7D02}"/>
+    <hyperlink ref="F24" r:id="rId8" location="ai" xr:uid="{FF060DD9-CE1A-4C58-87A0-04BB6668BF85}"/>
     <hyperlink ref="F20" r:id="rId9" xr:uid="{BFDC43CE-4F53-44BE-A885-C6F5846A6BF6}"/>
     <hyperlink ref="F19" r:id="rId10" xr:uid="{46B79DEF-7317-4B0A-A67C-150A0418E88B}"/>
-    <hyperlink ref="F22" r:id="rId11" xr:uid="{E0D3FABB-2A0C-48F1-809E-609ACFD2DE3D}"/>
-    <hyperlink ref="F31" r:id="rId12" xr:uid="{7AFA5771-F277-4F4D-96B9-3BA430399B75}"/>
-    <hyperlink ref="F32" r:id="rId13" xr:uid="{11B3A674-C54A-45F9-A58F-1AD7CB90BFC6}"/>
+    <hyperlink ref="F23" r:id="rId11" xr:uid="{E0D3FABB-2A0C-48F1-809E-609ACFD2DE3D}"/>
+    <hyperlink ref="F32" r:id="rId12" xr:uid="{7AFA5771-F277-4F4D-96B9-3BA430399B75}"/>
+    <hyperlink ref="F33" r:id="rId13" xr:uid="{11B3A674-C54A-45F9-A58F-1AD7CB90BFC6}"/>
     <hyperlink ref="F21" r:id="rId14" xr:uid="{174835F6-C8DD-4BC7-9F44-0E457F9025A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6279,8 +6291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234D44F0-91DA-4CD1-A18C-3E5459E98741}">
   <dimension ref="B1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6306,761 +6318,761 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="96"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
       <c r="P2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="101"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="106"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="101"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="106"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="106"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="101"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="106"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="106"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="101"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="106"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="101"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="106"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="101"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="106"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="101"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="106"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="101"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="106"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="101"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="106"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="101"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="106"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="101"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="106"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="101"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="106"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="101"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="106"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="101"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="106"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="101"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="106"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="101"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="106"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="101"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="106"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="101"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="106"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="101"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="106"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="101"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="106"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="99"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="101"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="106"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="99"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="101"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="106"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="101"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="106"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="99"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="101"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="106"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="101"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="106"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="101"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="106"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="101"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="106"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="101"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="106"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="101"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="106"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="99"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="101"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="106"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="101"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="106"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="101"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="106"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="101"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="106"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="101"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="106"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="101"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="106"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="101"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="106"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="99"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="101"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="106"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="101"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="106"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="99"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="101"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="106"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="99"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="101"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="106"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="99"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="101"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="106"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="99"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="101"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="106"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="99"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="101"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="106"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -7105,7 +7117,7 @@
         <v>13</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q48" s="2"/>
     </row>
@@ -8048,10 +8060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D3E6F-5235-4035-822F-8FB39F1F9837}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="B1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -8084,715 +8096,715 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="96"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
       <c r="O2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="106"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="101"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="106"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="106"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="101"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="101"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="106"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="101"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="101"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="101"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="101"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="106"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="106"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="106"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="106"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="106"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="99"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="101"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="99"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="106"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="101"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="106"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="99"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="101"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="106"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="101"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="106"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="101"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="106"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="101"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="106"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="101"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="106"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="101"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="106"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="99"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="101"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="106"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="101"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="106"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="101"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="106"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="101"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="106"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="101"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="106"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="101"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="106"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="101"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="106"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="99"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="101"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="106"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="101"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="106"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="99"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="101"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="106"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="99"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="101"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="106"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="99"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="101"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="106"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="99"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="101"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="106"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="99"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="101"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="106"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
@@ -8867,15 +8879,15 @@
         <v>1</v>
       </c>
       <c r="L49" s="11">
-        <f>SUM(L52:L1048557)</f>
+        <f>SUM(L52:L1048554)</f>
         <v>83</v>
       </c>
       <c r="M49" s="12">
-        <f>SUM(M51:M1048556)</f>
+        <f>SUM(M51:M1048553)</f>
         <v>1853781</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P49" s="2"/>
     </row>
@@ -8918,27 +8930,27 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="58">
+      <c r="B51" s="65">
         <v>45869</v>
       </c>
-      <c r="C51" s="59">
+      <c r="C51" s="66">
         <v>3</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59">
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66">
         <v>3</v>
       </c>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="60">
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="67">
         <f t="shared" ref="L51:L67" si="0">SUM(C51:K51)</f>
         <v>6</v>
       </c>
-      <c r="M51" s="61">
+      <c r="M51" s="68">
         <f>L51*20829</f>
         <v>124974</v>
       </c>
@@ -8989,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="17">
-        <f t="shared" ref="M53:M82" si="1">L53*20829</f>
+        <f t="shared" ref="M53:M79" si="1">L53*20829</f>
         <v>0</v>
       </c>
       <c r="O53" s="2"/>
@@ -9377,7 +9389,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
       <c r="L68" s="16">
-        <f t="shared" ref="L68:L81" si="2">SUM(C68:K68)</f>
+        <f t="shared" ref="L68:L79" si="2">SUM(C68:K68)</f>
         <v>0</v>
       </c>
       <c r="M68" s="17">
@@ -9628,100 +9640,31 @@
         <v>62487</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B79" s="13">
+    <row r="79" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="18">
         <v>45897</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="19">
         <v>3</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="19">
         <v>2</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="16">
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="20">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M79" s="21">
         <f t="shared" si="1"/>
         <v>104145</v>
       </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B80" s="13">
-        <v>45898</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="13">
-        <v>45899</v>
-      </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="57"/>
-      <c r="K81" s="57"/>
-      <c r="L81" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3"/>
-      <c r="B82" s="18">
-        <v>45900</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="20">
-        <f>SUM(C82:K82)</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9738,7 +9681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED96CA4-A374-475F-948A-13FA401C0FE1}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9753,7 +9698,7 @@
     <col min="10" max="10" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.75" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.25" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.25" style="3" bestFit="1" customWidth="1"/>
@@ -9768,715 +9713,715 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="96"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
       <c r="O2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="106"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="101"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="106"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="106"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="101"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="101"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="106"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="101"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="101"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="101"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="101"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="106"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="106"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="106"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="106"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="106"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="99"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="101"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="99"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="106"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="101"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="106"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="99"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="101"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="106"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="101"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="106"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="101"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="106"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="101"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="106"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="101"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="106"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="101"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="106"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="99"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="101"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="106"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="101"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="106"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="101"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="106"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="101"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="106"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="101"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="106"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="101"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="106"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="101"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="106"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="99"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="101"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="106"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="101"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="106"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="99"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="101"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="106"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="99"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="101"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="106"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="99"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="101"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="106"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="99"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="101"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="106"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="99"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="101"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="106"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
@@ -10552,14 +10497,14 @@
       </c>
       <c r="L49" s="11">
         <f>SUM(L52:L1048557)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M49" s="12">
         <f>SUM(M51:M1048556)</f>
-        <v>0</v>
+        <v>187461</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P49" s="2"/>
     </row>
@@ -10605,7 +10550,9 @@
       <c r="B51" s="58">
         <v>45898</v>
       </c>
-      <c r="C51" s="59"/>
+      <c r="C51" s="59">
+        <v>3</v>
+      </c>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
       <c r="F51" s="59"/>
@@ -10616,11 +10563,11 @@
       <c r="K51" s="59"/>
       <c r="L51" s="60">
         <f t="shared" ref="L51:L81" si="0">SUM(C51:K51)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M51" s="61">
         <f>L51*20829</f>
-        <v>0</v>
+        <v>62487</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -10677,9 +10624,13 @@
       <c r="B54" s="58">
         <v>45901</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="14">
+        <v>3</v>
+      </c>
       <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="E54" s="14">
+        <v>3</v>
+      </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -10688,11 +10639,11 @@
       <c r="K54" s="14"/>
       <c r="L54" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M54" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>124974</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -11321,7 +11272,7 @@
     </row>
     <row r="82" spans="1:16" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
-      <c r="B82" s="58">
+      <c r="B82" s="69">
         <v>45929</v>
       </c>
       <c r="C82" s="19"/>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6529D0-68DD-4B32-A03F-234FCF620C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62194602-84E7-4FB7-803B-9843B53D6524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="유지체크" sheetId="6" r:id="rId2"/>
     <sheet name="7月" sheetId="3" r:id="rId3"/>
     <sheet name="8月" sheetId="7" r:id="rId4"/>
-    <sheet name="9月" sheetId="8" r:id="rId5"/>
+    <sheet name="8月 (2)" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -757,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1035,19 +1035,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1173,25 +1160,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1353,21 +1327,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,52 +1348,19 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1446,13 +1372,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1467,22 +1417,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2690,7 +2646,7 @@
                 <a:ea typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
               </a:rPr>
-              <a:t>8</a:t>
+              <a:t>9</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ko-KR" sz="2400" b="1">
@@ -2828,132 +2784,141 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'8月'!$B$51:$B$79</c:f>
+              <c:f>'8月 (2)'!$B$51:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd;@</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>45869</c:v>
+                  <c:v>45898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45870</c:v>
+                  <c:v>45899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45871</c:v>
+                  <c:v>45900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45872</c:v>
+                  <c:v>45901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45873</c:v>
+                  <c:v>45902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45874</c:v>
+                  <c:v>45903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45875</c:v>
+                  <c:v>45904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45876</c:v>
+                  <c:v>45905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45877</c:v>
+                  <c:v>45906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45878</c:v>
+                  <c:v>45907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45879</c:v>
+                  <c:v>45908</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45880</c:v>
+                  <c:v>45909</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45881</c:v>
+                  <c:v>45910</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45882</c:v>
+                  <c:v>45911</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45883</c:v>
+                  <c:v>45912</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45884</c:v>
+                  <c:v>45913</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45885</c:v>
+                  <c:v>45914</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45886</c:v>
+                  <c:v>45915</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45887</c:v>
+                  <c:v>45916</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45888</c:v>
+                  <c:v>45917</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45889</c:v>
+                  <c:v>45918</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45890</c:v>
+                  <c:v>45919</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45891</c:v>
+                  <c:v>45920</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45892</c:v>
+                  <c:v>45921</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45893</c:v>
+                  <c:v>45922</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45894</c:v>
+                  <c:v>45923</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45895</c:v>
+                  <c:v>45924</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45896</c:v>
+                  <c:v>45925</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45897</c:v>
+                  <c:v>45926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45927</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45928</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8月'!$M$51:$M$79</c:f>
+              <c:f>'8月 (2)'!$M$51:$M$82</c:f>
               <c:numCache>
                 <c:formatCode>"₩"#,##0;[Red]"₩"#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>62487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>124974</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62487</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166632</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104145</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2962,16 +2927,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>124974</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>104145</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>166632</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124974</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2983,19 +2948,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>166632</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>104145</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -3004,16 +2969,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>104145</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3021,7 +2995,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA40-4AC2-AE1C-F563187B94F1}"/>
+              <c16:uniqueId val="{00000000-B08C-41A0-B06F-DCBD10C8046D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4925,7 +4899,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C040C3-9460-4C3F-9919-39924A59480F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8AF635-2E88-4C51-B53F-171CFB6772FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5227,10 +5201,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="70"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
@@ -5322,7 +5296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D4C3-4BCC-41B6-A92A-03CFAAF5CCE9}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5342,15 +5318,15 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -5684,36 +5660,36 @@
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5730,11 +5706,11 @@
       <c r="E19" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5751,11 +5727,11 @@
       <c r="E20" s="36">
         <v>4</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5772,11 +5748,11 @@
       <c r="E21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5793,9 +5769,9 @@
       <c r="E22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5812,11 +5788,11 @@
       <c r="E23" s="36">
         <v>1</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5833,11 +5809,11 @@
       <c r="E24" s="55">
         <v>24</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5854,11 +5830,11 @@
       <c r="E25" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5875,11 +5851,11 @@
       <c r="E26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5896,11 +5872,11 @@
       <c r="E27" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="72"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5917,11 +5893,11 @@
       <c r="E28" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5938,11 +5914,11 @@
       <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5959,11 +5935,11 @@
       <c r="E30" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5980,11 +5956,11 @@
       <c r="E31" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="72"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6001,11 +5977,11 @@
       <c r="E32" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="71"/>
-      <c r="H32" s="72"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6022,11 +5998,11 @@
       <c r="E33" s="49">
         <v>3</v>
       </c>
-      <c r="F33" s="89" t="s">
+      <c r="F33" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6053,141 +6029,141 @@
     </row>
     <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93" t="s">
+      <c r="C37" s="83"/>
+      <c r="D37" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="95"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86" t="s">
+      <c r="C38" s="66"/>
+      <c r="D38" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="88"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86" t="s">
+      <c r="C39" s="66"/>
+      <c r="D39" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="88"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="71"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86" t="s">
+      <c r="C40" s="66"/>
+      <c r="D40" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="88"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="71"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86" t="s">
+      <c r="C41" s="66"/>
+      <c r="D41" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="88"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="71"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="86" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="88"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="71"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="88"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="86" t="s">
+      <c r="C44" s="66"/>
+      <c r="D44" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="88"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="96" t="s">
+      <c r="C45" s="68"/>
+      <c r="D45" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="98"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C46"/>
@@ -6227,27 +6203,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F24:H24"/>
@@ -6264,6 +6219,27 @@
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6318,761 +6294,761 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="P2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="106"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="106"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="106"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="100"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="106"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="100"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="106"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="100"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="106"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="100"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="106"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="100"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="106"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="100"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="104"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="106"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="100"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="104"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="106"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="100"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="106"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="100"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="106"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="100"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="106"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="100"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="106"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="100"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="106"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="100"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="106"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="100"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="106"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="100"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="106"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="100"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="106"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="100"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="100"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="106"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="100"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="100"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="104"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="106"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="100"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="106"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="100"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="106"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="100"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="106"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="100"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="106"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="100"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="106"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="100"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="104"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="106"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="100"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="104"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="106"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="100"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="104"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="106"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="100"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="106"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="100"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="106"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="100"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="104"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="106"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="100"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="106"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="100"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="104"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="106"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="100"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="104"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="106"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="100"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="106"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="100"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="106"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="100"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="106"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="100"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="104"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="106"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="100"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="106"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="100"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="106"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="100"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="105"/>
-      <c r="N46" s="106"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="100"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="106"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="100"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -8062,8 +8038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D3E6F-5235-4035-822F-8FB39F1F9837}">
   <dimension ref="B1:P79"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:M79"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -8096,715 +8072,715 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
       <c r="O2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="100"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="106"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="106"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="100"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="106"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="104"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="106"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="104"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="106"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="106"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="106"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="100"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="106"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="100"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="106"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="100"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="106"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="106"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="100"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="106"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="100"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="106"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="100"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="100"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="106"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="100"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="104"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="106"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="100"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="106"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="100"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="106"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="100"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="106"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="106"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="100"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="106"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="100"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="104"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="106"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="100"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="104"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="106"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="100"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="104"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="106"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="100"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="106"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="100"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="106"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="100"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="104"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="106"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="100"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="106"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="100"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="104"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="106"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="100"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="104"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="106"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="100"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="106"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="100"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="106"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="100"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="106"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="100"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="104"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="106"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="100"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="106"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="100"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="106"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="100"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="106"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="100"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="106"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="100"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
@@ -8923,34 +8899,34 @@
       <c r="L50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="62" t="s">
+      <c r="M50" s="57" t="s">
         <v>0</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="65">
+      <c r="B51" s="60">
         <v>45869</v>
       </c>
-      <c r="C51" s="66">
+      <c r="C51" s="61">
         <v>3</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66">
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61">
         <v>3</v>
       </c>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="67">
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="62">
         <f t="shared" ref="L51:L67" si="0">SUM(C51:K51)</f>
         <v>6</v>
       </c>
-      <c r="M51" s="68">
+      <c r="M51" s="63">
         <f>L51*20829</f>
         <v>124974</v>
       </c>
@@ -9678,11 +9654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED96CA4-A374-475F-948A-13FA401C0FE1}">
-  <dimension ref="A1:P82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
+  <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9698,7 +9674,7 @@
     <col min="10" max="10" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.75" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.25" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.25" style="3" bestFit="1" customWidth="1"/>
@@ -9708,720 +9684,722 @@
     <col min="20" max="20" width="25.625" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.25" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="3"/>
+    <col min="23" max="23" width="9" style="3"/>
+    <col min="24" max="24" width="9" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
       <c r="O2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="100"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="106"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="106"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="100"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="106"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="104"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="106"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="104"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="106"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="106"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="106"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="100"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="106"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="100"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="106"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="100"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="106"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="106"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="100"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="106"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="100"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="106"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="100"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="100"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="106"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="100"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="104"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="106"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="100"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="106"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="100"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="106"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="100"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="106"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="106"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="100"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="106"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="100"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="104"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="106"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="100"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="104"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="106"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="100"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="104"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="106"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="100"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="106"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="100"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="106"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="100"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="104"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="106"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="100"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="106"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="100"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="104"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="106"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="100"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="104"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="106"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="100"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="106"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="100"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="106"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="100"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="106"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="100"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="104"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="106"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="100"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="106"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="100"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="106"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="100"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="106"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="100"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="106"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="100"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
@@ -10496,11 +10474,11 @@
         <v>1</v>
       </c>
       <c r="L49" s="11">
-        <f>SUM(L52:L1048557)</f>
+        <f>SUM(L52:L1048554)</f>
         <v>6</v>
       </c>
       <c r="M49" s="12">
-        <f>SUM(M51:M1048556)</f>
+        <f>SUM(M51:M1048553)</f>
         <v>187461</v>
       </c>
       <c r="O49" s="2" t="s">
@@ -10540,32 +10518,32 @@
       <c r="L50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="62" t="s">
+      <c r="M50" s="57" t="s">
         <v>0</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="58">
+      <c r="B51" s="60">
         <v>45898</v>
       </c>
-      <c r="C51" s="59">
+      <c r="C51" s="61">
         <v>3</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="60">
-        <f t="shared" ref="L51:L81" si="0">SUM(C51:K51)</f>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="62">
+        <f t="shared" ref="L51:L79" si="0">SUM(C51:K51)</f>
         <v>3</v>
       </c>
-      <c r="M51" s="61">
+      <c r="M51" s="63">
         <f>L51*20829</f>
         <v>62487</v>
       </c>
@@ -10573,7 +10551,7 @@
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="58">
+      <c r="B52" s="13">
         <v>45899</v>
       </c>
       <c r="C52" s="14"/>
@@ -10597,12 +10575,16 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="58">
+      <c r="B53" s="13">
         <v>45900</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="14">
+        <v>3</v>
+      </c>
       <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="E53" s="14">
+        <v>3</v>
+      </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -10611,26 +10593,22 @@
       <c r="K53" s="14"/>
       <c r="L53" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M53" s="17">
-        <f t="shared" ref="M53:M82" si="1">L53*20829</f>
-        <v>0</v>
+        <f t="shared" ref="M53:M79" si="1">L53*20829</f>
+        <v>124974</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="58">
+      <c r="B54" s="13">
         <v>45901</v>
       </c>
-      <c r="C54" s="14">
-        <v>3</v>
-      </c>
+      <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="14">
-        <v>3</v>
-      </c>
+      <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -10639,17 +10617,17 @@
       <c r="K54" s="14"/>
       <c r="L54" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M54" s="17">
         <f t="shared" si="1"/>
-        <v>124974</v>
+        <v>0</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="58">
+      <c r="B55" s="13">
         <v>45902</v>
       </c>
       <c r="C55" s="14"/>
@@ -10673,7 +10651,7 @@
       <c r="P55" s="2"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="58">
+      <c r="B56" s="13">
         <v>45903</v>
       </c>
       <c r="C56" s="14"/>
@@ -10697,7 +10675,7 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="58">
+      <c r="B57" s="13">
         <v>45904</v>
       </c>
       <c r="C57" s="14"/>
@@ -10721,7 +10699,7 @@
       <c r="P57" s="2"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="58">
+      <c r="B58" s="13">
         <v>45905</v>
       </c>
       <c r="C58" s="14"/>
@@ -10745,7 +10723,7 @@
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="58">
+      <c r="B59" s="13">
         <v>45906</v>
       </c>
       <c r="C59" s="14"/>
@@ -10769,7 +10747,7 @@
       <c r="P59" s="2"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="58">
+      <c r="B60" s="13">
         <v>45907</v>
       </c>
       <c r="C60" s="14"/>
@@ -10793,7 +10771,7 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="58">
+      <c r="B61" s="13">
         <v>45908</v>
       </c>
       <c r="C61" s="14"/>
@@ -10817,7 +10795,7 @@
       <c r="P61" s="2"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="58">
+      <c r="B62" s="13">
         <v>45909</v>
       </c>
       <c r="C62" s="14"/>
@@ -10840,7 +10818,7 @@
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="58">
+      <c r="B63" s="13">
         <v>45910</v>
       </c>
       <c r="C63" s="14"/>
@@ -10864,7 +10842,7 @@
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="58">
+      <c r="B64" s="13">
         <v>45911</v>
       </c>
       <c r="C64" s="14"/>
@@ -10888,7 +10866,7 @@
       <c r="P64" s="2"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="58">
+      <c r="B65" s="13">
         <v>45912</v>
       </c>
       <c r="C65" s="14"/>
@@ -10912,7 +10890,7 @@
       <c r="P65" s="2"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="58">
+      <c r="B66" s="13">
         <v>45913</v>
       </c>
       <c r="C66" s="14"/>
@@ -10936,7 +10914,7 @@
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B67" s="58">
+      <c r="B67" s="13">
         <v>45914</v>
       </c>
       <c r="C67" s="14"/>
@@ -10961,7 +10939,7 @@
       <c r="P67" s="2"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="58">
+      <c r="B68" s="13">
         <v>45915</v>
       </c>
       <c r="C68" s="14"/>
@@ -10985,7 +10963,7 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="58">
+      <c r="B69" s="13">
         <v>45916</v>
       </c>
       <c r="C69" s="14"/>
@@ -11007,7 +10985,7 @@
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="58">
+      <c r="B70" s="13">
         <v>45917</v>
       </c>
       <c r="C70" s="14"/>
@@ -11029,7 +11007,7 @@
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="58">
+      <c r="B71" s="13">
         <v>45918</v>
       </c>
       <c r="C71" s="14"/>
@@ -11051,7 +11029,7 @@
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="58">
+      <c r="B72" s="13">
         <v>45919</v>
       </c>
       <c r="C72" s="14"/>
@@ -11073,7 +11051,7 @@
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="58">
+      <c r="B73" s="13">
         <v>45920</v>
       </c>
       <c r="C73" s="14"/>
@@ -11095,7 +11073,7 @@
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="58">
+      <c r="B74" s="13">
         <v>45921</v>
       </c>
       <c r="C74" s="14"/>
@@ -11108,7 +11086,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
       <c r="L74" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(C74:K74)</f>
         <v>0</v>
       </c>
       <c r="M74" s="17">
@@ -11117,7 +11095,7 @@
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="58">
+      <c r="B75" s="13">
         <v>45922</v>
       </c>
       <c r="C75" s="14"/>
@@ -11139,7 +11117,7 @@
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="58">
+      <c r="B76" s="13">
         <v>45923</v>
       </c>
       <c r="C76" s="14"/>
@@ -11161,7 +11139,7 @@
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="58">
+      <c r="B77" s="13">
         <v>45924</v>
       </c>
       <c r="C77" s="14"/>
@@ -11183,7 +11161,7 @@
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B78" s="58">
+      <c r="B78" s="13">
         <v>45925</v>
       </c>
       <c r="C78" s="14"/>
@@ -11205,7 +11183,7 @@
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B79" s="58">
+      <c r="B79" s="13">
         <v>45926</v>
       </c>
       <c r="C79" s="14"/>
@@ -11227,7 +11205,7 @@
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B80" s="58">
+      <c r="B80" s="13">
         <v>45927</v>
       </c>
       <c r="C80" s="14"/>
@@ -11240,39 +11218,38 @@
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
       <c r="L80" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L80:L82" si="2">SUM(C80:K80)</f>
         <v>0</v>
       </c>
       <c r="M80" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M80:M82" si="3">L80*20829</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="58">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" s="13">
         <v>45928</v>
       </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="57"/>
-      <c r="K81" s="57"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
       <c r="L81" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(C81:K81)</f>
         <v>0</v>
       </c>
       <c r="M81" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3"/>
-      <c r="B82" s="69">
+    <row r="82" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="18">
         <v>45929</v>
       </c>
       <c r="C82" s="19"/>
@@ -11289,11 +11266,9 @@
         <v>0</v>
       </c>
       <c r="M82" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11301,6 +11276,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62194602-84E7-4FB7-803B-9843B53D6524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFFF431-ADE5-422C-ABF9-466A5C669372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,16 +1351,49 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1372,35 +1405,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1417,28 +1426,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2900,7 +2900,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124974</c:v>
+                  <c:v>187461</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5318,15 +5318,15 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -5660,15 +5660,15 @@
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5685,11 +5685,11 @@
       <c r="E18" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5706,11 +5706,11 @@
       <c r="E19" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5727,11 +5727,11 @@
       <c r="E20" s="36">
         <v>4</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5748,11 +5748,11 @@
       <c r="E21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="92" t="s">
+      <c r="F21" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5769,9 +5769,9 @@
       <c r="E22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5788,11 +5788,11 @@
       <c r="E23" s="36">
         <v>1</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5809,11 +5809,11 @@
       <c r="E24" s="55">
         <v>24</v>
       </c>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5830,11 +5830,11 @@
       <c r="E25" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5851,11 +5851,11 @@
       <c r="E26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5872,11 +5872,11 @@
       <c r="E27" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5893,11 +5893,11 @@
       <c r="E28" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5914,11 +5914,11 @@
       <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="75" t="s">
+      <c r="F29" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5935,11 +5935,11 @@
       <c r="E30" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5956,11 +5956,11 @@
       <c r="E31" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5977,11 +5977,11 @@
       <c r="E32" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="66"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5998,11 +5998,11 @@
       <c r="E33" s="49">
         <v>3</v>
       </c>
-      <c r="F33" s="77" t="s">
+      <c r="F33" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6029,141 +6029,141 @@
     </row>
     <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="81"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="72"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="84" t="s">
+      <c r="C37" s="86"/>
+      <c r="D37" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="86"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="89"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="69" t="s">
+      <c r="C38" s="79"/>
+      <c r="D38" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="71"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="69" t="s">
+      <c r="C39" s="79"/>
+      <c r="D39" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="71"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="69" t="s">
+      <c r="C40" s="79"/>
+      <c r="D40" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="82"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="69" t="s">
+      <c r="C41" s="79"/>
+      <c r="D41" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="71"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="82"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="69" t="s">
+      <c r="C42" s="79"/>
+      <c r="D42" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="71"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="82"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="69" t="s">
+      <c r="C43" s="79"/>
+      <c r="D43" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="71"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="82"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="69" t="s">
+      <c r="C44" s="79"/>
+      <c r="D44" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="71"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="82"/>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="72" t="s">
+      <c r="C45" s="94"/>
+      <c r="D45" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="74"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="92"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C46"/>
@@ -6203,6 +6203,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F24:H24"/>
@@ -6219,27 +6240,6 @@
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9657,8 +9657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -10475,11 +10475,11 @@
       </c>
       <c r="L49" s="11">
         <f>SUM(L52:L1048554)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M49" s="12">
         <f>SUM(M51:M1048553)</f>
-        <v>187461</v>
+        <v>249948</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>90</v>
@@ -10581,7 +10581,9 @@
       <c r="C53" s="14">
         <v>3</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="14">
+        <v>3</v>
+      </c>
       <c r="E53" s="14">
         <v>3</v>
       </c>
@@ -10593,11 +10595,11 @@
       <c r="K53" s="14"/>
       <c r="L53" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M53" s="17">
         <f t="shared" ref="M53:M79" si="1">L53*20829</f>
-        <v>124974</v>
+        <v>187461</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -11218,7 +11220,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
       <c r="L80" s="16">
-        <f t="shared" ref="L80:L82" si="2">SUM(C80:K80)</f>
+        <f t="shared" ref="L80" si="2">SUM(C80:K80)</f>
         <v>0</v>
       </c>
       <c r="M80" s="17">

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFFF431-ADE5-422C-ABF9-466A5C669372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56A0994-2C24-4699-9C6A-D656C7DE8391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="5" r:id="rId1"/>
     <sheet name="유지체크" sheetId="6" r:id="rId2"/>
     <sheet name="7月" sheetId="3" r:id="rId3"/>
     <sheet name="8月" sheetId="7" r:id="rId4"/>
-    <sheet name="8月 (2)" sheetId="9" r:id="rId5"/>
+    <sheet name="9月" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
   <si>
     <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,18 @@
   </si>
   <si>
     <t xml:space="preserve">벤쳐기업심사 대응용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간뉴스수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드리미issue발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://agency8group.github.io/eibe_workspace/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2784,7 +2796,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'8月 (2)'!$B$51:$B$82</c:f>
+              <c:f>'9月'!$B$51:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd;@</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2889,7 +2901,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8月 (2)'!$M$51:$M$82</c:f>
+              <c:f>'9月'!$M$51:$M$82</c:f>
               <c:numCache>
                 <c:formatCode>"₩"#,##0;[Red]"₩"#,##0</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2900,13 +2912,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>62487</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>187461</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>562383</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4919,6 +4931,77 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1115787</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>272144</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55231A13-9434-03C0-2E6A-54095A200549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4721680" y="1211037"/>
+          <a:ext cx="2530928" cy="435427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1"/>
+            <a:t>드리미 보안 이슈 발생</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5217,7 +5300,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="52">
         <f>SUM(B6:B1048576)</f>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C3" s="53">
         <f>SUM(C6:C1048576)</f>
@@ -5241,7 +5324,7 @@
       </c>
       <c r="B6" s="52">
         <f>'7月'!M49</f>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C6" s="53">
         <f>'7月'!N49</f>
@@ -5296,8 +5379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D4C3-4BCC-41B6-A92A-03CFAAF5CCE9}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5504,11 +5587,11 @@
         <v>24</v>
       </c>
       <c r="F9" s="28">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>499896</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="23"/>
@@ -5769,7 +5852,9 @@
       <c r="E22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="75"/>
+      <c r="F22" s="75" t="s">
+        <v>126</v>
+      </c>
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
       <c r="I22" s="44"/>
@@ -6257,9 +6342,10 @@
     <hyperlink ref="F32" r:id="rId12" xr:uid="{7AFA5771-F277-4F4D-96B9-3BA430399B75}"/>
     <hyperlink ref="F33" r:id="rId13" xr:uid="{11B3A674-C54A-45F9-A58F-1AD7CB90BFC6}"/>
     <hyperlink ref="F21" r:id="rId14" xr:uid="{174835F6-C8DD-4BC7-9F44-0E457F9025A0}"/>
+    <hyperlink ref="F22" r:id="rId15" xr:uid="{C67C0AC8-F789-404B-A919-D6C126187134}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -6267,8 +6353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234D44F0-91DA-4CD1-A18C-3E5459E98741}">
   <dimension ref="B1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -7132,8 +7218,8 @@
         <v>2</v>
       </c>
       <c r="M49" s="11">
-        <f>SUM(M52:M1048556)</f>
-        <v>114</v>
+        <f>SUM(M51:M1048556)</f>
+        <v>120</v>
       </c>
       <c r="N49" s="12">
         <f>SUM(N51:N1048555)</f>
@@ -8039,7 +8125,7 @@
   <dimension ref="B1:P79"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -8855,8 +8941,8 @@
         <v>1</v>
       </c>
       <c r="L49" s="11">
-        <f>SUM(L52:L1048554)</f>
-        <v>83</v>
+        <f>SUM(L51:L1048554)</f>
+        <v>89</v>
       </c>
       <c r="M49" s="12">
         <f>SUM(M51:M1048553)</f>
@@ -9657,8 +9743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9671,7 +9757,7 @@
     <col min="7" max="7" width="25.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.375" style="2" bestFit="1" customWidth="1"/>
@@ -10428,7 +10514,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>9</v>
@@ -10468,18 +10554,18 @@
         <v>2</v>
       </c>
       <c r="J49" s="10">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K49" s="10">
         <v>1</v>
       </c>
       <c r="L49" s="11">
-        <f>SUM(L52:L1048554)</f>
-        <v>9</v>
+        <f>SUM(L51:L1048554)</f>
+        <v>42</v>
       </c>
       <c r="M49" s="12">
         <f>SUM(M51:M1048553)</f>
-        <v>249948</v>
+        <v>874818</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>90</v>
@@ -10510,7 +10596,7 @@
         <v>6</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="K50" s="19" t="s">
         <v>9</v>
@@ -10581,12 +10667,8 @@
       <c r="C53" s="14">
         <v>3</v>
       </c>
-      <c r="D53" s="14">
-        <v>3</v>
-      </c>
-      <c r="E53" s="14">
-        <v>3</v>
-      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -10595,11 +10677,11 @@
       <c r="K53" s="14"/>
       <c r="L53" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M53" s="17">
         <f t="shared" ref="M53:M79" si="1">L53*20829</f>
-        <v>187461</v>
+        <v>62487</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -10608,9 +10690,15 @@
       <c r="B54" s="13">
         <v>45901</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="C54" s="14">
+        <v>3</v>
+      </c>
+      <c r="D54" s="14">
+        <v>3</v>
+      </c>
+      <c r="E54" s="14">
+        <v>3</v>
+      </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -10619,11 +10707,11 @@
       <c r="K54" s="14"/>
       <c r="L54" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M54" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>187461</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -10632,22 +10720,26 @@
       <c r="B55" s="13">
         <v>45902</v>
       </c>
-      <c r="C55" s="14"/>
+      <c r="C55" s="14">
+        <v>3</v>
+      </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="J55" s="14">
+        <v>24</v>
+      </c>
       <c r="K55" s="14"/>
       <c r="L55" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M55" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>562383</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56A0994-2C24-4699-9C6A-D656C7DE8391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD87F66-4D47-4809-8485-992F9DD16086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="5" r:id="rId1"/>
@@ -1363,49 +1363,16 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1417,11 +1384,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1438,19 +1429,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2918,7 +2918,7 @@
                   <c:v>187461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>562383</c:v>
+                  <c:v>624870</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5379,7 +5379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D4C3-4BCC-41B6-A92A-03CFAAF5CCE9}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B45" sqref="B45:C45"/>
     </sheetView>
   </sheetViews>
@@ -5401,15 +5401,15 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -5743,15 +5743,15 @@
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5768,11 +5768,11 @@
       <c r="E18" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5789,11 +5789,11 @@
       <c r="E19" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5810,11 +5810,11 @@
       <c r="E20" s="36">
         <v>4</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5831,11 +5831,11 @@
       <c r="E21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5852,11 +5852,11 @@
       <c r="E22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5873,11 +5873,11 @@
       <c r="E23" s="36">
         <v>1</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5894,11 +5894,11 @@
       <c r="E24" s="55">
         <v>24</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="66"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5915,11 +5915,11 @@
       <c r="E25" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5936,11 +5936,11 @@
       <c r="E26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5957,11 +5957,11 @@
       <c r="E27" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="66"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5978,11 +5978,11 @@
       <c r="E28" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5999,11 +5999,11 @@
       <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6020,11 +6020,11 @@
       <c r="E30" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6041,11 +6041,11 @@
       <c r="E31" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="66"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6062,11 +6062,11 @@
       <c r="E32" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="65"/>
-      <c r="H32" s="66"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6083,11 +6083,11 @@
       <c r="E33" s="49">
         <v>3</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6114,141 +6114,141 @@
     </row>
     <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="72"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="87" t="s">
+      <c r="C37" s="83"/>
+      <c r="D37" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="89"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80" t="s">
+      <c r="C38" s="66"/>
+      <c r="D38" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="82"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80" t="s">
+      <c r="C39" s="66"/>
+      <c r="D39" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="82"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="71"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80" t="s">
+      <c r="C40" s="66"/>
+      <c r="D40" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="82"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="71"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80" t="s">
+      <c r="C41" s="66"/>
+      <c r="D41" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="82"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="71"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="82"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="71"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="82"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80" t="s">
+      <c r="C44" s="66"/>
+      <c r="D44" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="82"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="90" t="s">
+      <c r="C45" s="68"/>
+      <c r="D45" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="92"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C46"/>
@@ -6288,27 +6288,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F24:H24"/>
@@ -6325,6 +6304,27 @@
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9743,8 +9743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -10561,11 +10561,11 @@
       </c>
       <c r="L49" s="11">
         <f>SUM(L51:L1048554)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M49" s="12">
         <f>SUM(M51:M1048553)</f>
-        <v>874818</v>
+        <v>937305</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>90</v>
@@ -10723,7 +10723,9 @@
       <c r="C55" s="14">
         <v>3</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="14">
+        <v>3</v>
+      </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
@@ -10735,11 +10737,11 @@
       <c r="K55" s="14"/>
       <c r="L55" s="16">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M55" s="17">
         <f t="shared" si="1"/>
-        <v>562383</v>
+        <v>624870</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD87F66-4D47-4809-8485-992F9DD16086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F8309C-18AC-44D9-B08D-5CD4349B45D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,16 +1363,49 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1384,35 +1417,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1429,28 +1438,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2921,7 +2921,7 @@
                   <c:v>624870</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>124974</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5401,15 +5401,15 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -5743,15 +5743,15 @@
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5768,11 +5768,11 @@
       <c r="E18" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5789,11 +5789,11 @@
       <c r="E19" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5810,11 +5810,11 @@
       <c r="E20" s="36">
         <v>4</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5831,11 +5831,11 @@
       <c r="E21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="92" t="s">
+      <c r="F21" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5852,11 +5852,11 @@
       <c r="E22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="92" t="s">
+      <c r="F22" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5873,11 +5873,11 @@
       <c r="E23" s="36">
         <v>1</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5894,11 +5894,11 @@
       <c r="E24" s="55">
         <v>24</v>
       </c>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5915,11 +5915,11 @@
       <c r="E25" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5936,11 +5936,11 @@
       <c r="E26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5957,11 +5957,11 @@
       <c r="E27" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5978,11 +5978,11 @@
       <c r="E28" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5999,11 +5999,11 @@
       <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="75" t="s">
+      <c r="F29" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6020,11 +6020,11 @@
       <c r="E30" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6041,11 +6041,11 @@
       <c r="E31" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6062,11 +6062,11 @@
       <c r="E32" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="66"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6083,11 +6083,11 @@
       <c r="E33" s="49">
         <v>3</v>
       </c>
-      <c r="F33" s="77" t="s">
+      <c r="F33" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6114,141 +6114,141 @@
     </row>
     <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="81"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="72"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="84" t="s">
+      <c r="C37" s="86"/>
+      <c r="D37" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="86"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="89"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="69" t="s">
+      <c r="C38" s="79"/>
+      <c r="D38" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="71"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="69" t="s">
+      <c r="C39" s="79"/>
+      <c r="D39" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="71"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="69" t="s">
+      <c r="C40" s="79"/>
+      <c r="D40" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="82"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="69" t="s">
+      <c r="C41" s="79"/>
+      <c r="D41" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="71"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="82"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="69" t="s">
+      <c r="C42" s="79"/>
+      <c r="D42" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="71"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="82"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="69" t="s">
+      <c r="C43" s="79"/>
+      <c r="D43" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="71"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="82"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="69" t="s">
+      <c r="C44" s="79"/>
+      <c r="D44" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="71"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="82"/>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="72" t="s">
+      <c r="C45" s="94"/>
+      <c r="D45" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="74"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="92"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C46"/>
@@ -6288,6 +6288,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F24:H24"/>
@@ -6304,27 +6325,6 @@
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9744,7 +9744,7 @@
   <dimension ref="B1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -10561,11 +10561,11 @@
       </c>
       <c r="L49" s="11">
         <f>SUM(L51:L1048554)</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M49" s="12">
         <f>SUM(M51:M1048553)</f>
-        <v>937305</v>
+        <v>1062279</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>90</v>
@@ -10750,8 +10750,12 @@
       <c r="B56" s="13">
         <v>45903</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="14">
+        <v>3</v>
+      </c>
+      <c r="D56" s="14">
+        <v>3</v>
+      </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
@@ -10761,11 +10765,11 @@
       <c r="K56" s="14"/>
       <c r="L56" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M56" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>124974</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F8309C-18AC-44D9-B08D-5CD4349B45D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE61F86A-1F4A-40D9-B56E-489D82815A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,49 +1363,16 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1417,11 +1384,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1438,19 +1429,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2924,7 +2924,7 @@
                   <c:v>124974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4940,7 +4940,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>272144</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
@@ -4958,13 +4958,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4721680" y="1211037"/>
-          <a:ext cx="2530928" cy="435427"/>
+          <a:ext cx="2449284" cy="435427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -5401,15 +5401,15 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -5743,15 +5743,15 @@
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5768,11 +5768,11 @@
       <c r="E18" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5789,11 +5789,11 @@
       <c r="E19" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5810,11 +5810,11 @@
       <c r="E20" s="36">
         <v>4</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5831,11 +5831,11 @@
       <c r="E21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5852,11 +5852,11 @@
       <c r="E22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -5873,11 +5873,11 @@
       <c r="E23" s="36">
         <v>1</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5894,11 +5894,11 @@
       <c r="E24" s="55">
         <v>24</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="66"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5915,11 +5915,11 @@
       <c r="E25" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5936,11 +5936,11 @@
       <c r="E26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5957,11 +5957,11 @@
       <c r="E27" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="66"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5978,11 +5978,11 @@
       <c r="E28" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -5999,11 +5999,11 @@
       <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6020,11 +6020,11 @@
       <c r="E30" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6041,11 +6041,11 @@
       <c r="E31" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="66"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6062,11 +6062,11 @@
       <c r="E32" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="65"/>
-      <c r="H32" s="66"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6083,11 +6083,11 @@
       <c r="E33" s="49">
         <v>3</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6114,141 +6114,141 @@
     </row>
     <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="72"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="87" t="s">
+      <c r="C37" s="83"/>
+      <c r="D37" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="89"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80" t="s">
+      <c r="C38" s="66"/>
+      <c r="D38" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="82"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80" t="s">
+      <c r="C39" s="66"/>
+      <c r="D39" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="82"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="71"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80" t="s">
+      <c r="C40" s="66"/>
+      <c r="D40" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="82"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="71"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80" t="s">
+      <c r="C41" s="66"/>
+      <c r="D41" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="82"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="71"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="82"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="71"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="82"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80" t="s">
+      <c r="C44" s="66"/>
+      <c r="D44" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="82"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="90" t="s">
+      <c r="C45" s="68"/>
+      <c r="D45" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="92"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C46"/>
@@ -6288,27 +6288,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F24:H24"/>
@@ -6325,6 +6304,27 @@
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8124,8 +8124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D3E6F-5235-4035-822F-8FB39F1F9837}">
   <dimension ref="B1:P79"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9743,8 +9743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -10561,11 +10561,11 @@
       </c>
       <c r="L49" s="11">
         <f>SUM(L51:L1048554)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M49" s="12">
         <f>SUM(M51:M1048553)</f>
-        <v>1062279</v>
+        <v>1124766</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>90</v>
@@ -10778,7 +10778,9 @@
       <c r="B57" s="13">
         <v>45904</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="14">
+        <v>3</v>
+      </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -10789,11 +10791,11 @@
       <c r="K57" s="14"/>
       <c r="L57" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M57" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE61F86A-1F4A-40D9-B56E-489D82815A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ACEA55-4BBC-4C49-A778-1FFE66BA238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
   <si>
     <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,25 +132,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">	Web service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이미지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">요약 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간뉴스수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드리미issue발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>구분</t>
-  </si>
-  <si>
-    <t>프로그램명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누적 공수 절감시간(h)</t>
+    <t>Desktop(Window) application 유지보수 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누적 ROI</t>
-  </si>
-  <si>
-    <t>비고</t>
+    <t>Desktop(Window) application &gt; Windows 업데이트 및 보안 정책 변경 시 전종 프로그램의 안정성 유지 및 긴급 패치 대응 프로세스 운영. 버전별 변경 이력 관리 및 사용자 환경 이슈 트래킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Service 운영 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 장애 예방을 위한 다회차 사전 점검 및 비상 대응 매뉴얼 수립. Backend 연동 구조 내 API 서버 간 통신 상태 데일리 모니터링 및 트래픽 이상 탐지, 외부 호출 실패율 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 통합 점검 및 기술지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 운영 시스템별 기능/접속/연동 이슈 통합 관리. 부서간 연동 기술 지원 및 VOC 기반 개선 요청 기술적 검토 대응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영환경 테스트 및 배포 프로세스 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 환경 상시 유지 및 신규 기능 배포 전 사전체크리스트 기반 QA 수행. 프로그램 무중단 배포를 위한 시간대 조율 및 사용자별 테스트 피드백 수렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책/프로그램 변경사항 커뮤니케이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책/보안 변경 사항에 따른 프로그램 영향도 분석 및 사용자 커뮤니케이션 콘텐츠 제작. 직관적 공지 및 매뉴얼 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비정형 이슈에 대한 실시간 대응력 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상치 못한 환경 변경 및 외부 변동(예: API 제한, 업데이트 오류)에 대한 실시간 탐지 및 우회방안 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 문서 및 이슈 이력 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 이슈 방지를 위한 기술 대응 문서화 및 내부 위키 관리. 이슈 발생 ~ 해결까지의 로그 관리로 담당자별 대응 이력 명확화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 관점 운영 최적화 전략 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 접점에서의 불편사항 정리 및 프로세스별 UX 개선 제안. 기술과 운영을 연결하는 중간 브릿지 역할 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>프로그램명</t>
   </si>
   <si>
     <t>✅ 유지</t>
@@ -164,69 +253,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>✅ 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 이슈감지 (크롤링)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사적 이슈발생시 24시간 뉴스기사 감시 프로그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">압타밀 제품의 캔 단위를 EA 단위로 변환하는 도구 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>🛠️개발,보수중</t>
-  </si>
-  <si>
     <t>압타밀 세일즈의 직전주문을 수집하는 도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🌐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로그램</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대기</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>압타밀 판매 데이터를 대시보드용으로 변환하는 도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>🌐서버대기</t>
-  </si>
-  <si>
     <t>산후조리원 데이터를 표준 형식으로 변환하는 도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>✅ 유지</t>
+    <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>실시간 이슈감지 (크롤링)</t>
+    <t>EIBE 전산 (동수)기술개발 접수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전사적 이슈발생시 24시간 뉴스기사 감시 프로그램</t>
+    <t>동수 기술개발 요청 접수 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산후조리원주문수집페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 자동배정 금액 지급 자동화 주문 web 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🛠️개발,보수중</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIBE 워크 스페이스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">벤쳐기업심사 대응용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서비스 종료 및 소스코드 보관위치 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백업 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>❌ 종료,백업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,15 +342,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	Web service</t>
+    <t>개발요청서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사이트명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
+    <t>개발요청에 대한 초기 프로젝트 정보 수집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -268,45 +358,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>회의실 예약 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://agency8group.github.io/tool-box/?v=1753851962129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIBE 전산 (동수)기술개발 접수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동수 기술개발 요청 접수 사이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://agency8group.github.io/Technical_Request/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🌐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서버대기</t>
-    </r>
+    <t>회의실예약 및 실시간 예약 현황 체크가능 (사용중,예약등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://agency8group.github.io/eibe_cs/#ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사내매거진 main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://agency8group.github.io/In-house-Magazine/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오늘의 이슈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://agency8group.github.io/GoodMorning_Eibe/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전사공용캘린더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://agency8group.github.io/TeamScheduler/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피드백박스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://agency8group.github.io/Feedback-BOX/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테트리스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,10 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://agency8group.github.io/office-tetris/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팀프로필</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://agency8group.github.io/team-card/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>분유혜택 업로드 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://agency8group.github.io/Aptamil-Staff-Perks/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조직도 자리배치도 시뮬레이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,189 +438,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://agency8group.github.io/OrgPalette/</t>
+    <t>🌐프로그램대기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이미지 </t>
+    <t>🌐서버대기</t>
+  </si>
+  <si>
+    <t>⚠️검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>html</t>
+    <t>\\192.168.10.200\Guest\sorce_code_backup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">요약 </t>
+    <t>https://care-order.netlify.app/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>⚠️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검토</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보수적 공수 추산(h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://agency8group.github.io/eibe-reservation/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회의실예약 및 실시간 예약 현황 체크가능 (사용중,예약등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회의실 예약 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산후조리원주문수집페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 자동배정 금액 지급 자동화 주문 web 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://agency8group.github.io/care-order/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desktop(Window) application 유지보수 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desktop(Window) application &gt; Windows 업데이트 및 보안 정책 변경 시 전종 프로그램의 안정성 유지 및 긴급 패치 대응 프로세스 운영. 버전별 변경 이력 관리 및 사용자 환경 이슈 트래킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web Service 운영 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 장애 예방을 위한 다회차 사전 점검 및 비상 대응 매뉴얼 수립. Backend 연동 구조 내 API 서버 간 통신 상태 데일리 모니터링 및 트래픽 이상 탐지, 외부 호출 실패율 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 운영 시스템별 기능/접속/연동 이슈 통합 관리. 부서간 연동 기술 지원 및 VOC 기반 개선 요청 기술적 검토 대응</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 통합 점검 및 기술지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운영환경 테스트 및 배포 프로세스 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 환경 상시 유지 및 신규 기능 배포 전 사전체크리스트 기반 QA 수행. 프로그램 무중단 배포를 위한 시간대 조율 및 사용자별 테스트 피드백 수렴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정책/프로그램 변경사항 커뮤니케이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정책/보안 변경 사항에 따른 프로그램 영향도 분석 및 사용자 커뮤니케이션 콘텐츠 제작. 직관적 공지 및 매뉴얼 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비정형 이슈에 대한 실시간 대응력 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예상치 못한 환경 변경 및 외부 변동(예: API 제한, 업데이트 오류)에 대한 실시간 탐지 및 우회방안 제시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술 문서 및 이슈 이력 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복 이슈 방지를 위한 기술 대응 문서화 및 내부 위키 관리. 이슈 발생 ~ 해결까지의 로그 관리로 담당자별 대응 이력 명확화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 관점 운영 최적화 전략 수립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 접점에서의 불편사항 정리 및 프로세스별 UX 개선 제안. 기술과 운영을 연결하는 중간 브릿지 역할 수행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://agency8group.github.io/Development-request/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발요청서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발요청에 대한 초기 프로젝트 정보 수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 종료,백업</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EIBE 워크 스페이스 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">벤쳐기업심사 대응용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간뉴스수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드리미issue발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://agency8group.github.io/eibe_workspace/</t>
+    <t>https://eibe-technical-request.netlify.app/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +471,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="178" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,62 +509,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="함초롬돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="함초롬돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="함초롬돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="함초롬돋움"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="함초롬돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -718,9 +523,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Noto Sans KR"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -769,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1034,19 +889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1172,12 +1014,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,114 +1119,19 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,98 +1144,245 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2901,7 +2832,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9月'!$M$51:$M$82</c:f>
+              <c:f>'9月'!$J$51:$J$82</c:f>
               <c:numCache>
                 <c:formatCode>"₩"#,##0;[Red]"₩"#,##0</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2915,19 +2846,19 @@
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>187461</c:v>
+                  <c:v>166632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>624870</c:v>
+                  <c:v>604041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124974</c:v>
+                  <c:v>104145</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2936,10 +2867,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>166632</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>41658</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -4901,7 +4832,7 @@
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>639537</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
@@ -4934,15 +4865,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1115787</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:colOff>176894</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4957,7 +4888,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4721680" y="1211037"/>
+          <a:off x="3782787" y="1714502"/>
           <a:ext cx="2449284" cy="435427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5276,93 +5207,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="50"/>
-    <col min="5" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="9.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="22"/>
+    <col min="5" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="64"/>
+      <c r="B1" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="52">
+      <c r="B3" s="24">
         <f>SUM(B6:B1048576)</f>
         <v>120</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="25">
         <f>SUM(C6:C1048576)</f>
         <v>2499480</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="52"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="24">
         <f>'7月'!M49</f>
         <v>120</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="25">
         <f>'7月'!N49</f>
         <v>2499480</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5377,975 +5308,804 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D4C3-4BCC-41B6-A92A-03CFAAF5CCE9}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="B1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:C45"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="25.75" style="22" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="22"/>
-    <col min="11" max="11" width="16" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="9" style="31"/>
+    <col min="2" max="2" width="25.75" style="31" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="31" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="31" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="94"/>
+      <c r="D3" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
+    </row>
+    <row r="6" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+    </row>
+    <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+    </row>
+    <row r="11" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="97"/>
+    </row>
+    <row r="12" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+    </row>
+    <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+    </row>
+    <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+    </row>
+    <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+    </row>
+    <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
+    </row>
+    <row r="21" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109"/>
+    </row>
+    <row r="22" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
+    </row>
+    <row r="25" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B25" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="94"/>
+      <c r="F25" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="G25" s="81"/>
+      <c r="H25" s="82"/>
+    </row>
+    <row r="26" spans="2:8" s="50" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B26" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="65"/>
+      <c r="F26" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="84"/>
+      <c r="H26" s="85"/>
+    </row>
+    <row r="27" spans="2:8" s="50" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B27" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="110"/>
+      <c r="F27" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
+    </row>
+    <row r="28" spans="2:8" s="50" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="92"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+    </row>
+    <row r="30" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
+    </row>
+    <row r="32" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B32" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
+    </row>
+    <row r="33" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="74"/>
+    </row>
+    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+    </row>
+    <row r="35" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+    </row>
+    <row r="36" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B36" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
+    </row>
+    <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B37" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+    </row>
+    <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B38" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+    </row>
+    <row r="39" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B39" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+    </row>
+    <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B40" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
+    </row>
+    <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B41" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+    </row>
+    <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B42" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
+    </row>
+    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B43" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
+    </row>
+    <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B44" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="30">
-        <v>3</v>
-      </c>
-      <c r="F4" s="28">
-        <v>126</v>
-      </c>
-      <c r="G4" s="29">
-        <f>F4*20829</f>
-        <v>2624454</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="23"/>
-      <c r="K4" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="30">
-        <v>2</v>
-      </c>
-      <c r="F5" s="28">
-        <v>44</v>
-      </c>
-      <c r="G5" s="29">
-        <f>F5*20829</f>
-        <v>916476</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="23"/>
-      <c r="K5" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="30">
-        <v>3</v>
-      </c>
-      <c r="F6" s="28">
-        <v>24</v>
-      </c>
-      <c r="G6" s="29">
-        <f>F6*20829</f>
-        <v>499896</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="23"/>
-      <c r="K6" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="30">
-        <v>2</v>
-      </c>
-      <c r="F7" s="28">
-        <v>4</v>
-      </c>
-      <c r="G7" s="29">
-        <f t="shared" ref="G7:G14" si="0">F7*20829</f>
-        <v>83316</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="23"/>
-      <c r="K7" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="30">
-        <v>2</v>
-      </c>
-      <c r="F8" s="28">
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="23"/>
-      <c r="K8" s="35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="37">
-        <v>24</v>
-      </c>
-      <c r="F9" s="28">
-        <v>24</v>
-      </c>
-      <c r="G9" s="29">
-        <f t="shared" si="0"/>
-        <v>499896</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="23"/>
-      <c r="K9" s="54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="37">
-        <v>1</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="30">
-        <v>3</v>
-      </c>
-      <c r="F11" s="28">
-        <v>9</v>
-      </c>
-      <c r="G11" s="29">
-        <f t="shared" si="0"/>
-        <v>187461</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="28">
-        <v>0</v>
-      </c>
-      <c r="G12" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="30">
-        <v>2</v>
-      </c>
-      <c r="F13" s="28">
-        <v>2</v>
-      </c>
-      <c r="G13" s="29">
-        <f t="shared" si="0"/>
-        <v>41658</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="30">
-        <v>1</v>
-      </c>
-      <c r="F14" s="28">
-        <v>0</v>
-      </c>
-      <c r="G14" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="44"/>
-    </row>
-    <row r="20" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="36">
-        <v>4</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="44"/>
-    </row>
-    <row r="21" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="44"/>
-    </row>
-    <row r="23" spans="1:9" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="46" t="s">
+      <c r="D44" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
+    </row>
+    <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B45" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="36">
-        <v>1</v>
-      </c>
-      <c r="F23" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="44"/>
-    </row>
-    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="55">
-        <v>24</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="49">
-        <v>3</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="65" t="s">
+      <c r="E45" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="71"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="71"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="71"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="71"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="73"/>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
       <c r="H45" s="74"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C52"/>
-    </row>
-    <row r="53" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C53"/>
-    </row>
-    <row r="54" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C54"/>
-    </row>
-    <row r="55" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C56"/>
-    </row>
-    <row r="57" spans="3:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C57"/>
+    <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B46" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="74"/>
+    </row>
+    <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B47" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="74"/>
+    </row>
+    <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B48" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="74"/>
+    </row>
+    <row r="49" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="100"/>
+    </row>
+    <row r="80" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B80" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B81" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B82" s="60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B83" s="60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B84" s="61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B85" s="62" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F24:H24"/>
+  <mergeCells count="54">
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B24:H24"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F31" r:id="rId1" xr:uid="{70469821-F4A1-45E6-81DB-DCB3E045A4A3}"/>
-    <hyperlink ref="F30" r:id="rId2" xr:uid="{010F319D-5544-456F-8543-315EAC3E62B0}"/>
-    <hyperlink ref="F29" r:id="rId3" xr:uid="{A0F2177D-F3B7-4E46-9918-BC37E0D24315}"/>
-    <hyperlink ref="F28" r:id="rId4" xr:uid="{38943063-13B7-4D29-B1D4-2A574961C1C3}"/>
-    <hyperlink ref="F27" r:id="rId5" xr:uid="{BBF2FD60-87DC-4E72-9513-705EC310C7C1}"/>
-    <hyperlink ref="F26" r:id="rId6" xr:uid="{5FD013A6-7ADF-45DA-8DBB-411212CABE28}"/>
-    <hyperlink ref="F25" r:id="rId7" xr:uid="{C9C5A18F-1BBB-4475-8F42-863DBF5D7D02}"/>
-    <hyperlink ref="F24" r:id="rId8" location="ai" xr:uid="{FF060DD9-CE1A-4C58-87A0-04BB6668BF85}"/>
-    <hyperlink ref="F20" r:id="rId9" xr:uid="{BFDC43CE-4F53-44BE-A885-C6F5846A6BF6}"/>
-    <hyperlink ref="F19" r:id="rId10" xr:uid="{46B79DEF-7317-4B0A-A67C-150A0418E88B}"/>
-    <hyperlink ref="F23" r:id="rId11" xr:uid="{E0D3FABB-2A0C-48F1-809E-609ACFD2DE3D}"/>
-    <hyperlink ref="F32" r:id="rId12" xr:uid="{7AFA5771-F277-4F4D-96B9-3BA430399B75}"/>
-    <hyperlink ref="F33" r:id="rId13" xr:uid="{11B3A674-C54A-45F9-A58F-1AD7CB90BFC6}"/>
-    <hyperlink ref="F21" r:id="rId14" xr:uid="{174835F6-C8DD-4BC7-9F44-0E457F9025A0}"/>
-    <hyperlink ref="F22" r:id="rId15" xr:uid="{C67C0AC8-F789-404B-A919-D6C126187134}"/>
+    <hyperlink ref="F26" r:id="rId1" xr:uid="{BFDC43CE-4F53-44BE-A885-C6F5846A6BF6}"/>
+    <hyperlink ref="F27" r:id="rId2" xr:uid="{8D51C4E4-E0BB-4594-8FB1-9E5AB545FD2A}"/>
+    <hyperlink ref="E33" r:id="rId3" xr:uid="{9B5D8082-01B8-4768-B05A-54F03A9C3D6E}"/>
+    <hyperlink ref="E34" r:id="rId4" xr:uid="{B0E2F116-ACA9-4E52-BF02-935CCC88598D}"/>
+    <hyperlink ref="E35" r:id="rId5" xr:uid="{D0B03D30-3D88-43AD-8663-9C2DFDA2EBEC}"/>
+    <hyperlink ref="E36" r:id="rId6" xr:uid="{047E1930-133E-4DC3-A8D6-77F6534770D1}"/>
+    <hyperlink ref="E37" r:id="rId7" xr:uid="{35CE7338-60DF-4E7B-9C27-F54637291D47}"/>
+    <hyperlink ref="E38" r:id="rId8" xr:uid="{B9C40DD3-00AC-46CF-B083-0C3ADE7EEDB0}"/>
+    <hyperlink ref="E39" r:id="rId9" xr:uid="{8D24348E-3B7E-43C6-857C-71B102474935}"/>
+    <hyperlink ref="E40" r:id="rId10" xr:uid="{B342CF0F-CE76-4D5E-8BC8-C722DF3488C0}"/>
+    <hyperlink ref="E41" r:id="rId11" xr:uid="{18CA622E-709E-4DF8-8303-554E1C95A2A2}"/>
+    <hyperlink ref="E42" r:id="rId12" xr:uid="{2ED9D719-2B30-4F02-A79B-38E79AAF8AAF}"/>
+    <hyperlink ref="E43" r:id="rId13" xr:uid="{7313763E-51C5-4148-9CF5-1C6ABD8CEF30}"/>
+    <hyperlink ref="E44" r:id="rId14" xr:uid="{567083D0-DFAD-43B4-B076-736601FAE5F8}"/>
+    <hyperlink ref="E45" r:id="rId15" xr:uid="{0FB56E5E-C9A4-47CD-9DC1-A80B446219DD}"/>
+    <hyperlink ref="E46" r:id="rId16" xr:uid="{DB05AA14-E893-4745-8D50-3E54447B9C2F}"/>
+    <hyperlink ref="E47" r:id="rId17" xr:uid="{7F32548A-87CA-426E-8DB2-D79FB29C4189}"/>
+    <hyperlink ref="E48" r:id="rId18" xr:uid="{AAE913D5-4CBE-4268-BA16-E0796C20931F}"/>
+    <hyperlink ref="E49" r:id="rId19" xr:uid="{330C11E9-A305-4788-8942-6EC19D0357B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -6354,7 +6114,7 @@
   <dimension ref="B1:Q81"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6380,761 +6140,761 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="113"/>
       <c r="P2" s="3" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="116"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="100"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="116"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="100"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="116"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="100"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="116"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="100"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="116"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="100"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="100"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="116"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="100"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="116"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="100"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="116"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="100"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="116"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="100"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="116"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="100"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="116"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="100"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="116"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="100"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="116"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="100"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="100"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="116"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="100"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="116"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="100"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="116"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="100"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="116"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="100"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="116"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="100"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="116"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="100"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="116"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="100"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="116"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="100"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="116"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="100"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="116"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="98"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="100"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="116"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="98"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="100"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="116"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="98"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="100"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="116"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="100"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="116"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="98"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="100"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="116"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="100"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="98"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="100"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="116"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="98"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="100"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="116"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="100"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="116"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="98"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="100"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="116"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="100"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="116"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="98"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="100"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="116"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="100"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="115"/>
+      <c r="M41" s="115"/>
+      <c r="N41" s="116"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="100"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="115"/>
+      <c r="N42" s="116"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="100"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="116"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="98"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="100"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="116"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="98"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="100"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="115"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="116"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="98"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="99"/>
-      <c r="M46" s="99"/>
-      <c r="N46" s="100"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="116"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="98"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="100"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="115"/>
+      <c r="M47" s="115"/>
+      <c r="N47" s="116"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -7179,7 +6939,7 @@
         <v>13</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Q48" s="2"/>
     </row>
@@ -8158,715 +7918,715 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
       <c r="O2" s="3" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="116"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="100"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="116"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="116"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="116"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="100"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="116"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="100"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="100"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="116"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="100"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="100"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="116"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="100"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="116"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="116"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="100"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="116"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="100"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="116"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="116"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="100"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="116"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="100"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="116"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="100"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="116"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="100"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="116"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="100"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="116"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="100"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="116"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="100"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="116"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="100"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="116"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="116"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="100"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="116"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="100"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="116"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="98"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="100"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="116"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="98"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="100"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="116"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="98"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="100"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="116"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="100"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="116"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="98"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="100"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="116"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="100"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="116"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="98"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="100"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="116"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="98"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="100"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="116"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="100"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="116"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="98"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="100"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="116"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="100"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="116"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="98"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="100"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="116"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="100"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="115"/>
+      <c r="M41" s="116"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="100"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="116"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="100"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="116"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="98"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="100"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="116"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="98"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="100"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="115"/>
+      <c r="M45" s="116"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="98"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="99"/>
-      <c r="M46" s="100"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="116"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="98"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="100"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="115"/>
+      <c r="M47" s="116"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
@@ -8949,7 +8709,7 @@
         <v>1853781</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="P49" s="2"/>
     </row>
@@ -8985,34 +8745,34 @@
       <c r="L50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="57" t="s">
+      <c r="M50" s="26" t="s">
         <v>0</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="60">
+      <c r="B51" s="27">
         <v>45869</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="28">
         <v>3</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61">
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28">
         <v>3</v>
       </c>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="62">
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="29">
         <f t="shared" ref="L51:L67" si="0">SUM(C51:K51)</f>
         <v>6</v>
       </c>
-      <c r="M51" s="63">
+      <c r="M51" s="30">
         <f>L51*20829</f>
         <v>124974</v>
       </c>
@@ -9741,10 +9501,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
-  <dimension ref="B1:P82"/>
+  <dimension ref="B1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9755,740 +9515,599 @@
     <col min="4" max="4" width="21.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="3"/>
-    <col min="24" max="24" width="9" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="3"/>
+    <col min="21" max="21" width="9" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
-      <c r="O2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="100"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="100"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="100"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="100"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="100"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="100"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="100"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="100"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="100"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="100"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="100"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="100"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="100"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="100"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="100"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="100"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="100"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="100"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="100"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="100"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="98"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="100"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="98"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="100"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="98"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="100"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="100"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="98"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="100"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="100"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="98"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="100"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="98"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="100"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="100"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="98"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="100"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="100"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="98"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="100"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="100"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="100"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="100"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="98"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="100"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="98"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="100"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="98"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="99"/>
-      <c r="M46" s="100"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="98"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="100"/>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="113"/>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="116"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="116"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="116"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="116"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="116"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="116"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="116"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="116"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="116"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="116"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="116"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="116"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="116"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="116"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="116"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="116"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="116"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="116"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="116"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="116"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="114"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="116"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="116"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="116"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="116"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="116"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="116"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>14</v>
       </c>
@@ -10508,27 +10127,18 @@
         <v>3</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="8" t="s">
+      <c r="J48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -10548,31 +10158,22 @@
         <v>2</v>
       </c>
       <c r="H49" s="10">
-        <v>3</v>
-      </c>
-      <c r="I49" s="10">
-        <v>2</v>
-      </c>
-      <c r="J49" s="10">
         <v>24</v>
       </c>
-      <c r="K49" s="10">
-        <v>1</v>
-      </c>
-      <c r="L49" s="11">
-        <f>SUM(L51:L1048554)</f>
-        <v>54</v>
-      </c>
-      <c r="M49" s="12">
-        <f>SUM(M51:M1048553)</f>
-        <v>1124766</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I49" s="11">
+        <f>SUM(I51:I1048554)</f>
+        <v>64</v>
+      </c>
+      <c r="J49" s="12">
+        <f>SUM(J51:J1048553)</f>
+        <v>1333056</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="18"/>
       <c r="C50" s="19" t="s">
         <v>1</v>
@@ -10590,53 +10191,41 @@
         <v>3</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="57" t="s">
+      <c r="J50" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="60">
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="27">
         <v>45898</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="28">
         <v>3</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="62">
-        <f t="shared" ref="L51:L79" si="0">SUM(C51:K51)</f>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29">
+        <f t="shared" ref="I51:I82" si="0">SUM(C51:H51)</f>
         <v>3</v>
       </c>
-      <c r="M51" s="63">
-        <f>L51*20829</f>
+      <c r="J51" s="30">
+        <f>I51*20829</f>
         <v>62487</v>
       </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="13">
         <v>45899</v>
       </c>
@@ -10646,21 +10235,18 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="16">
+      <c r="I52" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M52" s="17">
-        <f>L52*20829</f>
+      <c r="J52" s="17">
+        <f>I52*20829</f>
         <v>0</v>
       </c>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
         <v>45900</v>
       </c>
@@ -10672,21 +10258,18 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="16">
+      <c r="I53" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M53" s="17">
-        <f t="shared" ref="M53:M79" si="1">L53*20829</f>
+      <c r="J53" s="17">
+        <f t="shared" ref="J53:J79" si="1">I53*20829</f>
         <v>62487</v>
       </c>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
         <v>45901</v>
       </c>
@@ -10694,7 +10277,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="14">
         <v>3</v>
@@ -10702,21 +10285,18 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="16">
+      <c r="I54" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M54" s="17">
+        <v>8</v>
+      </c>
+      <c r="J54" s="17">
         <f t="shared" si="1"/>
-        <v>187461</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+        <v>166632</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="13">
         <v>45902</v>
       </c>
@@ -10724,29 +10304,26 @@
         <v>3</v>
       </c>
       <c r="D55" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14">
+      <c r="H55" s="14">
         <v>24</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="16">
+      <c r="I55" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="M55" s="17">
+        <v>29</v>
+      </c>
+      <c r="J55" s="17">
         <f t="shared" si="1"/>
-        <v>624870</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+        <v>604041</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
         <v>45903</v>
       </c>
@@ -10754,27 +10331,24 @@
         <v>3</v>
       </c>
       <c r="D56" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="16">
+      <c r="I56" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M56" s="17">
+        <v>5</v>
+      </c>
+      <c r="J56" s="17">
         <f t="shared" si="1"/>
-        <v>124974</v>
-      </c>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+        <v>104145</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
         <v>45904</v>
       </c>
@@ -10786,45 +10360,41 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="16">
+      <c r="I57" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M57" s="17">
+      <c r="J57" s="17">
         <f t="shared" si="1"/>
         <v>62487</v>
       </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="13">
         <v>45905</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="14">
+        <v>3</v>
+      </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="16">
+      <c r="I58" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="17">
+        <v>3</v>
+      </c>
+      <c r="J58" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+        <v>62487</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="13">
         <v>45906</v>
       </c>
@@ -10834,21 +10404,18 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="16">
+      <c r="I59" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M59" s="17">
+      <c r="J59" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="13">
         <v>45907</v>
       </c>
@@ -10858,68 +10425,67 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="16">
+      <c r="I60" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M60" s="17">
+      <c r="J60" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="13">
         <v>45908</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="C61" s="14">
+        <v>3</v>
+      </c>
+      <c r="D61" s="14">
+        <v>2</v>
+      </c>
+      <c r="E61" s="14">
+        <v>3</v>
+      </c>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="16">
+      <c r="I61" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="17">
+        <v>8</v>
+      </c>
+      <c r="J61" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+        <v>166632</v>
+      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
         <v>45909</v>
       </c>
       <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+      <c r="D62" s="14">
+        <v>2</v>
+      </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="16">
+      <c r="I62" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="17">
+        <v>2</v>
+      </c>
+      <c r="J62" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+        <v>41658</v>
+      </c>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="13">
         <v>45910</v>
       </c>
@@ -10929,21 +10495,18 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="16">
+      <c r="I63" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="17">
+      <c r="J63" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="13">
         <v>45911</v>
       </c>
@@ -10953,21 +10516,18 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="16">
+      <c r="I64" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M64" s="17">
+      <c r="J64" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="13">
         <v>45912</v>
       </c>
@@ -10977,21 +10537,18 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="16">
+      <c r="I65" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="17">
+      <c r="J65" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
         <v>45913</v>
       </c>
@@ -11001,21 +10558,18 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="16">
+      <c r="I66" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M66" s="17">
+      <c r="J66" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="13">
         <v>45914</v>
       </c>
@@ -11025,22 +10579,19 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="16">
+      <c r="I67" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M67" s="17">
+      <c r="J67" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N67" s="4"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K67" s="4"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="13">
         <v>45915</v>
       </c>
@@ -11050,21 +10601,18 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="16">
+      <c r="I68" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M68" s="17">
+      <c r="J68" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="13">
         <v>45916</v>
       </c>
@@ -11074,19 +10622,16 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="16">
+      <c r="I69" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M69" s="17">
+      <c r="J69" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="13">
         <v>45917</v>
       </c>
@@ -11096,19 +10641,16 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="16">
+      <c r="I70" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M70" s="17">
+      <c r="J70" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="13">
         <v>45918</v>
       </c>
@@ -11118,19 +10660,16 @@
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="16">
+      <c r="I71" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M71" s="17">
+      <c r="J71" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
         <v>45919</v>
       </c>
@@ -11140,19 +10679,16 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="16">
+      <c r="I72" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M72" s="17">
+      <c r="J72" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
         <v>45920</v>
       </c>
@@ -11162,19 +10698,16 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="16">
+      <c r="I73" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M73" s="17">
+      <c r="J73" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="13">
         <v>45921</v>
       </c>
@@ -11184,19 +10717,16 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="16">
-        <f>SUM(C74:K74)</f>
+      <c r="I74" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M74" s="17">
+      <c r="J74" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="13">
         <v>45922</v>
       </c>
@@ -11206,19 +10736,16 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="16">
+      <c r="I75" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M75" s="17">
+      <c r="J75" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="13">
         <v>45923</v>
       </c>
@@ -11228,19 +10755,16 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="16">
+      <c r="I76" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M76" s="17">
+      <c r="J76" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <v>45924</v>
       </c>
@@ -11250,19 +10774,16 @@
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="16">
+      <c r="I77" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M77" s="17">
+      <c r="J77" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
         <v>45925</v>
       </c>
@@ -11272,19 +10793,16 @@
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="16">
+      <c r="I78" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M78" s="17">
+      <c r="J78" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="13">
         <v>45926</v>
       </c>
@@ -11294,19 +10812,16 @@
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="16">
+      <c r="I79" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M79" s="17">
+      <c r="J79" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="13">
         <v>45927</v>
       </c>
@@ -11316,19 +10831,16 @@
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="16">
-        <f t="shared" ref="L80" si="2">SUM(C80:K80)</f>
+      <c r="I80" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M80" s="17">
-        <f t="shared" ref="M80:M82" si="3">L80*20829</f>
+      <c r="J80" s="17">
+        <f t="shared" ref="J80:J82" si="2">I80*20829</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="13">
         <v>45928</v>
       </c>
@@ -11338,19 +10850,16 @@
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="16">
-        <f>SUM(C81:K81)</f>
+      <c r="I81" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M81" s="17">
-        <f t="shared" si="3"/>
+      <c r="J81" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="18">
         <v>45929</v>
       </c>
@@ -11360,21 +10869,18 @@
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="20">
-        <f>SUM(C82:K82)</f>
+      <c r="I82" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M82" s="21">
-        <f t="shared" si="3"/>
+      <c r="J82" s="21">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:M47"/>
+    <mergeCell ref="B2:J47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263779C-0FD7-4AB8-AAEC-E750BCCEB933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB0097C-9DB0-484C-9061-DB24C0BC6782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="115">
   <si>
     <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>❌ 종료,백업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여러 엑셀 파일을 하나로 병합하는 기본 도구</t>
   </si>
   <si>
@@ -465,6 +461,54 @@
   </si>
   <si>
     <t>일자/항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://eibe-workspace.netlify.app/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 유지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 운영종료</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +522,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="178" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +628,19 @@
       <sz val="20"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans KR"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1000,7 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1088,96 +1145,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1187,143 +1154,236 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5251,29 +5311,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D4C3-4BCC-41B6-A92A-03CFAAF5CCE9}">
-  <dimension ref="B1:M49"/>
+  <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="31"/>
-    <col min="2" max="2" width="25.75" style="31" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.875" style="31" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="31" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="31" customWidth="1"/>
-    <col min="9" max="12" width="9" style="31"/>
-    <col min="13" max="13" width="16.5" style="31" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="9" style="34"/>
+    <col min="2" max="2" width="25.75" style="34" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="34" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="34" customWidth="1"/>
+    <col min="9" max="9" width="9" style="34"/>
+    <col min="10" max="10" width="19.125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="79" t="s">
         <v>34</v>
       </c>
@@ -5283,27 +5343,24 @@
       <c r="F2" s="80"/>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
-      <c r="M2" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="94" t="s">
+    </row>
+    <row r="3" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="96"/>
+      <c r="D3" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
-      <c r="M3" s="51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="J3" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="65" t="s">
         <v>37</v>
       </c>
@@ -5315,11 +5372,11 @@
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
       <c r="H4" s="69"/>
-      <c r="M4" s="52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="65" t="s">
         <v>39</v>
       </c>
@@ -5331,11 +5388,11 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
       <c r="H5" s="69"/>
-      <c r="M5" s="52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="65" t="s">
         <v>41</v>
       </c>
@@ -5347,11 +5404,11 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="69"/>
-      <c r="M6" s="53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="65" t="s">
         <v>43</v>
       </c>
@@ -5363,11 +5420,11 @@
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
       <c r="H7" s="69"/>
-      <c r="M7" s="54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="65" t="s">
         <v>45</v>
       </c>
@@ -5379,8 +5436,11 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
       <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="65" t="s">
         <v>47</v>
       </c>
@@ -5393,7 +5453,7 @@
       <c r="G9" s="68"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="65" t="s">
         <v>49</v>
       </c>
@@ -5406,30 +5466,30 @@
       <c r="G10" s="68"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="92" t="s">
+    <row r="11" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="96" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
-    </row>
-    <row r="12" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
+    </row>
+    <row r="12" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="76" t="s">
         <v>26</v>
       </c>
@@ -5440,158 +5500,158 @@
       <c r="G14" s="77"/>
       <c r="H14" s="78"/>
     </row>
-    <row r="15" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B15" s="58" t="s">
+    <row r="15" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B15" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-    </row>
-    <row r="16" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="33" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
     </row>
     <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104"/>
     </row>
     <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
     </row>
     <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
+      <c r="D22" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
+      <c r="D23" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="108"/>
     </row>
     <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="79" t="s">
@@ -5605,27 +5665,27 @@
       <c r="H26" s="81"/>
     </row>
     <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="95"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="82" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="82"/>
       <c r="H27" s="83"/>
     </row>
-    <row r="28" spans="2:8" s="42" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="B28" s="40" t="s">
+    <row r="28" spans="2:8" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B28" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="46" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="67" t="s">
@@ -5633,42 +5693,44 @@
       </c>
       <c r="E28" s="66"/>
       <c r="F28" s="84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" s="85"/>
       <c r="H28" s="86"/>
     </row>
-    <row r="29" spans="2:8" s="42" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="B29" s="40" t="s">
+    <row r="29" spans="2:8" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B29" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="109"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G29" s="85"/>
       <c r="H29" s="86"/>
     </row>
-    <row r="30" spans="2:8" s="42" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="45" t="s">
+    <row r="30" spans="2:8" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="88"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="88"/>
+      <c r="H30" s="89"/>
     </row>
     <row r="32" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -5683,276 +5745,276 @@
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="39" t="s">
+      <c r="C34" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="89" t="s">
+      <c r="E34" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
     </row>
     <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>76</v>
-      </c>
       <c r="E35" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" s="74"/>
       <c r="G35" s="74"/>
       <c r="H35" s="75"/>
     </row>
     <row r="36" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="41" t="s">
+      <c r="B36" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="48" t="s">
-        <v>77</v>
+      <c r="D36" s="61" t="s">
+        <v>76</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="74"/>
       <c r="G36" s="74"/>
       <c r="H36" s="75"/>
     </row>
     <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B37" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="41" t="s">
+      <c r="B37" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="48" t="s">
-        <v>79</v>
+      <c r="D37" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="E37" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="74"/>
       <c r="G37" s="74"/>
       <c r="H37" s="75"/>
     </row>
     <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B38" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="41" t="s">
+      <c r="B38" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="41" t="s">
-        <v>81</v>
-      </c>
       <c r="E38" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38" s="74"/>
       <c r="G38" s="74"/>
       <c r="H38" s="75"/>
     </row>
     <row r="39" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B39" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="41" t="s">
+      <c r="B39" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="41" t="s">
-        <v>83</v>
-      </c>
       <c r="E39" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="74"/>
       <c r="G39" s="74"/>
       <c r="H39" s="75"/>
     </row>
     <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B40" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="41" t="s">
+      <c r="B40" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="41" t="s">
-        <v>85</v>
-      </c>
       <c r="E40" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="74"/>
       <c r="G40" s="74"/>
       <c r="H40" s="75"/>
     </row>
     <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B41" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="47" t="s">
+      <c r="B41" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>87</v>
-      </c>
       <c r="E41" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="74"/>
       <c r="G41" s="74"/>
       <c r="H41" s="75"/>
     </row>
     <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B42" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="47" t="s">
+      <c r="B42" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="47" t="s">
-        <v>89</v>
-      </c>
       <c r="E42" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="74"/>
       <c r="H42" s="75"/>
     </row>
     <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B43" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="47" t="s">
+      <c r="B43" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="E43" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="74"/>
       <c r="G43" s="74"/>
       <c r="H43" s="75"/>
     </row>
     <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B44" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="47" t="s">
+      <c r="B44" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="47" t="s">
-        <v>93</v>
-      </c>
       <c r="E44" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" s="74"/>
       <c r="G44" s="74"/>
       <c r="H44" s="75"/>
     </row>
     <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B45" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="47" t="s">
+      <c r="B45" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="47" t="s">
-        <v>95</v>
-      </c>
       <c r="E45" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F45" s="74"/>
       <c r="G45" s="74"/>
       <c r="H45" s="75"/>
     </row>
     <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B46" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="47" t="s">
+      <c r="B46" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="E46" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" s="74"/>
       <c r="G46" s="74"/>
       <c r="H46" s="75"/>
     </row>
     <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B47" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="47" t="s">
+      <c r="B47" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="47" t="s">
-        <v>99</v>
-      </c>
       <c r="E47" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47" s="74"/>
       <c r="G47" s="74"/>
       <c r="H47" s="75"/>
     </row>
     <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B48" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="47" t="s">
+      <c r="B48" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="47" t="s">
-        <v>101</v>
-      </c>
       <c r="E48" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" s="74"/>
       <c r="G48" s="74"/>
       <c r="H48" s="75"/>
     </row>
     <row r="49" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="50" t="s">
+      <c r="B49" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="101"/>
+      <c r="E49" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -6030,9 +6092,10 @@
     <hyperlink ref="E47" r:id="rId15" xr:uid="{7F32548A-87CA-426E-8DB2-D79FB29C4189}"/>
     <hyperlink ref="E48" r:id="rId16" xr:uid="{AAE913D5-4CBE-4268-BA16-E0796C20931F}"/>
     <hyperlink ref="E49" r:id="rId17" xr:uid="{330C11E9-A305-4788-8942-6EC19D0357B7}"/>
+    <hyperlink ref="F30" r:id="rId18" xr:uid="{2F546F26-2D8E-4833-BBAF-18188A2B6168}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -6067,761 +6130,761 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="112"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="113"/>
       <c r="P2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="115"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="116"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="115"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="116"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="113"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="115"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="116"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="115"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="116"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="115"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="116"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="115"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="115"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="116"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="113"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="115"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="116"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="115"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="116"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="115"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="116"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="115"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="116"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="113"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="115"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="116"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="115"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="116"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="113"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="115"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="116"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="113"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="115"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="113"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="115"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="116"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="115"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="116"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="115"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="116"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="115"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="116"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="113"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="115"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="116"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="113"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="115"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="116"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="113"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="115"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="116"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="115"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="116"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="113"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="115"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="116"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="113"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="115"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="116"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="113"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="115"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="116"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="115"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="116"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="113"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="115"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="116"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="113"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="115"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="116"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="113"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="115"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="116"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="113"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="115"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="113"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="115"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="116"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="113"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="115"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="116"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="113"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="115"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="116"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="113"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="115"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="116"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="113"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="115"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="116"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="113"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="115"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="116"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="113"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="115"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="115"/>
+      <c r="M41" s="115"/>
+      <c r="N41" s="116"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="113"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="115"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="115"/>
+      <c r="N42" s="116"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="113"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="115"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="116"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="113"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="115"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="116"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="113"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="115"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="115"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="116"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="115"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="116"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="115"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="115"/>
+      <c r="M47" s="115"/>
+      <c r="N47" s="116"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -7812,7 +7875,7 @@
   <dimension ref="B1:P79"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -7845,715 +7908,715 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
       <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="115"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="116"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="115"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="116"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="113"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="115"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="116"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="115"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="116"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="115"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="116"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="115"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="115"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="116"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="113"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="115"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="115"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="116"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="115"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="116"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="116"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="113"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="115"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="116"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="115"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="116"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="113"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="115"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="116"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="113"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="115"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="116"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="113"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="115"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="116"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="115"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="116"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="115"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="116"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="115"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="116"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="113"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="115"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="116"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="113"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="115"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="116"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="113"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="115"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="116"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="115"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="116"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="113"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="115"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="116"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="113"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="116"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="113"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="115"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="116"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="115"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="116"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="113"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="115"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="116"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="113"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="116"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="113"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="115"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="116"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="113"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="116"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="113"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="115"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="116"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="113"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="115"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="116"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="113"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="115"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="116"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="113"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="115"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="116"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="113"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="115"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="116"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="113"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="115"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="116"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="113"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="115"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="115"/>
+      <c r="M41" s="116"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="113"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="115"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="116"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="113"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="115"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="116"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="113"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="115"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="116"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="113"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="115"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="115"/>
+      <c r="M45" s="116"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="115"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="116"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="115"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="115"/>
+      <c r="M47" s="116"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
@@ -9430,8 +9493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:O82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N27" sqref="N25:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9464,669 +9527,669 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="112"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113"/>
       <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="115"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="116"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="115"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="113"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="115"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="116"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="116"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="115"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="116"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="115"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="116"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="116"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="113"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="115"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="115"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="116"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="115"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="113"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="116"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="113"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="115"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="116"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="113"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="115"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="116"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="113"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="115"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="116"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="115"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="116"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="115"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="116"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="115"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="116"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="113"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="115"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="116"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="113"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="115"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="116"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="113"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="115"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="116"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="115"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="116"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="113"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="115"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="116"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="113"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="115"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="116"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="113"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="115"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="116"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="115"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="116"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="113"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="115"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="116"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="113"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="115"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="116"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="113"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="115"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="116"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="113"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="115"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="116"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="113"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="115"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="116"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="113"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="115"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="116"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="113"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="115"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="116"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="113"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="115"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="116"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="113"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="115"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="116"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="113"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="115"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="116"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="113"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="115"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="116"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="113"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="115"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="116"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="113"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="115"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="116"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="113"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="115"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="116"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="113"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="115"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="116"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="115"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="116"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="115"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="116"/>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
@@ -10209,7 +10272,7 @@
     </row>
     <row r="50" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>1</v>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB0097C-9DB0-484C-9061-DB24C0BC6782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E373990B-1A18-4303-95B4-56CF3A5F3B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1247,15 +1247,102 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1271,15 +1358,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1289,30 +1367,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1322,68 +1382,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2874,10 +2874,10 @@
                   <c:v>104145</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -5334,150 +5334,150 @@
   <sheetData>
     <row r="1" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="90" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
       <c r="J3" s="35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
       <c r="J4" s="36" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
       <c r="J5" s="37" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="98"/>
       <c r="J6" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
       <c r="J7" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
       <c r="J8" s="39" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
     </row>
     <row r="10" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="97" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
     </row>
     <row r="12" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40"/>
@@ -5490,15 +5490,15 @@
     </row>
     <row r="13" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="104"/>
     </row>
     <row r="15" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B15" s="41" t="s">
@@ -5522,13 +5522,13 @@
       <c r="C16" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43" t="s">
@@ -5537,13 +5537,13 @@
       <c r="C17" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43" t="s">
@@ -5552,13 +5552,13 @@
       <c r="C18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43" t="s">
@@ -5567,13 +5567,13 @@
       <c r="C19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43" t="s">
@@ -5582,13 +5582,13 @@
       <c r="C20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
     </row>
     <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43" t="s">
@@ -5597,13 +5597,13 @@
       <c r="C21" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="43" t="s">
@@ -5612,13 +5612,13 @@
       <c r="C22" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
@@ -5627,13 +5627,13 @@
       <c r="C23" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
     </row>
     <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B24" s="49"/>
@@ -5654,15 +5654,15 @@
       <c r="H25" s="54"/>
     </row>
     <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="81"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
     </row>
     <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B27" s="55" t="s">
@@ -5671,15 +5671,15 @@
       <c r="C27" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="82" t="s">
+      <c r="E27" s="66"/>
+      <c r="F27" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106"/>
     </row>
     <row r="28" spans="2:8" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B28" s="57" t="s">
@@ -5691,12 +5691,12 @@
       <c r="D28" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="84" t="s">
+      <c r="E28" s="68"/>
+      <c r="F28" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="85"/>
-      <c r="H28" s="86"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
     </row>
     <row r="29" spans="2:8" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B29" s="57" t="s">
@@ -5705,15 +5705,15 @@
       <c r="C29" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="84" t="s">
+      <c r="E29" s="70"/>
+      <c r="F29" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="85"/>
-      <c r="H29" s="86"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
     </row>
     <row r="30" spans="2:8" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="59" t="s">
@@ -5722,27 +5722,27 @@
       <c r="C30" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="87" t="s">
+      <c r="E30" s="72"/>
+      <c r="F30" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="88"/>
-      <c r="H30" s="89"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="109"/>
     </row>
     <row r="32" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="72"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101"/>
     </row>
     <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B34" s="55" t="s">
@@ -5754,12 +5754,12 @@
       <c r="D34" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="95"/>
     </row>
     <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="38" t="s">
@@ -5771,12 +5771,12 @@
       <c r="D35" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="75"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
     </row>
     <row r="36" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="38" t="s">
@@ -5788,12 +5788,12 @@
       <c r="D36" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="73" t="s">
+      <c r="E36" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="86"/>
     </row>
     <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B37" s="38" t="s">
@@ -5805,12 +5805,12 @@
       <c r="D37" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
     </row>
     <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B38" s="38" t="s">
@@ -5822,12 +5822,12 @@
       <c r="D38" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="75"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B39" s="38" t="s">
@@ -5839,12 +5839,12 @@
       <c r="D39" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="73" t="s">
+      <c r="E39" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="75"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="86"/>
     </row>
     <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B40" s="38" t="s">
@@ -5856,12 +5856,12 @@
       <c r="D40" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="73" t="s">
+      <c r="E40" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="75"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86"/>
     </row>
     <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B41" s="38" t="s">
@@ -5873,12 +5873,12 @@
       <c r="D41" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="E41" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="75"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="86"/>
     </row>
     <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B42" s="38" t="s">
@@ -5890,12 +5890,12 @@
       <c r="D42" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="73" t="s">
+      <c r="E42" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="75"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="86"/>
     </row>
     <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B43" s="38" t="s">
@@ -5907,12 +5907,12 @@
       <c r="D43" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="73" t="s">
+      <c r="E43" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="75"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="86"/>
     </row>
     <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B44" s="38" t="s">
@@ -5924,12 +5924,12 @@
       <c r="D44" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="73" t="s">
+      <c r="E44" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="75"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="86"/>
     </row>
     <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B45" s="38" t="s">
@@ -5941,12 +5941,12 @@
       <c r="D45" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="73" t="s">
+      <c r="E45" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="75"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="86"/>
     </row>
     <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="38" t="s">
@@ -5958,12 +5958,12 @@
       <c r="D46" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="73" t="s">
+      <c r="E46" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="75"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="86"/>
     </row>
     <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B47" s="38" t="s">
@@ -5975,12 +5975,12 @@
       <c r="D47" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="75"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="86"/>
     </row>
     <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B48" s="38" t="s">
@@ -5992,12 +5992,12 @@
       <c r="D48" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="73" t="s">
+      <c r="E48" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="75"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="86"/>
     </row>
     <row r="49" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="63" t="s">
@@ -6009,26 +6009,42 @@
       <c r="D49" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="100" t="s">
+      <c r="E49" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="102"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="E47:H47"/>
@@ -6045,33 +6061,17 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9493,8 +9493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:O82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N27" sqref="N25:N27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -10259,11 +10259,11 @@
       </c>
       <c r="K49" s="11">
         <f>SUM(K51:K1048554)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L49" s="12">
         <f>SUM(L51:L1048553)</f>
-        <v>1499688</v>
+        <v>1624662</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>30</v>
@@ -10624,7 +10624,9 @@
       <c r="B63" s="13">
         <v>45910</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="14">
+        <v>3</v>
+      </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
@@ -10634,11 +10636,11 @@
       <c r="J63" s="14"/>
       <c r="K63" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L63" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10647,7 +10649,9 @@
       <c r="B64" s="13">
         <v>45911</v>
       </c>
-      <c r="C64" s="14"/>
+      <c r="C64" s="14">
+        <v>3</v>
+      </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -10657,11 +10661,11 @@
       <c r="J64" s="14"/>
       <c r="K64" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L64" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E373990B-1A18-4303-95B4-56CF3A5F3B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41FDEF0-7F07-430C-9730-280184EE2D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2880,7 +2880,7 @@
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>104145</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -9493,8 +9493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:O82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -10259,11 +10259,11 @@
       </c>
       <c r="K49" s="11">
         <f>SUM(K51:K1048554)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L49" s="12">
         <f>SUM(L51:L1048553)</f>
-        <v>1624662</v>
+        <v>1728807</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>30</v>
@@ -10674,8 +10674,12 @@
       <c r="B65" s="13">
         <v>45912</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="C65" s="14">
+        <v>3</v>
+      </c>
+      <c r="D65" s="14">
+        <v>2</v>
+      </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
@@ -10684,11 +10688,11 @@
       <c r="J65" s="14"/>
       <c r="K65" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L65" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104145</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41FDEF0-7F07-430C-9730-280184EE2D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFE43A8-7809-4D1F-B7AE-067D2EAA3D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="114">
   <si>
     <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t xml:space="preserve">데일리 뉴스 수집 후 아이베 전체 관리자에게 공유 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✅ 유지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1057,7 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,99 +1183,180 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1289,102 +1366,6 @@
     <xf numFmtId="6" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,6 +1383,27 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2889,7 +2891,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>166632</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -5218,10 +5220,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="64"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
@@ -5313,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D4C3-4BCC-41B6-A92A-03CFAAF5CCE9}">
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -5334,150 +5336,150 @@
   <sheetData>
     <row r="1" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
       <c r="J3" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
+      <c r="J4" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="J5" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="J6" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="J7" s="38" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="J4" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
-      <c r="J5" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
-      <c r="J6" s="37" t="s">
+    <row r="8" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="J8" s="39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
-      <c r="J7" s="38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-      <c r="J8" s="39" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="9" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="67" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="98"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="67" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="71" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="96"/>
     </row>
     <row r="12" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40"/>
@@ -5490,15 +5492,15 @@
     </row>
     <row r="13" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
     </row>
     <row r="15" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B15" s="41" t="s">
@@ -5516,34 +5518,34 @@
       <c r="H15" s="33"/>
     </row>
     <row r="16" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43" t="s">
-        <v>55</v>
+      <c r="B16" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
     </row>
     <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="D17" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
     </row>
     <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43" t="s">
@@ -5552,13 +5554,13 @@
       <c r="C18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43" t="s">
@@ -5567,13 +5569,13 @@
       <c r="C19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="D19" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43" t="s">
@@ -5582,13 +5584,13 @@
       <c r="C20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43" t="s">
@@ -5597,502 +5599,501 @@
       <c r="C21" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
+      <c r="D21" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
+      <c r="D23" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="105"/>
     </row>
     <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="54"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
     </row>
     <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
+    </row>
+    <row r="28" spans="2:8" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B28" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="105"/>
-      <c r="H27" s="106"/>
-    </row>
-    <row r="28" spans="2:8" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="B28" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="46" t="s">
+      <c r="D28" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G28" s="82"/>
       <c r="H28" s="83"/>
     </row>
-    <row r="29" spans="2:8" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="B29" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="45" t="s">
+    <row r="29" spans="2:8" s="56" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
-    </row>
-    <row r="30" spans="2:8" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="48" t="s">
+      <c r="E29" s="114"/>
+      <c r="F29" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+    </row>
+    <row r="31" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
+    </row>
+    <row r="33" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B33" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="80"/>
+    </row>
+    <row r="34" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="108"/>
-      <c r="H30" s="109"/>
-    </row>
-    <row r="32" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="101"/>
-    </row>
-    <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B34" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="95"/>
+      <c r="E34" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="86"/>
+      <c r="D35" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="86"/>
+      <c r="D36" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="72"/>
     </row>
     <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B37" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="86"/>
+      <c r="D37" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="72"/>
     </row>
     <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B38" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
+      <c r="E38" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
     </row>
     <row r="39" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B39" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="86"/>
+      <c r="E39" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="72"/>
     </row>
     <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B40" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="86"/>
+      <c r="E40" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B41" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="86"/>
+      <c r="E41" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="72"/>
     </row>
     <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B42" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="86"/>
+      <c r="E42" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="72"/>
     </row>
     <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B43" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="86"/>
+      <c r="E43" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
     </row>
     <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B44" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="86"/>
+      <c r="E44" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="72"/>
     </row>
     <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B45" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="86"/>
+      <c r="E45" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="72"/>
     </row>
     <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="86"/>
+      <c r="E46" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="72"/>
     </row>
     <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B47" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="86"/>
+      <c r="E47" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="72"/>
     </row>
     <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B48" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="60" t="s">
+      <c r="E48" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="72"/>
+    </row>
+    <row r="49" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="86"/>
-    </row>
-    <row r="49" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="62" t="s">
+      <c r="D49" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="89"/>
+      <c r="E49" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F30:H30"/>
+  <mergeCells count="53">
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E47:H47"/>
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F28" r:id="rId1" xr:uid="{BFDC43CE-4F53-44BE-A885-C6F5846A6BF6}"/>
     <hyperlink ref="F29" r:id="rId2" xr:uid="{8D51C4E4-E0BB-4594-8FB1-9E5AB545FD2A}"/>
-    <hyperlink ref="E35" r:id="rId3" xr:uid="{9B5D8082-01B8-4768-B05A-54F03A9C3D6E}"/>
-    <hyperlink ref="E36" r:id="rId4" xr:uid="{D0B03D30-3D88-43AD-8663-9C2DFDA2EBEC}"/>
-    <hyperlink ref="E37" r:id="rId5" xr:uid="{35CE7338-60DF-4E7B-9C27-F54637291D47}"/>
-    <hyperlink ref="E38" r:id="rId6" xr:uid="{B9C40DD3-00AC-46CF-B083-0C3ADE7EEDB0}"/>
-    <hyperlink ref="E39" r:id="rId7" xr:uid="{8D24348E-3B7E-43C6-857C-71B102474935}"/>
-    <hyperlink ref="E40" r:id="rId8" xr:uid="{B342CF0F-CE76-4D5E-8BC8-C722DF3488C0}"/>
-    <hyperlink ref="E41" r:id="rId9" xr:uid="{18CA622E-709E-4DF8-8303-554E1C95A2A2}"/>
+    <hyperlink ref="E49" r:id="rId3" xr:uid="{330C11E9-A305-4788-8942-6EC19D0357B7}"/>
+    <hyperlink ref="E48" r:id="rId4" xr:uid="{AAE913D5-4CBE-4268-BA16-E0796C20931F}"/>
+    <hyperlink ref="E47" r:id="rId5" xr:uid="{7F32548A-87CA-426E-8DB2-D79FB29C4189}"/>
+    <hyperlink ref="E46" r:id="rId6" xr:uid="{DB05AA14-E893-4745-8D50-3E54447B9C2F}"/>
+    <hyperlink ref="E45" r:id="rId7" xr:uid="{0FB56E5E-C9A4-47CD-9DC1-A80B446219DD}"/>
+    <hyperlink ref="E44" r:id="rId8" xr:uid="{567083D0-DFAD-43B4-B076-736601FAE5F8}"/>
+    <hyperlink ref="E43" r:id="rId9" xr:uid="{7313763E-51C5-4148-9CF5-1C6ABD8CEF30}"/>
     <hyperlink ref="E42" r:id="rId10" xr:uid="{2ED9D719-2B30-4F02-A79B-38E79AAF8AAF}"/>
-    <hyperlink ref="E43" r:id="rId11" xr:uid="{7313763E-51C5-4148-9CF5-1C6ABD8CEF30}"/>
-    <hyperlink ref="E44" r:id="rId12" xr:uid="{567083D0-DFAD-43B4-B076-736601FAE5F8}"/>
-    <hyperlink ref="E45" r:id="rId13" xr:uid="{0FB56E5E-C9A4-47CD-9DC1-A80B446219DD}"/>
-    <hyperlink ref="E46" r:id="rId14" xr:uid="{DB05AA14-E893-4745-8D50-3E54447B9C2F}"/>
-    <hyperlink ref="E47" r:id="rId15" xr:uid="{7F32548A-87CA-426E-8DB2-D79FB29C4189}"/>
-    <hyperlink ref="E48" r:id="rId16" xr:uid="{AAE913D5-4CBE-4268-BA16-E0796C20931F}"/>
-    <hyperlink ref="E49" r:id="rId17" xr:uid="{330C11E9-A305-4788-8942-6EC19D0357B7}"/>
-    <hyperlink ref="F30" r:id="rId18" xr:uid="{2F546F26-2D8E-4833-BBAF-18188A2B6168}"/>
+    <hyperlink ref="E41" r:id="rId11" xr:uid="{18CA622E-709E-4DF8-8303-554E1C95A2A2}"/>
+    <hyperlink ref="E40" r:id="rId12" xr:uid="{B342CF0F-CE76-4D5E-8BC8-C722DF3488C0}"/>
+    <hyperlink ref="E39" r:id="rId13" xr:uid="{8D24348E-3B7E-43C6-857C-71B102474935}"/>
+    <hyperlink ref="E38" r:id="rId14" xr:uid="{B9C40DD3-00AC-46CF-B083-0C3ADE7EEDB0}"/>
+    <hyperlink ref="E37" r:id="rId15" xr:uid="{35CE7338-60DF-4E7B-9C27-F54637291D47}"/>
+    <hyperlink ref="E36" r:id="rId16" xr:uid="{D0B03D30-3D88-43AD-8663-9C2DFDA2EBEC}"/>
+    <hyperlink ref="E35" r:id="rId17" xr:uid="{9B5D8082-01B8-4768-B05A-54F03A9C3D6E}"/>
+    <hyperlink ref="E34" r:id="rId18" xr:uid="{BA148F41-09E0-4869-BF8C-2347E32C9CB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
@@ -6130,761 +6131,761 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="111"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="113"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="108"/>
       <c r="P2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="111"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="116"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="111"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="116"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="116"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="111"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="116"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="111"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="116"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="111"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="116"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="111"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="116"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="111"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="116"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="111"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="116"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="111"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="111"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="111"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="111"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="111"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="116"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="111"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="116"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="111"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="116"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="111"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="116"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="111"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="116"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="111"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="116"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="111"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="116"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="111"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="116"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="111"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="116"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="111"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="116"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="111"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="116"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="111"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="116"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="111"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="116"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="111"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="116"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="111"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="116"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="111"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="116"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="111"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="116"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="111"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
+      <c r="N34" s="111"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="114"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="116"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="111"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="116"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="111"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="114"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="116"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="111"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="116"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="111"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="116"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="111"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="114"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="111"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="114"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="115"/>
-      <c r="N41" s="116"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="111"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="114"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="116"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="111"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="114"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="115"/>
-      <c r="N43" s="116"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
+      <c r="N43" s="111"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="114"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="116"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="110"/>
+      <c r="N44" s="111"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="116"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="111"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="114"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="116"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="111"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="116"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="111"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -7874,8 +7875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D3E6F-5235-4035-822F-8FB39F1F9837}">
   <dimension ref="B1:P79"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -7908,715 +7909,715 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="111"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
       <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="116"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="116"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="111"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="111"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="116"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="116"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="111"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="111"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="116"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="116"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="111"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="116"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="111"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="116"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="111"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="116"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="111"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="116"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="111"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="116"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="111"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="116"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="111"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="116"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="111"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="116"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="111"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="116"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="111"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="116"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="111"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="116"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="111"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="116"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="111"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="116"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="111"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="116"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="111"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="116"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="111"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="116"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="111"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="116"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="111"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="116"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="111"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="116"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="111"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="116"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="111"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="116"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="111"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="116"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="111"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="116"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="111"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="116"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="111"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="114"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="116"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="111"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="116"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="111"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="114"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="116"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="111"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="116"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="111"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="116"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="111"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="114"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="116"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="111"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="114"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="116"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="111"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="114"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="116"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="111"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="114"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="116"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="111"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="114"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="116"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="111"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="116"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="111"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="114"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="116"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="111"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="116"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="111"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
@@ -9493,8 +9494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:O82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9527,669 +9528,669 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="111"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
       <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="116"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="111"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="116"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="111"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="116"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="111"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="116"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="116"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="111"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="116"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="111"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="116"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="116"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="116"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="111"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="116"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="116"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="111"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="111"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="116"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="116"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="111"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="116"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="111"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="116"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="111"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="116"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="111"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="116"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="111"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="116"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="116"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="111"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="116"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="111"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="116"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="116"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="116"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="111"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="116"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="111"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="116"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="116"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="111"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="116"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="111"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="116"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="111"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="116"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="111"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="114"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="116"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="111"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="116"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="111"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="114"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="116"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="111"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="116"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="111"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="116"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="111"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="114"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="116"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="111"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="114"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="116"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="111"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="114"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="116"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="111"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="114"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="116"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="111"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="114"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="116"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="111"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="116"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="111"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="114"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="116"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="111"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="116"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="111"/>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
@@ -10259,11 +10260,11 @@
       </c>
       <c r="K49" s="11">
         <f>SUM(K51:K1048554)</f>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="L49" s="12">
         <f>SUM(L51:L1048553)</f>
-        <v>1728807</v>
+        <v>1895439</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>30</v>
@@ -10272,7 +10273,7 @@
     </row>
     <row r="50" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>1</v>
@@ -10748,9 +10749,15 @@
       <c r="B68" s="13">
         <v>45915</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="C68" s="14">
+        <v>3</v>
+      </c>
+      <c r="D68" s="14">
+        <v>2</v>
+      </c>
+      <c r="E68" s="14">
+        <v>3</v>
+      </c>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
@@ -10758,11 +10765,11 @@
       <c r="J68" s="14"/>
       <c r="K68" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L68" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>166632</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFE43A8-7809-4D1F-B7AE-067D2EAA3D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27706EF-868A-4FCB-976D-3713A5799938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="5" r:id="rId1"/>
-    <sheet name="유지체크" sheetId="6" r:id="rId2"/>
-    <sheet name="7月" sheetId="3" r:id="rId3"/>
+    <sheet name="현황" sheetId="10" r:id="rId2"/>
+    <sheet name="유지체크" sheetId="6" r:id="rId3"/>
     <sheet name="8月" sheetId="7" r:id="rId4"/>
-    <sheet name="9月" sheetId="9" r:id="rId5"/>
+    <sheet name="7月" sheetId="3" r:id="rId5"/>
+    <sheet name="9月" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
   <si>
     <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,10 +458,6 @@
   </si>
   <si>
     <t>일자/항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://eibe-workspace.netlify.app/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -507,18 +504,48 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">총 공수 절감시간 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">분석개요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석기간2025.07~2025.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보수적 공수 절감시간 / ROI 아이베 평균 연봉기준 시급 환산 (₩20,829/h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략기획실 자동화 프로그램 ROI 및 공수 절감 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI 및 공수 절감 현황 요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +666,14 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -684,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1048,12 +1083,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1231,9 +1305,21 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1249,6 +1335,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1258,6 +1350,99 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1267,105 +1452,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1384,26 +1470,83 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1457,12 +1600,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2400" b="1">
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
                 <a:latin typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
                 <a:ea typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
               </a:rPr>
-              <a:t>7</a:t>
+              <a:t>8</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ko-KR" sz="2400" b="1">
@@ -1600,112 +1743,106 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'7月'!$B$51:$B$81</c:f>
+              <c:f>'8月'!$B$51:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd;@</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45838</c:v>
+                  <c:v>45869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45839</c:v>
+                  <c:v>45870</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45840</c:v>
+                  <c:v>45871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45841</c:v>
+                  <c:v>45872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45842</c:v>
+                  <c:v>45873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45843</c:v>
+                  <c:v>45874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45844</c:v>
+                  <c:v>45875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45845</c:v>
+                  <c:v>45876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45846</c:v>
+                  <c:v>45877</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45847</c:v>
+                  <c:v>45878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45848</c:v>
+                  <c:v>45879</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45849</c:v>
+                  <c:v>45880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45850</c:v>
+                  <c:v>45881</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45851</c:v>
+                  <c:v>45882</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45852</c:v>
+                  <c:v>45883</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45853</c:v>
+                  <c:v>45884</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45854</c:v>
+                  <c:v>45885</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45855</c:v>
+                  <c:v>45886</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45856</c:v>
+                  <c:v>45887</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45857</c:v>
+                  <c:v>45888</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45858</c:v>
+                  <c:v>45889</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45859</c:v>
+                  <c:v>45890</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45860</c:v>
+                  <c:v>45891</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45861</c:v>
+                  <c:v>45892</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45862</c:v>
+                  <c:v>45893</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45863</c:v>
+                  <c:v>45894</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45864</c:v>
+                  <c:v>45895</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45865</c:v>
+                  <c:v>45896</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45866</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45867</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45868</c:v>
+                  <c:v>45897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7月'!$N$51:$N$81</c:f>
+              <c:f>'8月'!$M$51:$M$79</c:f>
               <c:numCache>
                 <c:formatCode>"₩"#,##0;[Red]"₩"#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>124974</c:v>
                 </c:pt>
@@ -1713,90 +1850,84 @@
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145803</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166632</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124974</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>124974</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>104145</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>166632</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>124974</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166632</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>104145</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>145803</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>62487</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
+                  <c:v>62487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62487</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>166632</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>208290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>104145</c:v>
                 </c:pt>
               </c:numCache>
@@ -1805,7 +1936,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B136-4B20-A161-EE6F562D7D66}"/>
+              <c16:uniqueId val="{00000000-C258-4AB8-BACF-A047CF2273CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2028,12 +2159,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:rPr lang="en-US" sz="2400" b="1">
                 <a:latin typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
                 <a:ea typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
               </a:rPr>
-              <a:t>8</a:t>
+              <a:t>7</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ko-KR" sz="2400" b="1">
@@ -2171,106 +2302,112 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'8月'!$B$51:$B$79</c:f>
+              <c:f>'7月'!$B$51:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd;@</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>45869</c:v>
+                  <c:v>45838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45870</c:v>
+                  <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45871</c:v>
+                  <c:v>45840</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45872</c:v>
+                  <c:v>45841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45873</c:v>
+                  <c:v>45842</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45874</c:v>
+                  <c:v>45843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45875</c:v>
+                  <c:v>45844</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45876</c:v>
+                  <c:v>45845</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45877</c:v>
+                  <c:v>45846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45878</c:v>
+                  <c:v>45847</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45879</c:v>
+                  <c:v>45848</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45880</c:v>
+                  <c:v>45849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45881</c:v>
+                  <c:v>45850</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45882</c:v>
+                  <c:v>45851</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45883</c:v>
+                  <c:v>45852</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45884</c:v>
+                  <c:v>45853</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45885</c:v>
+                  <c:v>45854</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45886</c:v>
+                  <c:v>45855</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45887</c:v>
+                  <c:v>45856</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45888</c:v>
+                  <c:v>45857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45889</c:v>
+                  <c:v>45858</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45890</c:v>
+                  <c:v>45859</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45891</c:v>
+                  <c:v>45860</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45892</c:v>
+                  <c:v>45861</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45893</c:v>
+                  <c:v>45862</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45894</c:v>
+                  <c:v>45863</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45895</c:v>
+                  <c:v>45864</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45896</c:v>
+                  <c:v>45865</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45897</c:v>
+                  <c:v>45866</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45867</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8月'!$M$51:$M$79</c:f>
+              <c:f>'7月'!$N$51:$N$81</c:f>
               <c:numCache>
                 <c:formatCode>"₩"#,##0;[Red]"₩"#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>124974</c:v>
                 </c:pt>
@@ -2278,84 +2415,90 @@
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>145803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>166632</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>104145</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62487</c:v>
+                  <c:v>124974</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>124974</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104145</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>166632</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>124974</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145803</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62487</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>166632</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>104145</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>62487</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>62487</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>62487</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>62487</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>208290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>104145</c:v>
                 </c:pt>
               </c:numCache>
@@ -2364,7 +2507,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C258-4AB8-BACF-A047CF2273CA}"/>
+              <c16:uniqueId val="{00000000-B136-4B20-A161-EE6F562D7D66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2894,7 +3037,7 @@
                   <c:v>166632</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>104145</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -4746,47 +4889,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>58831</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>865910</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AB4C0E-3E03-61EF-D71B-DEBC98DFFC46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>58832</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
@@ -4825,18 +4927,59 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>58831</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>865910</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AB4C0E-3E03-61EF-D71B-DEBC98DFFC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>58832</xdr:colOff>
+      <xdr:colOff>58831</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>639537</xdr:colOff>
+      <xdr:colOff>904873</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
@@ -5220,10 +5363,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="61"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
@@ -5312,11 +5455,183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A15982A-A161-40F5-A84C-A7FD0120A4A6}">
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" style="116"/>
+    <col min="2" max="2" width="16.875" style="117" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="116" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="118" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="116" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="118" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="116"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
+    </row>
+    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="135" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="137"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="125"/>
+      <c r="C8" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="125">
+        <v>45839</v>
+      </c>
+      <c r="C9" s="138">
+        <v>120</v>
+      </c>
+      <c r="D9" s="139">
+        <v>2499480</v>
+      </c>
+      <c r="E9" s="138">
+        <v>120</v>
+      </c>
+      <c r="F9" s="140">
+        <v>2499480</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="125">
+        <v>45870</v>
+      </c>
+      <c r="C10" s="138">
+        <v>89</v>
+      </c>
+      <c r="D10" s="139">
+        <v>1853781</v>
+      </c>
+      <c r="E10" s="138">
+        <v>209</v>
+      </c>
+      <c r="F10" s="140">
+        <v>4353261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="126">
+        <v>45901</v>
+      </c>
+      <c r="C11" s="141"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="143"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B7:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D4C3-4BCC-41B6-A92A-03CFAAF5CCE9}">
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -5336,150 +5651,150 @@
   <sheetData>
     <row r="1" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="87" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="J3" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
       <c r="J4" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
       <c r="J5" s="37" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
       <c r="J6" s="37" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="70"/>
       <c r="J7" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="70"/>
       <c r="J8" s="39" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="94" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
     </row>
     <row r="12" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40"/>
@@ -5492,15 +5807,15 @@
     </row>
     <row r="13" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B15" s="41" t="s">
@@ -5524,13 +5839,13 @@
       <c r="C16" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37" t="s">
@@ -5539,13 +5854,13 @@
       <c r="C17" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
     </row>
     <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43" t="s">
@@ -5554,13 +5869,13 @@
       <c r="C18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
     </row>
     <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43" t="s">
@@ -5569,13 +5884,13 @@
       <c r="C19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
     </row>
     <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43" t="s">
@@ -5584,13 +5899,13 @@
       <c r="C20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
     </row>
     <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43" t="s">
@@ -5599,13 +5914,13 @@
       <c r="C21" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="43" t="s">
@@ -5614,13 +5929,13 @@
       <c r="C22" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="101"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="46" t="s">
@@ -5629,13 +5944,13 @@
       <c r="C23" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
     </row>
     <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B24" s="48"/>
@@ -5656,15 +5971,15 @@
       <c r="H25" s="53"/>
     </row>
     <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B27" s="54" t="s">
@@ -5673,15 +5988,15 @@
       <c r="C27" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="79" t="s">
+      <c r="E27" s="94"/>
+      <c r="F27" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="79"/>
-      <c r="H27" s="80"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="65"/>
     </row>
     <row r="28" spans="2:8" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B28" s="37" t="s">
@@ -5690,44 +6005,44 @@
       <c r="C28" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="81" t="s">
+      <c r="E28" s="67"/>
+      <c r="F28" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="82"/>
-      <c r="H28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
     </row>
     <row r="29" spans="2:8" s="56" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="84" t="s">
+      <c r="E29" s="99"/>
+      <c r="F29" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="85"/>
-      <c r="H29" s="86"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
     </row>
     <row r="31" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B33" s="54" t="s">
@@ -5739,16 +6054,16 @@
       <c r="D33" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="79" t="s">
+      <c r="E33" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="65"/>
     </row>
     <row r="34" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="45" t="s">
         <v>70</v>
@@ -5756,16 +6071,16 @@
       <c r="D34" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="115" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="117"/>
+      <c r="E34" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="109"/>
     </row>
     <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="45" t="s">
         <v>8</v>
@@ -5773,16 +6088,16 @@
       <c r="D35" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="109"/>
     </row>
     <row r="36" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="45" t="s">
         <v>9</v>
@@ -5790,16 +6105,16 @@
       <c r="D36" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="72"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="109"/>
     </row>
     <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B37" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>10</v>
@@ -5807,16 +6122,16 @@
       <c r="D37" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="72"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="109"/>
     </row>
     <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B38" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="45" t="s">
         <v>78</v>
@@ -5824,16 +6139,16 @@
       <c r="D38" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="70" t="s">
+      <c r="E38" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="72"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="109"/>
     </row>
     <row r="39" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B39" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>80</v>
@@ -5841,16 +6156,16 @@
       <c r="D39" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="72"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="109"/>
     </row>
     <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B40" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="45" t="s">
         <v>82</v>
@@ -5858,16 +6173,16 @@
       <c r="D40" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="72"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="109"/>
     </row>
     <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B41" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="57" t="s">
         <v>84</v>
@@ -5875,16 +6190,16 @@
       <c r="D41" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="72"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="109"/>
     </row>
     <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B42" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>86</v>
@@ -5892,16 +6207,16 @@
       <c r="D42" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E42" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="72"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="109"/>
     </row>
     <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B43" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>88</v>
@@ -5909,16 +6224,16 @@
       <c r="D43" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="109"/>
     </row>
     <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B44" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>90</v>
@@ -5926,16 +6241,16 @@
       <c r="D44" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="72"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="109"/>
     </row>
     <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B45" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>92</v>
@@ -5943,16 +6258,16 @@
       <c r="D45" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="72"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="109"/>
     </row>
     <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="57" t="s">
         <v>94</v>
@@ -5960,16 +6275,16 @@
       <c r="D46" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="72"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="109"/>
     </row>
     <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B47" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="57" t="s">
         <v>96</v>
@@ -5977,16 +6292,16 @@
       <c r="D47" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="72"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="109"/>
     </row>
     <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.3">
       <c r="B48" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="57" t="s">
         <v>98</v>
@@ -5994,16 +6309,16 @@
       <c r="D48" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="70" t="s">
+      <c r="E48" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="72"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="109"/>
     </row>
     <row r="49" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="59" t="s">
         <v>100</v>
@@ -6011,12 +6326,12 @@
       <c r="D49" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="97" t="s">
+      <c r="E49" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="99"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -6036,6 +6351,8 @@
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="E36:H36"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
@@ -6046,33 +6363,31 @@
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="D16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6093,1781 +6408,10 @@
     <hyperlink ref="E37" r:id="rId15" xr:uid="{35CE7338-60DF-4E7B-9C27-F54637291D47}"/>
     <hyperlink ref="E36" r:id="rId16" xr:uid="{D0B03D30-3D88-43AD-8663-9C2DFDA2EBEC}"/>
     <hyperlink ref="E35" r:id="rId17" xr:uid="{9B5D8082-01B8-4768-B05A-54F03A9C3D6E}"/>
-    <hyperlink ref="E34" r:id="rId18" xr:uid="{BA148F41-09E0-4869-BF8C-2347E32C9CB3}"/>
+    <hyperlink ref="E34" r:id="rId18" xr:uid="{0E9BA2FE-FEDA-42BE-BE02-B55EE808CE35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234D44F0-91DA-4CD1-A18C-3E5459E98741}">
-  <dimension ref="B1:Q81"/>
-  <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
-      <c r="P2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="111"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="111"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="111"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="111"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="111"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="109"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="111"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="111"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="111"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="111"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="111"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="111"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="111"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="111"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="111"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="111"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="111"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="111"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="111"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="111"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="111"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="111"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="111"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="111"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="111"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="111"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="109"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="111"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="109"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="111"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="109"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="111"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="111"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="111"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="111"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="111"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="111"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="109"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="111"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="109"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="111"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="109"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="111"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="109"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="111"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="109"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="111"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="109"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="111"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="109"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="111"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="109"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="111"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="109"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="111"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="110"/>
-      <c r="N46" s="111"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="109"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="111"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B48" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="10">
-        <v>2</v>
-      </c>
-      <c r="D49" s="10">
-        <v>3</v>
-      </c>
-      <c r="E49" s="10">
-        <v>1</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10">
-        <v>1</v>
-      </c>
-      <c r="H49" s="10">
-        <v>3</v>
-      </c>
-      <c r="I49" s="10">
-        <v>2</v>
-      </c>
-      <c r="J49" s="10">
-        <v>2</v>
-      </c>
-      <c r="K49" s="10">
-        <v>3</v>
-      </c>
-      <c r="L49" s="10">
-        <v>2</v>
-      </c>
-      <c r="M49" s="11">
-        <f>SUM(M51:M1048556)</f>
-        <v>120</v>
-      </c>
-      <c r="N49" s="12">
-        <f>SUM(N51:N1048555)</f>
-        <v>2499480</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B50" s="13"/>
-      <c r="C50" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B51" s="13">
-        <v>45838</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14">
-        <v>3</v>
-      </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14">
-        <v>3</v>
-      </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="16">
-        <f>SUM(C51:L51)</f>
-        <v>6</v>
-      </c>
-      <c r="N51" s="17">
-        <f>M51*20829</f>
-        <v>124974</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B52" s="13">
-        <v>45839</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14">
-        <v>3</v>
-      </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="16">
-        <f>SUM(C52:L52)</f>
-        <v>3</v>
-      </c>
-      <c r="N52" s="17">
-        <f>M52*20829</f>
-        <v>62487</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B53" s="13">
-        <v>45840</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14">
-        <v>3</v>
-      </c>
-      <c r="I53" s="14">
-        <v>2</v>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14">
-        <v>2</v>
-      </c>
-      <c r="M53" s="16">
-        <f>SUM(C53:L53)</f>
-        <v>7</v>
-      </c>
-      <c r="N53" s="17">
-        <f t="shared" ref="N53:N81" si="0">M53*20829</f>
-        <v>145803</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B54" s="13">
-        <v>45841</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14">
-        <v>3</v>
-      </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14">
-        <v>2</v>
-      </c>
-      <c r="M54" s="16">
-        <f t="shared" ref="M54:M66" si="1">SUM(C54:L54)</f>
-        <v>5</v>
-      </c>
-      <c r="N54" s="17">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B55" s="13">
-        <v>45842</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14">
-        <v>3</v>
-      </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14">
-        <v>2</v>
-      </c>
-      <c r="M55" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N55" s="17">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B56" s="13">
-        <v>45843</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B57" s="13">
-        <v>45844</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B58" s="13">
-        <v>45845</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14">
-        <v>3</v>
-      </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14">
-        <v>3</v>
-      </c>
-      <c r="L58" s="14"/>
-      <c r="M58" s="16">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="N58" s="17">
-        <f t="shared" si="0"/>
-        <v>124974</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B59" s="13">
-        <v>45846</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14">
-        <v>3</v>
-      </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="N59" s="17">
-        <f t="shared" si="0"/>
-        <v>62487</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B60" s="13">
-        <v>45847</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14">
-        <v>3</v>
-      </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14">
-        <v>2</v>
-      </c>
-      <c r="M60" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N60" s="17">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B61" s="13">
-        <v>45848</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14">
-        <v>3</v>
-      </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14">
-        <v>2</v>
-      </c>
-      <c r="M61" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N61" s="17">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B62" s="13">
-        <v>45849</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14">
-        <v>3</v>
-      </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14">
-        <v>2</v>
-      </c>
-      <c r="M62" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N62" s="17">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B63" s="13">
-        <v>45850</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B64" s="13">
-        <v>45851</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B65" s="13">
-        <v>45852</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14">
-        <v>3</v>
-      </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14">
-        <v>3</v>
-      </c>
-      <c r="L65" s="14"/>
-      <c r="M65" s="16">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="N65" s="17">
-        <f t="shared" si="0"/>
-        <v>124974</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B66" s="13">
-        <v>45853</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14">
-        <v>3</v>
-      </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14">
-        <v>2</v>
-      </c>
-      <c r="M66" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N66" s="17">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B67" s="13">
-        <v>45854</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14">
-        <v>3</v>
-      </c>
-      <c r="I67" s="14">
-        <v>2</v>
-      </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14">
-        <v>2</v>
-      </c>
-      <c r="M67" s="16">
-        <f>SUM(C67:L67)</f>
-        <v>7</v>
-      </c>
-      <c r="N67" s="17">
-        <f t="shared" si="0"/>
-        <v>145803</v>
-      </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B68" s="13">
-        <v>45855</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14">
-        <v>3</v>
-      </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14">
-        <v>2</v>
-      </c>
-      <c r="M68" s="16">
-        <f t="shared" ref="M68:M80" si="2">SUM(C68:L68)</f>
-        <v>5</v>
-      </c>
-      <c r="N68" s="17">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B69" s="13">
-        <v>45856</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14">
-        <v>3</v>
-      </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="16">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N69" s="17">
-        <f t="shared" si="0"/>
-        <v>62487</v>
-      </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B70" s="13">
-        <v>45857</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B71" s="13">
-        <v>45858</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B72" s="13">
-        <v>45859</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14">
-        <v>3</v>
-      </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14">
-        <v>3</v>
-      </c>
-      <c r="L72" s="14">
-        <v>2</v>
-      </c>
-      <c r="M72" s="16">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="N72" s="17">
-        <f t="shared" si="0"/>
-        <v>166632</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B73" s="13">
-        <v>45860</v>
-      </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14">
-        <v>3</v>
-      </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14">
-        <v>2</v>
-      </c>
-      <c r="M73" s="16">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N73" s="17">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B74" s="13">
-        <v>45861</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14">
-        <v>3</v>
-      </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14">
-        <v>2</v>
-      </c>
-      <c r="M74" s="16">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N74" s="17">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B75" s="13">
-        <v>45862</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14">
-        <v>3</v>
-      </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="16">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N75" s="17">
-        <f t="shared" si="0"/>
-        <v>62487</v>
-      </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B76" s="13">
-        <v>45863</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14">
-        <v>3</v>
-      </c>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="16">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N76" s="17">
-        <f t="shared" si="0"/>
-        <v>62487</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B77" s="13">
-        <v>45864</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B78" s="13">
-        <v>45865</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B79" s="13">
-        <v>45866</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14">
-        <v>3</v>
-      </c>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14">
-        <v>3</v>
-      </c>
-      <c r="L79" s="14">
-        <v>4</v>
-      </c>
-      <c r="M79" s="16">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N79" s="17">
-        <f t="shared" si="0"/>
-        <v>208290</v>
-      </c>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B80" s="13">
-        <v>45867</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14">
-        <v>3</v>
-      </c>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14">
-        <v>2</v>
-      </c>
-      <c r="M80" s="16">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N80" s="17">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="18">
-        <v>45868</v>
-      </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19">
-        <v>3</v>
-      </c>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19">
-        <v>2</v>
-      </c>
-      <c r="M81" s="20">
-        <f>SUM(C81:L81)</f>
-        <v>5</v>
-      </c>
-      <c r="N81" s="21">
-        <f t="shared" si="0"/>
-        <v>104145</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:N47"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7875,13 +6419,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D3E6F-5235-4035-822F-8FB39F1F9837}">
   <dimension ref="B1:P79"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49:M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="1.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="2" bestFit="1" customWidth="1"/>
@@ -7907,717 +6451,717 @@
     <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
       <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="115"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="111"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="115"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="115"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="111"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="115"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="111"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="115"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="111"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="115"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="109"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="115"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="111"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="115"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="111"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="115"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="111"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="115"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="111"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="115"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="115"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="111"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="115"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="111"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="115"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="115"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="111"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="115"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="111"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="115"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="111"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="111"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="115"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="111"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="115"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="111"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="115"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="111"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="111"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="115"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="111"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="109"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="111"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="115"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="109"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="111"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="115"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="109"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="111"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="115"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="111"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="115"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="111"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="115"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="111"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="111"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="115"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="111"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="115"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="109"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="111"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="115"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="109"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="111"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="115"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="109"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="111"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="115"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="109"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="111"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="115"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="109"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="111"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="115"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="109"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="111"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="115"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="109"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="111"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="115"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="109"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="111"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="115"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="109"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="111"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="115"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="111"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="115"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="109"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="115"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
@@ -9491,16 +8035,1787 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
-  <dimension ref="B1:O82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234D44F0-91DA-4CD1-A18C-3E5459E98741}">
+  <dimension ref="B1:Q81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N49" activeCellId="1" sqref="M49 N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="1.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="115"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="115"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="115"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="113"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="115"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="115"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="113"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="115"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="115"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="115"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="115"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="115"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="115"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="115"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="115"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="115"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="115"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="115"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="115"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="115"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="115"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="115"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="115"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="115"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="115"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="113"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="115"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="115"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="115"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="115"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="115"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="113"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="115"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="115"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="115"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="115"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="115"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" s="113"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="115"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B38" s="113"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="115"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="115"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="115"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B41" s="113"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="115"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B42" s="113"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="115"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B43" s="113"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="115"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="115"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B45" s="113"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="115"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="115"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="115"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="10">
+        <v>2</v>
+      </c>
+      <c r="D49" s="10">
+        <v>3</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10">
+        <v>3</v>
+      </c>
+      <c r="I49" s="10">
+        <v>2</v>
+      </c>
+      <c r="J49" s="10">
+        <v>2</v>
+      </c>
+      <c r="K49" s="10">
+        <v>3</v>
+      </c>
+      <c r="L49" s="10">
+        <v>2</v>
+      </c>
+      <c r="M49" s="11">
+        <f>SUM(M51:M1048556)</f>
+        <v>120</v>
+      </c>
+      <c r="N49" s="12">
+        <f>SUM(N51:N1048555)</f>
+        <v>2499480</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B50" s="13"/>
+      <c r="C50" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B51" s="13">
+        <v>45838</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14">
+        <v>3</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14">
+        <v>3</v>
+      </c>
+      <c r="L51" s="14"/>
+      <c r="M51" s="16">
+        <f>SUM(C51:L51)</f>
+        <v>6</v>
+      </c>
+      <c r="N51" s="17">
+        <f>M51*20829</f>
+        <v>124974</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B52" s="13">
+        <v>45839</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14">
+        <v>3</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="16">
+        <f>SUM(C52:L52)</f>
+        <v>3</v>
+      </c>
+      <c r="N52" s="17">
+        <f>M52*20829</f>
+        <v>62487</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B53" s="13">
+        <v>45840</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14">
+        <v>3</v>
+      </c>
+      <c r="I53" s="14">
+        <v>2</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14">
+        <v>2</v>
+      </c>
+      <c r="M53" s="16">
+        <f>SUM(C53:L53)</f>
+        <v>7</v>
+      </c>
+      <c r="N53" s="17">
+        <f t="shared" ref="N53:N81" si="0">M53*20829</f>
+        <v>145803</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B54" s="13">
+        <v>45841</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14">
+        <v>3</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14">
+        <v>2</v>
+      </c>
+      <c r="M54" s="16">
+        <f t="shared" ref="M54:M66" si="1">SUM(C54:L54)</f>
+        <v>5</v>
+      </c>
+      <c r="N54" s="17">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B55" s="13">
+        <v>45842</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14">
+        <v>3</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14">
+        <v>2</v>
+      </c>
+      <c r="M55" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N55" s="17">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B56" s="13">
+        <v>45843</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B57" s="13">
+        <v>45844</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B58" s="13">
+        <v>45845</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14">
+        <v>3</v>
+      </c>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14">
+        <v>3</v>
+      </c>
+      <c r="L58" s="14"/>
+      <c r="M58" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N58" s="17">
+        <f t="shared" si="0"/>
+        <v>124974</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B59" s="13">
+        <v>45846</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14">
+        <v>3</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N59" s="17">
+        <f t="shared" si="0"/>
+        <v>62487</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B60" s="13">
+        <v>45847</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14">
+        <v>3</v>
+      </c>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14">
+        <v>2</v>
+      </c>
+      <c r="M60" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N60" s="17">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B61" s="13">
+        <v>45848</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14">
+        <v>3</v>
+      </c>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14">
+        <v>2</v>
+      </c>
+      <c r="M61" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N61" s="17">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B62" s="13">
+        <v>45849</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14">
+        <v>3</v>
+      </c>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14">
+        <v>2</v>
+      </c>
+      <c r="M62" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N62" s="17">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B63" s="13">
+        <v>45850</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B64" s="13">
+        <v>45851</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B65" s="13">
+        <v>45852</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14">
+        <v>3</v>
+      </c>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14">
+        <v>3</v>
+      </c>
+      <c r="L65" s="14"/>
+      <c r="M65" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N65" s="17">
+        <f t="shared" si="0"/>
+        <v>124974</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B66" s="13">
+        <v>45853</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14">
+        <v>3</v>
+      </c>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14">
+        <v>2</v>
+      </c>
+      <c r="M66" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N66" s="17">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B67" s="13">
+        <v>45854</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14">
+        <v>3</v>
+      </c>
+      <c r="I67" s="14">
+        <v>2</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14">
+        <v>2</v>
+      </c>
+      <c r="M67" s="16">
+        <f>SUM(C67:L67)</f>
+        <v>7</v>
+      </c>
+      <c r="N67" s="17">
+        <f t="shared" si="0"/>
+        <v>145803</v>
+      </c>
+      <c r="O67" s="4"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B68" s="13">
+        <v>45855</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14">
+        <v>3</v>
+      </c>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14">
+        <v>2</v>
+      </c>
+      <c r="M68" s="16">
+        <f t="shared" ref="M68:M80" si="2">SUM(C68:L68)</f>
+        <v>5</v>
+      </c>
+      <c r="N68" s="17">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B69" s="13">
+        <v>45856</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14">
+        <v>3</v>
+      </c>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N69" s="17">
+        <f t="shared" si="0"/>
+        <v>62487</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B70" s="13">
+        <v>45857</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B71" s="13">
+        <v>45858</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B72" s="13">
+        <v>45859</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14">
+        <v>3</v>
+      </c>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14">
+        <v>3</v>
+      </c>
+      <c r="L72" s="14">
+        <v>2</v>
+      </c>
+      <c r="M72" s="16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N72" s="17">
+        <f t="shared" si="0"/>
+        <v>166632</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B73" s="13">
+        <v>45860</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14">
+        <v>3</v>
+      </c>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14">
+        <v>2</v>
+      </c>
+      <c r="M73" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N73" s="17">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B74" s="13">
+        <v>45861</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14">
+        <v>3</v>
+      </c>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14">
+        <v>2</v>
+      </c>
+      <c r="M74" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N74" s="17">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B75" s="13">
+        <v>45862</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14">
+        <v>3</v>
+      </c>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N75" s="17">
+        <f t="shared" si="0"/>
+        <v>62487</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B76" s="13">
+        <v>45863</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14">
+        <v>3</v>
+      </c>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N76" s="17">
+        <f t="shared" si="0"/>
+        <v>62487</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B77" s="13">
+        <v>45864</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B78" s="13">
+        <v>45865</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B79" s="13">
+        <v>45866</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14">
+        <v>3</v>
+      </c>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14">
+        <v>3</v>
+      </c>
+      <c r="L79" s="14">
+        <v>4</v>
+      </c>
+      <c r="M79" s="16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N79" s="17">
+        <f t="shared" si="0"/>
+        <v>208290</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B80" s="13">
+        <v>45867</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14">
+        <v>3</v>
+      </c>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14">
+        <v>2</v>
+      </c>
+      <c r="M80" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N80" s="17">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="18">
+        <v>45868</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19">
+        <v>3</v>
+      </c>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19">
+        <v>2</v>
+      </c>
+      <c r="M81" s="20">
+        <f>SUM(C81:L81)</f>
+        <v>5</v>
+      </c>
+      <c r="N81" s="21">
+        <f t="shared" si="0"/>
+        <v>104145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:N47"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
+  <dimension ref="B1:O82"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="2" bestFit="1" customWidth="1"/>
@@ -9526,671 +9841,671 @@
     <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
       <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="111"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="115"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="111"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="115"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="115"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="109"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="111"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="115"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="111"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="111"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="115"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="111"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="111"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="115"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="111"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="115"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="111"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="115"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="111"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="115"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="111"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="115"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="111"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="115"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="111"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="115"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="111"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="115"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="111"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="115"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="111"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="115"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="111"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="115"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="111"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="115"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="109"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="111"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="115"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="109"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="111"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="115"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="109"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="111"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="115"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="111"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="115"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="111"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="115"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="111"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="115"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="111"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="115"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="111"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="115"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="109"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="111"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="115"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="109"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="111"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="115"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="109"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="111"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="115"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="109"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="111"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="115"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="109"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="111"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="115"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="109"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="111"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="115"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="109"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="111"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="115"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="109"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="111"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="115"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="109"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="111"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="115"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="111"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="115"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="109"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="115"/>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
@@ -10260,11 +10575,11 @@
       </c>
       <c r="K49" s="11">
         <f>SUM(K51:K1048554)</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L49" s="12">
         <f>SUM(L51:L1048553)</f>
-        <v>1895439</v>
+        <v>1999584</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>30</v>
@@ -10778,8 +11093,12 @@
       <c r="B69" s="13">
         <v>45916</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+      <c r="C69" s="14">
+        <v>3</v>
+      </c>
+      <c r="D69" s="14">
+        <v>2</v>
+      </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
@@ -10788,11 +11107,11 @@
       <c r="J69" s="14"/>
       <c r="K69" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L69" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104145</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CF5CE5-ADBD-420E-81C0-534D922E7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF8347A-A0E5-42A4-BDD9-BC936569F1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="현황대시보드" sheetId="10" r:id="rId1"/>
@@ -1582,6 +1582,12 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1630,6 +1636,147 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="18" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="18" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="18" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1648,138 +1795,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,21 +1812,6 @@
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="18" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="18" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="18" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3341,7 +3341,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5617,8 +5617,8 @@
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5634,42 +5634,42 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="105"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
@@ -5679,20 +5679,20 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
     </row>
     <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="103"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="82" t="s">
@@ -5749,19 +5749,15 @@
       <c r="B12" s="8">
         <v>45901</v>
       </c>
-      <c r="C12" s="9">
-        <v>135</v>
-      </c>
-      <c r="D12" s="13">
-        <v>2811915</v>
-      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="9">
         <f>E11+C12</f>
-        <v>344</v>
+        <v>209</v>
       </c>
       <c r="F12" s="14">
         <f>F11+D12</f>
-        <v>7165176</v>
+        <v>4353261</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -5780,7 +5776,7 @@
       </c>
       <c r="F14" s="86">
         <f>AVERAGE(D10:D12)</f>
-        <v>2388392</v>
+        <v>2176630.5</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
@@ -5839,160 +5835,160 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="128"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="127"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="115" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="131"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
       <c r="K3" s="55" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="114"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="113"/>
       <c r="K4" s="56" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="114"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="113"/>
       <c r="K5" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113" t="s">
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="114"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="113"/>
       <c r="K6" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="114"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="113"/>
       <c r="K7" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113" t="s">
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="114"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="113"/>
       <c r="K8" s="59" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="114"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113" t="s">
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="114"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="113"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="147" t="s">
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="148"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="134"/>
     </row>
     <row r="12" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="42"/>
@@ -6006,16 +6002,16 @@
     </row>
     <row r="13" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="141"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
     </row>
     <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B15" s="60" t="s">
@@ -6030,12 +6026,12 @@
       <c r="E15" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="152" t="s">
+      <c r="F15" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="153"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="139"/>
     </row>
     <row r="16" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B16" s="56" t="s">
@@ -6044,18 +6040,18 @@
       <c r="C16" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="161" t="s">
+      <c r="E16" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="162" t="s">
+      <c r="F16" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="164"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="152"/>
     </row>
     <row r="17" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="65" t="s">
@@ -6070,12 +6066,12 @@
       <c r="E17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="119" t="s">
+      <c r="F17" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="142"/>
     </row>
     <row r="18" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="57" t="s">
@@ -6090,12 +6086,12 @@
       <c r="E18" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="119" t="s">
+      <c r="F18" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
     </row>
     <row r="19" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="65" t="s">
@@ -6110,12 +6106,12 @@
       <c r="E19" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="65" t="s">
@@ -6130,12 +6126,12 @@
       <c r="E20" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="142"/>
     </row>
     <row r="21" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="65" t="s">
@@ -6150,12 +6146,12 @@
       <c r="E21" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="119" t="s">
+      <c r="F21" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="142"/>
     </row>
     <row r="22" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="65" t="s">
@@ -6170,12 +6166,12 @@
       <c r="E22" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="119" t="s">
+      <c r="F22" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="142"/>
     </row>
     <row r="23" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="65" t="s">
@@ -6190,12 +6186,12 @@
       <c r="E23" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="119" t="s">
+      <c r="F23" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="142"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="65" t="s">
@@ -6210,12 +6206,12 @@
       <c r="E24" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="119" t="s">
+      <c r="F24" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="121"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="142"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="67" t="s">
@@ -6230,12 +6226,12 @@
       <c r="E25" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="122" t="s">
+      <c r="F25" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="149"/>
     </row>
     <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B26" s="48"/>
@@ -6258,16 +6254,16 @@
       <c r="I27" s="73"/>
     </row>
     <row r="28" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="127"/>
     </row>
     <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B29" s="74" t="s">
@@ -6279,15 +6275,15 @@
       <c r="D29" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="115" t="s">
+      <c r="E29" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="142" t="s">
+      <c r="F29" s="144"/>
+      <c r="G29" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="142"/>
-      <c r="I29" s="143"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="129"/>
     </row>
     <row r="30" spans="2:9" s="76" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B30" s="65" t="s">
@@ -6299,15 +6295,15 @@
       <c r="D30" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="144" t="s">
+      <c r="F30" s="111"/>
+      <c r="G30" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="145"/>
-      <c r="I30" s="146"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
     </row>
     <row r="31" spans="2:9" s="76" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="77" t="s">
@@ -6319,28 +6315,28 @@
       <c r="D31" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="117" t="s">
+      <c r="E31" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="118"/>
-      <c r="G31" s="149" t="s">
+      <c r="F31" s="146"/>
+      <c r="G31" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="150"/>
-      <c r="I31" s="151"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="137"/>
     </row>
     <row r="33" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="135" t="s">
+      <c r="B34" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="136"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="138"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="120"/>
     </row>
     <row r="35" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="74" t="s">
@@ -6355,12 +6351,12 @@
       <c r="E35" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="115" t="s">
+      <c r="F35" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="108"/>
     </row>
     <row r="36" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="58" t="s">
@@ -6375,12 +6371,12 @@
       <c r="E36" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="107" t="s">
+      <c r="F36" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="158"/>
     </row>
     <row r="37" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="58" t="s">
@@ -6395,12 +6391,12 @@
       <c r="E37" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="107" t="s">
+      <c r="F37" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="109"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="158"/>
     </row>
     <row r="38" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="58" t="s">
@@ -6415,12 +6411,12 @@
       <c r="E38" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="107" t="s">
+      <c r="F38" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="158"/>
     </row>
     <row r="39" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B39" s="58" t="s">
@@ -6435,12 +6431,12 @@
       <c r="E39" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="107" t="s">
+      <c r="F39" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="109"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="158"/>
     </row>
     <row r="40" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B40" s="58" t="s">
@@ -6455,12 +6451,12 @@
       <c r="E40" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="107" t="s">
+      <c r="F40" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="109"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="158"/>
     </row>
     <row r="41" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B41" s="58" t="s">
@@ -6475,12 +6471,12 @@
       <c r="E41" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="107" t="s">
+      <c r="F41" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="109"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="158"/>
     </row>
     <row r="42" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B42" s="58" t="s">
@@ -6495,12 +6491,12 @@
       <c r="E42" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="107" t="s">
+      <c r="F42" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="109"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
+      <c r="I42" s="158"/>
     </row>
     <row r="43" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B43" s="58" t="s">
@@ -6515,12 +6511,12 @@
       <c r="E43" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="107" t="s">
+      <c r="F43" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="109"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="158"/>
     </row>
     <row r="44" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B44" s="58" t="s">
@@ -6535,12 +6531,12 @@
       <c r="E44" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="107" t="s">
+      <c r="F44" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="109"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="158"/>
     </row>
     <row r="45" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B45" s="58" t="s">
@@ -6555,12 +6551,12 @@
       <c r="E45" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="107" t="s">
+      <c r="F45" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="109"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="158"/>
     </row>
     <row r="46" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="58" t="s">
@@ -6575,12 +6571,12 @@
       <c r="E46" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="107" t="s">
+      <c r="F46" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="109"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="158"/>
     </row>
     <row r="47" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B47" s="58" t="s">
@@ -6595,12 +6591,12 @@
       <c r="E47" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="107" t="s">
+      <c r="F47" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="109"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="158"/>
     </row>
     <row r="48" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B48" s="58" t="s">
@@ -6615,12 +6611,12 @@
       <c r="E48" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="107" t="s">
+      <c r="F48" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="109"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="158"/>
     </row>
     <row r="49" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B49" s="58" t="s">
@@ -6635,12 +6631,12 @@
       <c r="E49" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="107" t="s">
+      <c r="F49" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="109"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="158"/>
     </row>
     <row r="50" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B50" s="58" t="s">
@@ -6655,12 +6651,12 @@
       <c r="E50" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="107" t="s">
+      <c r="F50" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="109"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="158"/>
     </row>
     <row r="51" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="80" t="s">
@@ -6675,15 +6671,55 @@
       <c r="E51" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F51" s="104" t="s">
+      <c r="F51" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="106"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:I9"/>
@@ -6700,46 +6736,6 @@
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F38:I38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6813,715 +6809,715 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="156"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
       <c r="O2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="159"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="164"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="159"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="164"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="159"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="164"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="159"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="164"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="157"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="159"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="164"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="157"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="159"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="164"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="157"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="159"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="164"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="159"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="164"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="157"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="159"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="164"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="157"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="159"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="164"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="159"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="164"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="159"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="164"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="157"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="159"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="164"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="159"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="164"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B17" s="157"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="159"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="164"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="159"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="164"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B19" s="157"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="159"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="164"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B20" s="157"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="159"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="164"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B21" s="157"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="159"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="164"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="159"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="164"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B23" s="157"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="159"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="164"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B24" s="157"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="159"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="164"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B25" s="157"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="159"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="164"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B26" s="157"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="159"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="164"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B27" s="157"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="159"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="164"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B28" s="157"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="159"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="164"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B29" s="157"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="159"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="164"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B30" s="157"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="159"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="164"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B31" s="157"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="159"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="164"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B32" s="157"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="159"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="164"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="159"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="164"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B34" s="157"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="159"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="163"/>
+      <c r="M34" s="164"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B35" s="157"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="159"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="163"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="164"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B36" s="157"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="159"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="163"/>
+      <c r="L36" s="163"/>
+      <c r="M36" s="164"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B37" s="157"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="159"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="163"/>
+      <c r="J37" s="163"/>
+      <c r="K37" s="163"/>
+      <c r="L37" s="163"/>
+      <c r="M37" s="164"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B38" s="157"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="159"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="163"/>
+      <c r="K38" s="163"/>
+      <c r="L38" s="163"/>
+      <c r="M38" s="164"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B39" s="157"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="159"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="163"/>
+      <c r="K39" s="163"/>
+      <c r="L39" s="163"/>
+      <c r="M39" s="164"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B40" s="157"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="159"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="163"/>
+      <c r="K40" s="163"/>
+      <c r="L40" s="163"/>
+      <c r="M40" s="164"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B41" s="157"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="159"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="163"/>
+      <c r="K41" s="163"/>
+      <c r="L41" s="163"/>
+      <c r="M41" s="164"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B42" s="157"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="159"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="163"/>
+      <c r="K42" s="163"/>
+      <c r="L42" s="163"/>
+      <c r="M42" s="164"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B43" s="157"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="159"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="164"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B44" s="157"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
-      <c r="J44" s="158"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="158"/>
-      <c r="M44" s="159"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="163"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="163"/>
+      <c r="M44" s="164"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B45" s="157"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="158"/>
-      <c r="K45" s="158"/>
-      <c r="L45" s="158"/>
-      <c r="M45" s="159"/>
+      <c r="B45" s="162"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="163"/>
+      <c r="J45" s="163"/>
+      <c r="K45" s="163"/>
+      <c r="L45" s="163"/>
+      <c r="M45" s="164"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B46" s="157"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="158"/>
-      <c r="M46" s="159"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="163"/>
+      <c r="K46" s="163"/>
+      <c r="L46" s="163"/>
+      <c r="M46" s="164"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
     </row>
     <row r="47" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="157"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="158"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="158"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="158"/>
-      <c r="M47" s="159"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="163"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="163"/>
+      <c r="J47" s="163"/>
+      <c r="K47" s="163"/>
+      <c r="L47" s="163"/>
+      <c r="M47" s="164"/>
       <c r="P47" s="16"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.45">
@@ -8423,761 +8419,761 @@
   <sheetData>
     <row r="1" spans="2:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="156"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
       <c r="P2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="159"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="159"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="164"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="159"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="159"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="164"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B7" s="157"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="159"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="164"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B8" s="157"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="159"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="164"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B9" s="157"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="159"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="164"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="159"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="164"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B11" s="157"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="159"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="164"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B12" s="157"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="159"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="164"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="159"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="164"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="159"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="164"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B15" s="157"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="159"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="164"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="159"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="164"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="157"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="159"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="164"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="159"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="164"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="157"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="159"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="164"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B20" s="157"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="159"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="164"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B21" s="157"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="159"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="164"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="159"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="164"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="157"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="159"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="164"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B24" s="157"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="159"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="164"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B25" s="157"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="159"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="164"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B26" s="157"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="159"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="164"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B27" s="157"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="159"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="164"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B28" s="157"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="159"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="164"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B29" s="157"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="159"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="164"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B30" s="157"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="159"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="164"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B31" s="157"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="159"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="164"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B32" s="157"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="159"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="164"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="159"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="164"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B34" s="157"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="159"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="163"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="164"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B35" s="157"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="159"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="163"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="164"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B36" s="157"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
-      <c r="N36" s="159"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="163"/>
+      <c r="L36" s="163"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="164"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B37" s="157"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="159"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="163"/>
+      <c r="J37" s="163"/>
+      <c r="K37" s="163"/>
+      <c r="L37" s="163"/>
+      <c r="M37" s="163"/>
+      <c r="N37" s="164"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B38" s="157"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
-      <c r="N38" s="159"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="163"/>
+      <c r="K38" s="163"/>
+      <c r="L38" s="163"/>
+      <c r="M38" s="163"/>
+      <c r="N38" s="164"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B39" s="157"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="159"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="163"/>
+      <c r="K39" s="163"/>
+      <c r="L39" s="163"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="164"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B40" s="157"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="158"/>
-      <c r="N40" s="159"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="163"/>
+      <c r="K40" s="163"/>
+      <c r="L40" s="163"/>
+      <c r="M40" s="163"/>
+      <c r="N40" s="164"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B41" s="157"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="158"/>
-      <c r="N41" s="159"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="163"/>
+      <c r="K41" s="163"/>
+      <c r="L41" s="163"/>
+      <c r="M41" s="163"/>
+      <c r="N41" s="164"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B42" s="157"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="158"/>
-      <c r="N42" s="159"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="163"/>
+      <c r="K42" s="163"/>
+      <c r="L42" s="163"/>
+      <c r="M42" s="163"/>
+      <c r="N42" s="164"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B43" s="157"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="158"/>
-      <c r="N43" s="159"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="163"/>
+      <c r="N43" s="164"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B44" s="157"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
-      <c r="J44" s="158"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="158"/>
-      <c r="M44" s="158"/>
-      <c r="N44" s="159"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="163"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="163"/>
+      <c r="M44" s="163"/>
+      <c r="N44" s="164"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B45" s="157"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="158"/>
-      <c r="K45" s="158"/>
-      <c r="L45" s="158"/>
-      <c r="M45" s="158"/>
-      <c r="N45" s="159"/>
+      <c r="B45" s="162"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="163"/>
+      <c r="J45" s="163"/>
+      <c r="K45" s="163"/>
+      <c r="L45" s="163"/>
+      <c r="M45" s="163"/>
+      <c r="N45" s="164"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B46" s="157"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="158"/>
-      <c r="M46" s="158"/>
-      <c r="N46" s="159"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="163"/>
+      <c r="K46" s="163"/>
+      <c r="L46" s="163"/>
+      <c r="M46" s="163"/>
+      <c r="N46" s="164"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
     </row>
     <row r="47" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="157"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="158"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="158"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="158"/>
-      <c r="M47" s="158"/>
-      <c r="N47" s="159"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="163"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="163"/>
+      <c r="J47" s="163"/>
+      <c r="K47" s="163"/>
+      <c r="L47" s="163"/>
+      <c r="M47" s="163"/>
+      <c r="N47" s="164"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
     </row>
@@ -10167,8 +10163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
@@ -10202,717 +10198,717 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="156"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
       <c r="O2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="159"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="164"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="159"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="164"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="159"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="164"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="159"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="164"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="157"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="159"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="164"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="157"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="159"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="164"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="157"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="159"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="164"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="159"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="164"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="157"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="159"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="164"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="157"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="159"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="164"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="159"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="164"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="159"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="164"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="157"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="159"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="164"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="159"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="164"/>
       <c r="O16" s="16" t="s">
         <v>126</v>
       </c>
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B17" s="157"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="159"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="164"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="159"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="164"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B19" s="157"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="159"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="164"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B20" s="157"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="159"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="164"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B21" s="157"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="159"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="164"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="159"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="164"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B23" s="157"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="159"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="164"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B24" s="157"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="159"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="164"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B25" s="157"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="159"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="164"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B26" s="157"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="159"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="164"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B27" s="157"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="159"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="164"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B28" s="157"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="159"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="164"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B29" s="157"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="159"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="164"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B30" s="157"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="159"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="164"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B31" s="157"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="159"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="164"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B32" s="157"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="159"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="164"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="159"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="164"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B34" s="157"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="159"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="163"/>
+      <c r="M34" s="164"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B35" s="157"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="159"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="163"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="164"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B36" s="157"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="159"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="163"/>
+      <c r="L36" s="163"/>
+      <c r="M36" s="164"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B37" s="157"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="159"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="163"/>
+      <c r="J37" s="163"/>
+      <c r="K37" s="163"/>
+      <c r="L37" s="163"/>
+      <c r="M37" s="164"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B38" s="157"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="159"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="163"/>
+      <c r="K38" s="163"/>
+      <c r="L38" s="163"/>
+      <c r="M38" s="164"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B39" s="157"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="159"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="163"/>
+      <c r="K39" s="163"/>
+      <c r="L39" s="163"/>
+      <c r="M39" s="164"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B40" s="157"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="159"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="163"/>
+      <c r="K40" s="163"/>
+      <c r="L40" s="163"/>
+      <c r="M40" s="164"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B41" s="157"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="159"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="163"/>
+      <c r="K41" s="163"/>
+      <c r="L41" s="163"/>
+      <c r="M41" s="164"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B42" s="157"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="159"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="163"/>
+      <c r="K42" s="163"/>
+      <c r="L42" s="163"/>
+      <c r="M42" s="164"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B43" s="157"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="159"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="164"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B44" s="157"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
-      <c r="J44" s="158"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="158"/>
-      <c r="M44" s="159"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="163"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="163"/>
+      <c r="M44" s="164"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B45" s="157"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="158"/>
-      <c r="K45" s="158"/>
-      <c r="L45" s="158"/>
-      <c r="M45" s="159"/>
+      <c r="B45" s="162"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="163"/>
+      <c r="J45" s="163"/>
+      <c r="K45" s="163"/>
+      <c r="L45" s="163"/>
+      <c r="M45" s="164"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B46" s="157"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="158"/>
-      <c r="M46" s="159"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="163"/>
+      <c r="K46" s="163"/>
+      <c r="L46" s="163"/>
+      <c r="M46" s="164"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
     </row>
     <row r="47" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="157"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="158"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="158"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="158"/>
-      <c r="M47" s="159"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="163"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="163"/>
+      <c r="J47" s="163"/>
+      <c r="K47" s="163"/>
+      <c r="L47" s="163"/>
+      <c r="M47" s="164"/>
       <c r="P47" s="16"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.45">
@@ -10988,11 +10984,11 @@
       </c>
       <c r="L49" s="23">
         <f>SUM(L51:L1048554)</f>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M49" s="24">
         <f>SUM(M51:M1048553)</f>
-        <v>2811915</v>
+        <v>2874402</v>
       </c>
       <c r="O49" s="16" t="s">
         <v>19</v>
@@ -11844,7 +11840,9 @@
       <c r="B82" s="32">
         <v>45929</v>
       </c>
-      <c r="C82" s="33"/>
+      <c r="C82" s="33">
+        <v>3</v>
+      </c>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
       <c r="F82" s="33"/>
@@ -11855,11 +11853,11 @@
       <c r="K82" s="33"/>
       <c r="L82" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M82" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>62487</v>
       </c>
     </row>
   </sheetData>

--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF8347A-A0E5-42A4-BDD9-BC936569F1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B98F63-01B3-4E7E-9AE8-AC060CB07625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="현황대시보드" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="8月" sheetId="7" r:id="rId3"/>
     <sheet name="7月" sheetId="3" r:id="rId4"/>
     <sheet name="9月" sheetId="9" r:id="rId5"/>
+    <sheet name="10月" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="130">
   <si>
     <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,14 +100,6 @@
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이미지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -387,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\\192.168.10.200\Guest\sorce_code_backup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://care-order.netlify.app/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,55 +511,6 @@
       <rPr>
         <b/>
         <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans KR"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">● </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="Noto Sans KR"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">서비스 종료 및 소스코드 보관위치 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Noto Sans KR"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">● </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans KR"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">	Web service</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
         <color rgb="FF00B050"/>
         <rFont val="Noto Sans KR"/>
         <family val="3"/>
@@ -640,23 +580,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">09월 30일 마감 보고 하면됩니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">월 평균 절감액 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aptamil_FlowMap</t>
+    <t>뉴트리시아 관련 데이터기반 트랙형 개발 프로그램 제작전  아젠다 회의 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발중..</t>
+    <t>\\192.168.10.200\mofs\업무파일\프로그램\2025_backup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뉴트리시아 관련 데이터기반 트랙형 개발 프로그램 제작전  아젠다 회의 예정</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">● </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">서비스 종료 및 back_up 소스코드 보관위치 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">● </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">서비스 종료 및 back_up 소스코드 보관위치 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTC 여정 리포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">● </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">	Web service (Web APP)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTC 여정 리포트</t>
+  </si>
+  <si>
+    <t>출준팩 여정 추적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +680,7 @@
     <numFmt numFmtId="178" formatCode="0;[Red]0"/>
     <numFmt numFmtId="179" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,15 +812,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -858,7 +857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1186,43 +1185,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1322,12 +1284,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1447,19 +1420,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1498,34 +1459,13 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1564,28 +1504,45 @@
     <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1621,13 +1578,13 @@
     <xf numFmtId="179" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1636,13 +1593,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1672,7 +1644,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1681,19 +1653,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1702,11 +1662,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1732,25 +1689,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1759,40 +1716,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="18" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="18" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="18" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3538,6 +3489,577 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+                <a:latin typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" sz="2400" b="1">
+                <a:latin typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+              </a:rPr>
+              <a:t>月 전략기획실 제공 프로그램 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1">
+                <a:latin typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+              </a:rPr>
+              <a:t>ROI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" sz="2400" b="1">
+                <a:latin typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+              </a:rPr>
+              <a:t>사용 추이 </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="함초롬돋움" panose="020B0604000101010101" pitchFamily="50" charset="-127"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="HY헤드라인M" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+                    <a:ea typeface="HY헤드라인M" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10月'!$B$51:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/mm/dd;@</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45937</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45940</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45941</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45942</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45943</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45945</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45946</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45947</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45948</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45949</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45950</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45951</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45952</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45953</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45954</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45955</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45956</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45957</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45959</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10月'!$N$51:$N$81</c:f>
+              <c:numCache>
+                <c:formatCode>"₩"#,##0;[Red]"₩"#,##0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62487</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104145</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>208290</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69DC-4F6D-91A0-AA2713E7D986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1769646335"/>
+        <c:axId val="1769649695"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1769646335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy/mm/dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="HY헤드라인M" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+                <a:ea typeface="HY헤드라인M" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1769649695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1769649695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="HY헤드라인M" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+                <a:ea typeface="HY헤드라인M" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1769646335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -3613,6 +4135,43 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -5149,6 +5708,506 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5344,6 +6403,49 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>58831</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>904873</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A934B109-359F-4AC6-8A99-D697E3852D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5615,10 +6717,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:F16"/>
+  <dimension ref="B1:I51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5634,42 +6736,42 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
+      <c r="B4" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
     </row>
     <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105"/>
+        <v>98</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
@@ -5679,35 +6781,35 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100"/>
+      <c r="B7" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
     </row>
     <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="84" t="s">
+      <c r="B9" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="74" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5749,15 +6851,19 @@
       <c r="B12" s="8">
         <v>45901</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="9">
+        <v>138</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2874402</v>
+      </c>
       <c r="E12" s="9">
         <f>E11+C12</f>
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="F12" s="14">
         <f>F11+D12</f>
-        <v>4353261</v>
+        <v>7227663</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -5771,12 +6877,12 @@
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="86">
+      <c r="E14" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="75">
         <f>AVERAGE(D10:D12)</f>
-        <v>2176630.5</v>
+        <v>2409221</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
@@ -5793,12 +6899,211 @@
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
+    <row r="33" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="2:9" ht="33" x14ac:dyDescent="0.65">
+      <c r="B34" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="83"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="84"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="85"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="84"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="112"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="84"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="112"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="84"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="112"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="84"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="112"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="84"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="112"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="84"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="112"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="84"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="112"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="84"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="112"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="84"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="112"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="84"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="112"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="84"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="112"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="84"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="112"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="84"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="111"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="112"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="84"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="112"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="84"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="112"/>
+    </row>
+    <row r="51" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="86"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="115"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="20">
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="B7:F8"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="F36:I36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5813,7 +7118,7 @@
   </sheetPr>
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -5835,160 +7140,160 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="127"/>
+      <c r="B2" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="148"/>
+      <c r="K3" s="51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="106" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="K3" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="109" t="s">
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="122"/>
+      <c r="K4" s="52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112" t="s">
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="113"/>
-      <c r="K4" s="56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="109" t="s">
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="122"/>
+      <c r="K5" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112" t="s">
+      <c r="C6" s="119"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="113"/>
-      <c r="K5" s="57" t="s">
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="122"/>
+      <c r="K6" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="122"/>
+      <c r="K7" s="54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="122"/>
+      <c r="K8" s="55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="113"/>
-      <c r="K6" s="57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="113"/>
-      <c r="K7" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="109" t="s">
+    <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="112" t="s">
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="113"/>
-      <c r="K8" s="59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="122"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="113"/>
-    </row>
-    <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="109" t="s">
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="122"/>
+    </row>
+    <row r="11" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="112" t="s">
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="113"/>
-    </row>
-    <row r="11" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="133" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="134"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="138"/>
     </row>
     <row r="12" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="42"/>
@@ -6001,701 +7306,701 @@
       <c r="I12" s="42"/>
     </row>
     <row r="13" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+    <row r="14" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
     </row>
     <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="117"/>
+    </row>
+    <row r="16" spans="2:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="B16" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="138" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="139"/>
-    </row>
-    <row r="16" spans="2:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="B16" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="150" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="152"/>
+      <c r="C16" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="154"/>
     </row>
     <row r="17" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="140" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="142"/>
+      <c r="B17" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
     </row>
     <row r="18" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="F18" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143"/>
+    </row>
+    <row r="19" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="140" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="142"/>
-    </row>
-    <row r="19" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
+      <c r="F19" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
+    </row>
+    <row r="20" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
+    </row>
+    <row r="21" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
+    </row>
+    <row r="22" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143"/>
+    </row>
+    <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+    </row>
+    <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="F24" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143"/>
+    </row>
+    <row r="25" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="152"/>
+    </row>
+    <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
+    </row>
+    <row r="27" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="130" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="133"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
+    </row>
+    <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B29" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="146"/>
+      <c r="G29" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="116"/>
+      <c r="I29" s="117"/>
+    </row>
+    <row r="30" spans="2:9" s="65" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B30" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="120"/>
+      <c r="G30" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="135"/>
+      <c r="I30" s="136"/>
+    </row>
+    <row r="31" spans="2:9" s="65" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="142"/>
-    </row>
-    <row r="21" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="142"/>
-    </row>
-    <row r="22" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="142"/>
-    </row>
-    <row r="23" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="142"/>
-    </row>
-    <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="142"/>
-    </row>
-    <row r="25" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="147" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="149"/>
-    </row>
-    <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
-    </row>
-    <row r="27" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
-    </row>
-    <row r="28" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="127"/>
-    </row>
-    <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B29" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="144"/>
-      <c r="G29" s="128" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="128"/>
-      <c r="I29" s="129"/>
-    </row>
-    <row r="30" spans="2:9" s="76" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="B30" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="66" t="s">
+      <c r="D31" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="112" t="s">
+      <c r="E31" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="130" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
-    </row>
-    <row r="31" spans="2:9" s="76" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="77" t="s">
+      <c r="F31" s="150"/>
+      <c r="G31" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="146"/>
-      <c r="G31" s="135" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="136"/>
-      <c r="I31" s="137"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="141"/>
     </row>
     <row r="33" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="120"/>
+      <c r="B34" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="127"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="129"/>
     </row>
     <row r="35" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="75" t="s">
+      <c r="B35" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="117"/>
+    </row>
+    <row r="36" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="106" t="s">
+      <c r="C36" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="157"/>
+    </row>
+    <row r="37" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="157"/>
+    </row>
+    <row r="38" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="108"/>
-    </row>
-    <row r="36" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="158"/>
-    </row>
-    <row r="37" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="158"/>
-    </row>
-    <row r="38" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="79" t="s">
+      <c r="F38" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="157"/>
+    </row>
+    <row r="39" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B39" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="158"/>
-    </row>
-    <row r="39" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B39" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="79" t="s">
+      <c r="F39" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="157"/>
+    </row>
+    <row r="40" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B40" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="158"/>
-    </row>
-    <row r="40" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B40" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="66" t="s">
+      <c r="F40" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="157"/>
+    </row>
+    <row r="41" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B41" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E41" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="158"/>
-    </row>
-    <row r="41" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B41" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="66" t="s">
+      <c r="F41" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="157"/>
+    </row>
+    <row r="42" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B42" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E42" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="158"/>
-    </row>
-    <row r="42" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B42" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="66" t="s">
+      <c r="F42" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="157"/>
+    </row>
+    <row r="43" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B43" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E43" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="158"/>
-    </row>
-    <row r="43" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B43" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="26" t="s">
+      <c r="F43" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="157"/>
+    </row>
+    <row r="44" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B44" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E44" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="157"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="158"/>
-    </row>
-    <row r="44" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B44" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="26" t="s">
+      <c r="F44" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="157"/>
+    </row>
+    <row r="45" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B45" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E45" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="158"/>
-    </row>
-    <row r="45" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B45" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="26" t="s">
+      <c r="F45" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="157"/>
+    </row>
+    <row r="46" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B46" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="157"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="158"/>
-    </row>
-    <row r="46" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B46" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="26" t="s">
+      <c r="F46" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="157"/>
+    </row>
+    <row r="47" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B47" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="158"/>
-    </row>
-    <row r="47" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B47" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="26" t="s">
+      <c r="F47" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="157"/>
+    </row>
+    <row r="48" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B48" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="158"/>
-    </row>
-    <row r="48" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B48" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="26" t="s">
+      <c r="F48" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="156"/>
+      <c r="H48" s="156"/>
+      <c r="I48" s="157"/>
+    </row>
+    <row r="49" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B49" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E49" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="158"/>
-    </row>
-    <row r="49" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B49" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="26" t="s">
+      <c r="F49" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="157"/>
+    </row>
+    <row r="50" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B50" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E50" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="158"/>
-    </row>
-    <row r="50" spans="2:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="B50" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="26" t="s">
+      <c r="F50" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="157"/>
+    </row>
+    <row r="51" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E51" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="158"/>
-    </row>
-    <row r="51" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="153" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="155"/>
+      <c r="F51" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="159"/>
+      <c r="H51" s="159"/>
+      <c r="I51" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
     <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F49:I49"/>
     <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F45:I45"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
     <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F38:I38"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E29:F29"/>
@@ -6703,12 +8008,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="B6:D6"/>
@@ -6734,42 +8039,26 @@
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G30" r:id="rId1" xr:uid="{BFDC43CE-4F53-44BE-A885-C6F5846A6BF6}"/>
     <hyperlink ref="G31" r:id="rId2" xr:uid="{8D51C4E4-E0BB-4594-8FB1-9E5AB545FD2A}"/>
-    <hyperlink ref="F36" r:id="rId3" xr:uid="{0E9BA2FE-FEDA-42BE-BE02-B55EE808CE35}"/>
-    <hyperlink ref="F17" r:id="rId4" display="\\192.168.10.200\Guest\ToolBox프로그램" xr:uid="{097D2EAD-0491-4137-BE8B-9F452F5A903C}"/>
-    <hyperlink ref="F19" r:id="rId5" xr:uid="{7610C7E5-E283-42A6-A9B5-856D7BAD6AF0}"/>
-    <hyperlink ref="F20" r:id="rId6" xr:uid="{BA0F2004-FB0E-4BB5-A3D1-326187D99CAE}"/>
-    <hyperlink ref="F21" r:id="rId7" xr:uid="{A0CA96C2-3039-4653-B70B-D57DB64D79DF}"/>
-    <hyperlink ref="F22" r:id="rId8" xr:uid="{F444151E-BDF1-4885-B7D6-79EA7F4BF73D}"/>
-    <hyperlink ref="F23" r:id="rId9" xr:uid="{EEBB0ADC-0DC8-4934-B1BB-F457177F749C}"/>
-    <hyperlink ref="F24" r:id="rId10" xr:uid="{8CD1D671-7043-4263-A287-993F41FAF3F9}"/>
-    <hyperlink ref="F25" r:id="rId11" xr:uid="{D044D53C-681D-474F-8F9D-5DF3462F4109}"/>
-    <hyperlink ref="F37" r:id="rId12" xr:uid="{C4ED7C44-D80B-4501-B532-1C9100A966B6}"/>
-    <hyperlink ref="F38" r:id="rId13" xr:uid="{B05F1908-B017-4417-8B93-90E2E79BA8CA}"/>
-    <hyperlink ref="F39" r:id="rId14" xr:uid="{0AC4FCFF-0C63-4538-9DDF-65654A5D14AA}"/>
-    <hyperlink ref="F40" r:id="rId15" xr:uid="{E896BAEE-0023-4902-9AC0-B24124BF141A}"/>
-    <hyperlink ref="F41" r:id="rId16" xr:uid="{0C371D85-692B-4C2A-B436-557EC5B8DB3E}"/>
-    <hyperlink ref="F42" r:id="rId17" xr:uid="{A9CBC5FE-D069-46AC-B2D7-35A7F6B64567}"/>
-    <hyperlink ref="F43" r:id="rId18" xr:uid="{4929F438-ED68-4F28-A1A8-2FAEB1A08C82}"/>
-    <hyperlink ref="F44" r:id="rId19" xr:uid="{76D9F57B-C6D6-4F93-B9F3-4B6D3A68D6E1}"/>
-    <hyperlink ref="F45" r:id="rId20" xr:uid="{0B2DBD8A-C7CE-43CE-AED6-8C36F18962F8}"/>
-    <hyperlink ref="F46" r:id="rId21" xr:uid="{B4C2A02A-0866-44EC-9945-631079F19F6A}"/>
-    <hyperlink ref="F47" r:id="rId22" xr:uid="{E58B552C-7102-4F0A-8D7A-98CC5223C78C}"/>
-    <hyperlink ref="F48" r:id="rId23" xr:uid="{74F13398-C523-49D6-8193-0D0BF7FCF004}"/>
-    <hyperlink ref="F49" r:id="rId24" xr:uid="{3487B730-3010-4735-B9B7-A5C358941082}"/>
-    <hyperlink ref="F50" r:id="rId25" xr:uid="{DC0CC85B-A3EF-4EDA-90E3-DAB5FAF563EB}"/>
-    <hyperlink ref="F51" r:id="rId26" xr:uid="{BF18D4A4-BE9C-492B-8B8F-D5C42463219E}"/>
-    <hyperlink ref="F18" r:id="rId27" display="\\192.168.10.200\Guest\ToolBox프로그램" xr:uid="{7DB3DF83-55FE-432D-AD84-D90ECE4EF7E9}"/>
-    <hyperlink ref="F16" r:id="rId28" display="\\192.168.10.200\Guest\ToolBox프로그램" xr:uid="{E4C3C2B3-7BD3-4FF9-A6C1-B0155D9303CB}"/>
+    <hyperlink ref="F17" r:id="rId3" xr:uid="{7610C7E5-E283-42A6-A9B5-856D7BAD6AF0}"/>
+    <hyperlink ref="F18" r:id="rId4" xr:uid="{BA0F2004-FB0E-4BB5-A3D1-326187D99CAE}"/>
+    <hyperlink ref="F19" r:id="rId5" xr:uid="{A0CA96C2-3039-4653-B70B-D57DB64D79DF}"/>
+    <hyperlink ref="F20" r:id="rId6" xr:uid="{F444151E-BDF1-4885-B7D6-79EA7F4BF73D}"/>
+    <hyperlink ref="F21" r:id="rId7" xr:uid="{EEBB0ADC-0DC8-4934-B1BB-F457177F749C}"/>
+    <hyperlink ref="F22" r:id="rId8" xr:uid="{8CD1D671-7043-4263-A287-993F41FAF3F9}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{1F2C9BCE-8C06-48FB-A636-9BD72D5848B7}"/>
+    <hyperlink ref="F23" r:id="rId10" xr:uid="{65F86293-2C1D-4D9B-B1E7-3F64B233DDC5}"/>
+    <hyperlink ref="F25" r:id="rId11" display="\\192.168.10.200\Guest\ToolBox프로그램" xr:uid="{DCB2C909-8DC9-479A-8534-326B43816D2C}"/>
+    <hyperlink ref="F24" r:id="rId12" display="\\192.168.10.200\Guest\ToolBox프로그램" xr:uid="{3C1C7B11-80D1-459E-8862-588CCE8C14EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -6777,7 +8066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D3E6F-5235-4035-822F-8FB39F1F9837}">
   <dimension ref="B1:P79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6809,715 +8098,712 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B2" s="159"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="161"/>
-      <c r="O2" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="163"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="166"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="166"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="166"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="166"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="166"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="164"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="166"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="164"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="166"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="162"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="164"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="166"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="162"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="164"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="166"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="162"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="164"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="166"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="162"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="166"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="164"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="166"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="164"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="166"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="164"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="166"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="164"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="166"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="166"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="164"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="166"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="164"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="166"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="164"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="166"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B22" s="162"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="164"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="164"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="166"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B24" s="162"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="164"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="166"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B25" s="162"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="164"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="166"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B26" s="162"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="164"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="166"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B27" s="162"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="164"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="166"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="164"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="166"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="164"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="166"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="164"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="166"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B31" s="162"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="164"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="166"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B32" s="162"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="164"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="166"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B33" s="162"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="164"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="166"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B34" s="162"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="163"/>
-      <c r="K34" s="163"/>
-      <c r="L34" s="163"/>
-      <c r="M34" s="164"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="166"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B35" s="162"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="163"/>
-      <c r="K35" s="163"/>
-      <c r="L35" s="163"/>
-      <c r="M35" s="164"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="166"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B36" s="162"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="163"/>
-      <c r="K36" s="163"/>
-      <c r="L36" s="163"/>
-      <c r="M36" s="164"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="166"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B37" s="162"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="163"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="163"/>
-      <c r="K37" s="163"/>
-      <c r="L37" s="163"/>
-      <c r="M37" s="164"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="166"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B38" s="162"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="163"/>
-      <c r="K38" s="163"/>
-      <c r="L38" s="163"/>
-      <c r="M38" s="164"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="166"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B39" s="162"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="163"/>
-      <c r="L39" s="163"/>
-      <c r="M39" s="164"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="166"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B40" s="162"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="163"/>
-      <c r="K40" s="163"/>
-      <c r="L40" s="163"/>
-      <c r="M40" s="164"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="165"/>
+      <c r="M40" s="166"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B41" s="162"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="163"/>
-      <c r="K41" s="163"/>
-      <c r="L41" s="163"/>
-      <c r="M41" s="164"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="165"/>
+      <c r="M41" s="166"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B42" s="162"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="163"/>
-      <c r="K42" s="163"/>
-      <c r="L42" s="163"/>
-      <c r="M42" s="164"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="165"/>
+      <c r="L42" s="165"/>
+      <c r="M42" s="166"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B43" s="162"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="164"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
+      <c r="L43" s="165"/>
+      <c r="M43" s="166"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B44" s="162"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="164"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="166"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B45" s="162"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="163"/>
-      <c r="K45" s="163"/>
-      <c r="L45" s="163"/>
-      <c r="M45" s="164"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+      <c r="M45" s="166"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B46" s="162"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="163"/>
-      <c r="K46" s="163"/>
-      <c r="L46" s="163"/>
-      <c r="M46" s="164"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="165"/>
+      <c r="L46" s="165"/>
+      <c r="M46" s="166"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
     </row>
     <row r="47" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="162"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="163"/>
-      <c r="K47" s="163"/>
-      <c r="L47" s="163"/>
-      <c r="M47" s="164"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="165"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="165"/>
+      <c r="L47" s="165"/>
+      <c r="M47" s="166"/>
       <c r="P47" s="16"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.45">
@@ -7599,9 +8885,7 @@
         <f>SUM(M51:M1048553)</f>
         <v>1853781</v>
       </c>
-      <c r="O49" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="O49" s="16"/>
       <c r="P49" s="16"/>
     </row>
     <row r="50" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
@@ -8419,761 +9703,758 @@
   <sheetData>
     <row r="1" spans="2:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B2" s="159"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161"/>
-      <c r="P2" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="166"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="166"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="166"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="166"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="164"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="166"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="164"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="166"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B10" s="162"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="164"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="166"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B11" s="162"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="164"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="166"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B12" s="162"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="164"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="166"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B13" s="162"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="166"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="164"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="166"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="164"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="166"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="164"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="166"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="164"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="166"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="166"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="164"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="166"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="164"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="166"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="164"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="166"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B22" s="162"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="164"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="166"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="164"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="166"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B24" s="162"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="164"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B25" s="162"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="164"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="166"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B26" s="162"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="164"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="166"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B27" s="162"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="164"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="166"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="164"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="166"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="164"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="166"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="164"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="166"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B31" s="162"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="164"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="166"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B32" s="162"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="164"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="166"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="162"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="164"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="166"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B34" s="162"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="163"/>
-      <c r="K34" s="163"/>
-      <c r="L34" s="163"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="164"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="165"/>
+      <c r="N34" s="166"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B35" s="162"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="163"/>
-      <c r="K35" s="163"/>
-      <c r="L35" s="163"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="164"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="166"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B36" s="162"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="163"/>
-      <c r="K36" s="163"/>
-      <c r="L36" s="163"/>
-      <c r="M36" s="163"/>
-      <c r="N36" s="164"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="165"/>
+      <c r="N36" s="166"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B37" s="162"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="163"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="163"/>
-      <c r="K37" s="163"/>
-      <c r="L37" s="163"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="164"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
+      <c r="N37" s="166"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B38" s="162"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="163"/>
-      <c r="K38" s="163"/>
-      <c r="L38" s="163"/>
-      <c r="M38" s="163"/>
-      <c r="N38" s="164"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
+      <c r="N38" s="166"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B39" s="162"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="163"/>
-      <c r="L39" s="163"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="164"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="165"/>
+      <c r="N39" s="166"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B40" s="162"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="163"/>
-      <c r="K40" s="163"/>
-      <c r="L40" s="163"/>
-      <c r="M40" s="163"/>
-      <c r="N40" s="164"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="165"/>
+      <c r="M40" s="165"/>
+      <c r="N40" s="166"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B41" s="162"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="163"/>
-      <c r="K41" s="163"/>
-      <c r="L41" s="163"/>
-      <c r="M41" s="163"/>
-      <c r="N41" s="164"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="165"/>
+      <c r="M41" s="165"/>
+      <c r="N41" s="166"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B42" s="162"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="163"/>
-      <c r="K42" s="163"/>
-      <c r="L42" s="163"/>
-      <c r="M42" s="163"/>
-      <c r="N42" s="164"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="165"/>
+      <c r="L42" s="165"/>
+      <c r="M42" s="165"/>
+      <c r="N42" s="166"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B43" s="162"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="163"/>
-      <c r="N43" s="164"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
+      <c r="L43" s="165"/>
+      <c r="M43" s="165"/>
+      <c r="N43" s="166"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B44" s="162"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="164"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="165"/>
+      <c r="N44" s="166"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B45" s="162"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="163"/>
-      <c r="K45" s="163"/>
-      <c r="L45" s="163"/>
-      <c r="M45" s="163"/>
-      <c r="N45" s="164"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="166"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B46" s="162"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="163"/>
-      <c r="K46" s="163"/>
-      <c r="L46" s="163"/>
-      <c r="M46" s="163"/>
-      <c r="N46" s="164"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="165"/>
+      <c r="L46" s="165"/>
+      <c r="M46" s="165"/>
+      <c r="N46" s="166"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
     </row>
     <row r="47" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="162"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="163"/>
-      <c r="K47" s="163"/>
-      <c r="L47" s="163"/>
-      <c r="M47" s="163"/>
-      <c r="N47" s="164"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="165"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="165"/>
+      <c r="L47" s="165"/>
+      <c r="M47" s="165"/>
+      <c r="N47" s="166"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
     </row>
@@ -9217,9 +10498,7 @@
       <c r="N48" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P48" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.45">
@@ -10163,9 +11442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10198,717 +11475,712 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B2" s="159"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="161"/>
-      <c r="O2" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="163"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="166"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="166"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="166"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="166"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="166"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="164"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="166"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="164"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="166"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="162"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="164"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="166"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="162"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="164"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="166"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="162"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="164"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="166"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="162"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="166"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="164"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="166"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="164"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="166"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="164"/>
-      <c r="O16" s="16" t="s">
-        <v>126</v>
-      </c>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="166"/>
+      <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="164"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="166"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="166"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="164"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="166"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="164"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="166"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="164"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="166"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B22" s="162"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="164"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="164"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="166"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B24" s="162"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="164"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="166"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B25" s="162"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="164"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="166"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B26" s="162"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="164"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="166"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B27" s="162"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="164"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="166"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="164"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="166"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="164"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="166"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="164"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="166"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B31" s="162"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="164"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="166"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B32" s="162"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="164"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="166"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B33" s="162"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="164"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="166"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B34" s="162"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="163"/>
-      <c r="K34" s="163"/>
-      <c r="L34" s="163"/>
-      <c r="M34" s="164"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="166"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B35" s="162"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="163"/>
-      <c r="K35" s="163"/>
-      <c r="L35" s="163"/>
-      <c r="M35" s="164"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="166"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B36" s="162"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="163"/>
-      <c r="K36" s="163"/>
-      <c r="L36" s="163"/>
-      <c r="M36" s="164"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="166"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B37" s="162"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="163"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="163"/>
-      <c r="K37" s="163"/>
-      <c r="L37" s="163"/>
-      <c r="M37" s="164"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="166"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B38" s="162"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="163"/>
-      <c r="K38" s="163"/>
-      <c r="L38" s="163"/>
-      <c r="M38" s="164"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="166"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B39" s="162"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="163"/>
-      <c r="L39" s="163"/>
-      <c r="M39" s="164"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="166"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B40" s="162"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="163"/>
-      <c r="K40" s="163"/>
-      <c r="L40" s="163"/>
-      <c r="M40" s="164"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="165"/>
+      <c r="M40" s="166"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B41" s="162"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="163"/>
-      <c r="K41" s="163"/>
-      <c r="L41" s="163"/>
-      <c r="M41" s="164"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="165"/>
+      <c r="M41" s="166"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B42" s="162"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="163"/>
-      <c r="K42" s="163"/>
-      <c r="L42" s="163"/>
-      <c r="M42" s="164"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="165"/>
+      <c r="L42" s="165"/>
+      <c r="M42" s="166"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B43" s="162"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="164"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
+      <c r="L43" s="165"/>
+      <c r="M43" s="166"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B44" s="162"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="164"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="166"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B45" s="162"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="163"/>
-      <c r="K45" s="163"/>
-      <c r="L45" s="163"/>
-      <c r="M45" s="164"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+      <c r="M45" s="166"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B46" s="162"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="163"/>
-      <c r="K46" s="163"/>
-      <c r="L46" s="163"/>
-      <c r="M46" s="164"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="165"/>
+      <c r="L46" s="165"/>
+      <c r="M46" s="166"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
     </row>
     <row r="47" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="162"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="163"/>
-      <c r="K47" s="163"/>
-      <c r="L47" s="163"/>
-      <c r="M47" s="164"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="165"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="165"/>
+      <c r="L47" s="165"/>
+      <c r="M47" s="166"/>
       <c r="P47" s="16"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.45">
@@ -10937,10 +12209,10 @@
         <v>3</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L48" s="19" t="s">
         <v>12</v>
@@ -10990,14 +12262,12 @@
         <f>SUM(M51:M1048553)</f>
         <v>2874402</v>
       </c>
-      <c r="O49" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="O49" s="16"/>
       <c r="P49" s="16"/>
     </row>
     <row r="50" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>1</v>
@@ -11021,10 +12291,10 @@
         <v>3</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K50" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L50" s="33" t="s">
         <v>11</v>
@@ -11760,7 +13030,7 @@
       </c>
       <c r="K78" s="26"/>
       <c r="L78" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C78:K78)</f>
         <v>6</v>
       </c>
       <c r="M78" s="29">
@@ -11869,4 +13139,1714 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B98D92B-57BC-41EA-B65B-9837E732A15D}">
+  <dimension ref="B1:Q81"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="17.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" style="16" customWidth="1"/>
+    <col min="13" max="13" width="20" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="17"/>
+    <col min="25" max="25" width="9" style="17" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="166"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="166"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="166"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="166"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="166"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="166"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="166"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="166"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="166"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="166"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="166"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="166"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="166"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="166"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="166"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="166"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="166"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="166"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="166"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="166"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B25" s="164"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="166"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="166"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B27" s="164"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="166"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B28" s="164"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="166"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="166"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="166"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="166"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="166"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="166"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B34" s="164"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="165"/>
+      <c r="N34" s="166"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B35" s="164"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="166"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B36" s="164"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="165"/>
+      <c r="N36" s="166"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B37" s="164"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
+      <c r="N37" s="166"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B38" s="164"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
+      <c r="N38" s="166"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B39" s="164"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="165"/>
+      <c r="N39" s="166"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B40" s="164"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="165"/>
+      <c r="M40" s="165"/>
+      <c r="N40" s="166"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B41" s="164"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="165"/>
+      <c r="M41" s="165"/>
+      <c r="N41" s="166"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B42" s="164"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="165"/>
+      <c r="L42" s="165"/>
+      <c r="M42" s="165"/>
+      <c r="N42" s="166"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B43" s="164"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
+      <c r="L43" s="165"/>
+      <c r="M43" s="165"/>
+      <c r="N43" s="166"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B44" s="164"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="165"/>
+      <c r="N44" s="166"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B45" s="164"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="166"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B46" s="164"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="165"/>
+      <c r="L46" s="165"/>
+      <c r="M46" s="165"/>
+      <c r="N46" s="166"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+    </row>
+    <row r="47" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="164"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="165"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="165"/>
+      <c r="L47" s="165"/>
+      <c r="M47" s="165"/>
+      <c r="N47" s="166"/>
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="22">
+        <v>3</v>
+      </c>
+      <c r="D49" s="22">
+        <v>2</v>
+      </c>
+      <c r="E49" s="22">
+        <v>3</v>
+      </c>
+      <c r="F49" s="22">
+        <v>3</v>
+      </c>
+      <c r="G49" s="22">
+        <v>2</v>
+      </c>
+      <c r="H49" s="22">
+        <v>2</v>
+      </c>
+      <c r="I49" s="22">
+        <v>2</v>
+      </c>
+      <c r="J49" s="22">
+        <v>3</v>
+      </c>
+      <c r="K49" s="22">
+        <v>24</v>
+      </c>
+      <c r="L49" s="22">
+        <v>3</v>
+      </c>
+      <c r="M49" s="23">
+        <f>SUM(M51:M1048553)</f>
+        <v>34</v>
+      </c>
+      <c r="N49" s="24">
+        <f>SUM(N51:N1048552)</f>
+        <v>708186</v>
+      </c>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+    </row>
+    <row r="50" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="M50" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B51" s="37">
+        <v>45930</v>
+      </c>
+      <c r="C51" s="38">
+        <v>3</v>
+      </c>
+      <c r="D51" s="38">
+        <v>2</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="39">
+        <f>SUM(C51:L51)</f>
+        <v>5</v>
+      </c>
+      <c r="N51" s="40">
+        <f>M51*20829</f>
+        <v>104145</v>
+      </c>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B52" s="25">
+        <v>45931</v>
+      </c>
+      <c r="C52" s="26">
+        <v>3</v>
+      </c>
+      <c r="D52" s="26">
+        <v>2</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="28">
+        <f t="shared" ref="M52:M81" si="0">SUM(C52:L52)</f>
+        <v>5</v>
+      </c>
+      <c r="N52" s="29">
+        <f>M52*20829</f>
+        <v>104145</v>
+      </c>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B53" s="25">
+        <v>45932</v>
+      </c>
+      <c r="C53" s="26">
+        <v>3</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N53" s="29">
+        <f t="shared" ref="N53:N81" si="1">M53*20829</f>
+        <v>62487</v>
+      </c>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B54" s="25">
+        <v>45933</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B55" s="25">
+        <v>45934</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B56" s="25">
+        <v>45935</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B57" s="25">
+        <v>45936</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B58" s="25">
+        <v>45937</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B59" s="25">
+        <v>45938</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B60" s="25">
+        <v>45939</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B61" s="25">
+        <v>45940</v>
+      </c>
+      <c r="C61" s="26">
+        <v>3</v>
+      </c>
+      <c r="D61" s="26">
+        <v>2</v>
+      </c>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N61" s="29">
+        <f>M61*20829</f>
+        <v>104145</v>
+      </c>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B62" s="25">
+        <v>45941</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="16"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B63" s="25">
+        <v>45942</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B64" s="25">
+        <v>45943</v>
+      </c>
+      <c r="C64" s="26">
+        <v>3</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26">
+        <v>3</v>
+      </c>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N64" s="29">
+        <f t="shared" si="1"/>
+        <v>124974</v>
+      </c>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B65" s="25">
+        <v>45944</v>
+      </c>
+      <c r="C65" s="26">
+        <v>3</v>
+      </c>
+      <c r="D65" s="26">
+        <v>2</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26">
+        <v>2</v>
+      </c>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26">
+        <v>3</v>
+      </c>
+      <c r="M65" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N65" s="29">
+        <f t="shared" si="1"/>
+        <v>208290</v>
+      </c>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B66" s="25">
+        <v>45945</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B67" s="25">
+        <v>45946</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="30"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="16"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B68" s="25">
+        <v>45947</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B69" s="25">
+        <v>45948</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B70" s="25">
+        <v>45949</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B71" s="25">
+        <v>45950</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B72" s="25">
+        <v>45951</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B73" s="25">
+        <v>45952</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B74" s="25">
+        <v>45953</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B75" s="25">
+        <v>45954</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B76" s="25">
+        <v>45955</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B77" s="25">
+        <v>45956</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B78" s="25">
+        <v>45957</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B79" s="25">
+        <v>45958</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B80" s="25">
+        <v>45959</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B81" s="32">
+        <v>45960</v>
+      </c>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:N47"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/전략기획실 제공 프로그램 ROI.xlsx
+++ b/전략기획실 제공 프로그램 ROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555F5B18-741B-43FE-AE95-829BB11FA591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D90B6FA-673F-4FB0-9127-243AE7D59382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="현황대시보드" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="131">
   <si>
     <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,6 +651,14 @@
     <t>LOCAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>창립기념일 프리젠테이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략기획실 프리젠테이션 초안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -841,7 +849,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1172,45 +1180,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1268,12 +1237,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1477,22 +1459,10 @@
     <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1503,6 +1473,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1537,13 +1522,13 @@
     <xf numFmtId="179" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1552,23 +1537,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1585,63 +1558,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1654,13 +1570,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,6 +1614,63 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3774,10 +3759,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>62487</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>104145</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -6658,10 +6643,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:F16"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6677,42 +6662,42 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
     </row>
     <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
@@ -6722,35 +6707,35 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
     </row>
     <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="91"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="80" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6788,50 +6773,62 @@
         <v>4353261</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="8">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="7">
         <v>45901</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>138</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>2874402</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="10">
         <f>E11+C12</f>
         <v>347</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <f>F11+D12</f>
         <v>7227663</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="8">
+        <v>45901</v>
+      </c>
+      <c r="C13" s="9">
+        <v>49</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1020621</v>
+      </c>
+      <c r="E13" s="9">
+        <f>E12+C13</f>
+        <v>396</v>
+      </c>
+      <c r="F13" s="14">
+        <f>F12+D13</f>
+        <v>8248284</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="75">
-        <f>AVERAGE(D10:D12)</f>
-        <v>2409221</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="71">
+        <f>AVERAGE(D10:D13)</f>
+        <v>2062071</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
@@ -6839,6 +6836,13 @@
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6858,10 +6862,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:K51"/>
+  <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -6882,160 +6886,160 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="120"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="107" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="129"/>
       <c r="K3" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="106"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="103"/>
       <c r="K4" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="106"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="103"/>
       <c r="K5" s="53" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="105" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="106"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="103"/>
       <c r="K6" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="106"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="103"/>
       <c r="K7" s="54" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="106"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="103"/>
       <c r="K8" s="55" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="106"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="103"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="106"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="136" t="s">
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="137"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="119"/>
     </row>
     <row r="12" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="42"/>
@@ -7049,16 +7053,16 @@
     </row>
     <row r="13" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B15" s="63" t="s">
@@ -7073,18 +7077,18 @@
       <c r="E15" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="124" t="s">
+      <c r="F15" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
     </row>
     <row r="16" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B16" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="73" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="56" t="s">
@@ -7093,18 +7097,18 @@
       <c r="E16" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="116"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
     </row>
     <row r="17" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="73" t="s">
         <v>107</v>
       </c>
       <c r="D17" s="56" t="s">
@@ -7113,18 +7117,18 @@
       <c r="E17" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="112"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124"/>
     </row>
     <row r="18" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="73" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="56" t="s">
@@ -7133,18 +7137,18 @@
       <c r="E18" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
     </row>
     <row r="19" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="73" t="s">
         <v>108</v>
       </c>
       <c r="D19" s="56" t="s">
@@ -7153,18 +7157,18 @@
       <c r="E19" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="111" t="s">
+      <c r="F19" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="124"/>
     </row>
     <row r="20" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="73" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="56" t="s">
@@ -7173,18 +7177,18 @@
       <c r="E20" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="112"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="124"/>
     </row>
     <row r="21" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="73" t="s">
         <v>108</v>
       </c>
       <c r="D21" s="56" t="s">
@@ -7193,18 +7197,18 @@
       <c r="E21" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="111" t="s">
+      <c r="F21" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="112"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="124"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="73" t="s">
         <v>106</v>
       </c>
       <c r="D22" s="58" t="s">
@@ -7213,18 +7217,18 @@
       <c r="E22" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="111" t="s">
+      <c r="F22" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="124"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="73" t="s">
         <v>106</v>
       </c>
       <c r="D23" s="58" t="s">
@@ -7233,18 +7237,18 @@
       <c r="E23" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="111" t="s">
+      <c r="F23" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="124"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="73" t="s">
         <v>105</v>
       </c>
       <c r="D24" s="56" t="s">
@@ -7253,32 +7257,32 @@
       <c r="E24" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="111" t="s">
+      <c r="F24" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="112"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="124"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="75" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="113" t="s">
+      <c r="F25" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="114"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
     </row>
     <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B26" s="44"/>
@@ -7301,16 +7305,16 @@
       <c r="I27" s="62"/>
     </row>
     <row r="28" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="113"/>
     </row>
     <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B29" s="63" t="s">
@@ -7322,15 +7326,15 @@
       <c r="D29" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="107" t="s">
+      <c r="E29" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="108"/>
-      <c r="G29" s="124" t="s">
+      <c r="F29" s="127"/>
+      <c r="G29" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="124"/>
-      <c r="I29" s="125"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="98"/>
     </row>
     <row r="30" spans="2:9" s="65" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B30" s="57" t="s">
@@ -7342,15 +7346,15 @@
       <c r="D30" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="105" t="s">
+      <c r="E30" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="104"/>
-      <c r="G30" s="133" t="s">
+      <c r="F30" s="101"/>
+      <c r="G30" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="134"/>
-      <c r="I30" s="135"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="117"/>
     </row>
     <row r="31" spans="2:9" s="65" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="66" t="s">
@@ -7362,28 +7366,28 @@
       <c r="D31" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="109" t="s">
+      <c r="E31" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="110"/>
-      <c r="G31" s="138" t="s">
+      <c r="F31" s="131"/>
+      <c r="G31" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="33" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="132"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="110"/>
     </row>
     <row r="35" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="63" t="s">
@@ -7398,12 +7402,12 @@
       <c r="E35" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="124" t="s">
+      <c r="F35" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="125"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="98"/>
     </row>
     <row r="36" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="54" t="s">
@@ -7418,12 +7422,12 @@
       <c r="E36" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="96" t="s">
+      <c r="F36" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="138"/>
     </row>
     <row r="37" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="54" t="s">
@@ -7438,12 +7442,12 @@
       <c r="E37" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="96" t="s">
+      <c r="F37" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="138"/>
     </row>
     <row r="38" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="54" t="s">
@@ -7458,12 +7462,12 @@
       <c r="E38" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="96" t="s">
+      <c r="F38" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="138"/>
     </row>
     <row r="39" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B39" s="54" t="s">
@@ -7478,12 +7482,12 @@
       <c r="E39" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="96" t="s">
+      <c r="F39" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="98"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="138"/>
     </row>
     <row r="40" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B40" s="54" t="s">
@@ -7498,12 +7502,12 @@
       <c r="E40" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="96" t="s">
+      <c r="F40" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="98"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="138"/>
     </row>
     <row r="41" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B41" s="54" t="s">
@@ -7518,12 +7522,12 @@
       <c r="E41" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="96" t="s">
+      <c r="F41" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="98"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="138"/>
     </row>
     <row r="42" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B42" s="54" t="s">
@@ -7538,12 +7542,12 @@
       <c r="E42" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="96" t="s">
+      <c r="F42" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="98"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="138"/>
     </row>
     <row r="43" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B43" s="54" t="s">
@@ -7558,12 +7562,12 @@
       <c r="E43" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="96" t="s">
+      <c r="F43" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="98"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="138"/>
     </row>
     <row r="44" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B44" s="54" t="s">
@@ -7578,12 +7582,12 @@
       <c r="E44" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="96" t="s">
+      <c r="F44" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="98"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="138"/>
     </row>
     <row r="45" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B45" s="54" t="s">
@@ -7598,12 +7602,12 @@
       <c r="E45" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="96" t="s">
+      <c r="F45" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="98"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="138"/>
     </row>
     <row r="46" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="54" t="s">
@@ -7618,12 +7622,12 @@
       <c r="E46" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="96" t="s">
+      <c r="F46" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="98"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="138"/>
     </row>
     <row r="47" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B47" s="54" t="s">
@@ -7638,12 +7642,12 @@
       <c r="E47" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="96" t="s">
+      <c r="F47" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="98"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="138"/>
     </row>
     <row r="48" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B48" s="54" t="s">
@@ -7658,12 +7662,12 @@
       <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="96" t="s">
+      <c r="F48" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="98"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="138"/>
     </row>
     <row r="49" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B49" s="54" t="s">
@@ -7678,12 +7682,12 @@
       <c r="E49" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="96" t="s">
+      <c r="F49" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="98"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="138"/>
     </row>
     <row r="50" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B50" s="54" t="s">
@@ -7698,35 +7702,96 @@
       <c r="E50" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="96" t="s">
+      <c r="F50" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="98"/>
-    </row>
-    <row r="51" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="69" t="s">
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="138"/>
+    </row>
+    <row r="51" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B51" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="138"/>
+    </row>
+    <row r="52" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E52" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="99" t="s">
+      <c r="F52" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="101"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:I9"/>
@@ -7743,46 +7808,6 @@
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F48:I48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7808,7 +7833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234D44F0-91DA-4CD1-A18C-3E5459E98741}">
   <dimension ref="B1:Q81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7833,758 +7860,758 @@
   <sheetData>
     <row r="1" spans="2:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="146"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="146"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="147"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="144"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="146"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="147"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="144"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="146"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="147"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B7" s="144"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="146"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="147"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B8" s="144"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="146"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="147"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B9" s="144"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="146"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="147"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="146"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="147"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B11" s="144"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="146"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="147"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="146"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="147"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="146"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="147"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="146"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="147"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B15" s="144"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="146"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="147"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B16" s="144"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="146"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="146"/>
+      <c r="N16" s="147"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="144"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="146"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="147"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B18" s="144"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="146"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="147"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="144"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="146"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="147"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B20" s="144"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="146"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="147"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="146"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="147"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B22" s="144"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="146"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="147"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="144"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="146"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="147"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B24" s="144"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="146"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="147"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="146"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="147"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="146"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="147"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="146"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="147"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B28" s="144"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="146"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="147"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B29" s="144"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="146"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="147"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B30" s="144"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="146"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="147"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B31" s="144"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="146"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="147"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B32" s="144"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="146"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="146"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="147"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="145"/>
-      <c r="N34" s="146"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="147"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B35" s="144"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="146"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="147"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B36" s="144"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
-      <c r="M36" s="145"/>
-      <c r="N36" s="146"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="147"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B37" s="144"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="145"/>
-      <c r="M37" s="145"/>
-      <c r="N37" s="146"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="146"/>
+      <c r="N37" s="147"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B38" s="144"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="146"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
+      <c r="K38" s="146"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="146"/>
+      <c r="N38" s="147"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B39" s="144"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
-      <c r="K39" s="145"/>
-      <c r="L39" s="145"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="146"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
+      <c r="K39" s="146"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="146"/>
+      <c r="N39" s="147"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B40" s="144"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
-      <c r="K40" s="145"/>
-      <c r="L40" s="145"/>
-      <c r="M40" s="145"/>
-      <c r="N40" s="146"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="146"/>
+      <c r="N40" s="147"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B41" s="144"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="146"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="146"/>
+      <c r="M41" s="146"/>
+      <c r="N41" s="147"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B42" s="144"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="145"/>
-      <c r="N42" s="146"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="147"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B43" s="144"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="145"/>
-      <c r="N43" s="146"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="146"/>
+      <c r="N43" s="147"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B44" s="144"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="145"/>
-      <c r="L44" s="145"/>
-      <c r="M44" s="145"/>
-      <c r="N44" s="146"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="146"/>
+      <c r="N44" s="147"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B45" s="144"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="145"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="145"/>
-      <c r="N45" s="146"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="147"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B46" s="144"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="145"/>
-      <c r="L46" s="145"/>
-      <c r="M46" s="145"/>
-      <c r="N46" s="146"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="147"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
     </row>
     <row r="47" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="144"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="145"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="145"/>
-      <c r="N47" s="146"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="146"/>
+      <c r="L47" s="146"/>
+      <c r="M47" s="146"/>
+      <c r="N47" s="147"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
     </row>
@@ -9604,712 +9631,712 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="143"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="144"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="146"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="147"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="146"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="144"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="146"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="147"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="144"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="146"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="147"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="144"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="146"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="147"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="144"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="146"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="147"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="144"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="146"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="147"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="146"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="147"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="144"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="146"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="147"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="146"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="147"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="146"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="147"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="146"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="147"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="144"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="146"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="147"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="144"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="146"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="147"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B17" s="144"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="146"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B18" s="144"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="146"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B19" s="144"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="146"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="147"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B20" s="144"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="146"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="147"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="146"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="147"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B22" s="144"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="146"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="147"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B23" s="144"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="146"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="147"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B24" s="144"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="146"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="147"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="146"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="147"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="146"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="147"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="146"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="147"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B28" s="144"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="146"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="147"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B29" s="144"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="146"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="147"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B30" s="144"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="146"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="147"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B31" s="144"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="146"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="147"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B32" s="144"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="146"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="147"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="146"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="147"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="146"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="147"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B35" s="144"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="146"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="147"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B36" s="144"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
-      <c r="M36" s="146"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="147"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B37" s="144"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="145"/>
-      <c r="M37" s="146"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="147"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B38" s="144"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="146"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
+      <c r="K38" s="146"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="147"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B39" s="144"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
-      <c r="K39" s="145"/>
-      <c r="L39" s="145"/>
-      <c r="M39" s="146"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
+      <c r="K39" s="146"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="147"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B40" s="144"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
-      <c r="K40" s="145"/>
-      <c r="L40" s="145"/>
-      <c r="M40" s="146"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="147"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B41" s="144"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
-      <c r="M41" s="146"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="146"/>
+      <c r="M41" s="147"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B42" s="144"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="146"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="147"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B43" s="144"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="146"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="147"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B44" s="144"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="145"/>
-      <c r="L44" s="145"/>
-      <c r="M44" s="146"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="147"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B45" s="144"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="145"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="146"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="147"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B46" s="144"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="145"/>
-      <c r="L46" s="145"/>
-      <c r="M46" s="146"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="147"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
     </row>
     <row r="47" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="144"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="145"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="146"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="146"/>
+      <c r="L47" s="146"/>
+      <c r="M47" s="147"/>
       <c r="P47" s="16"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.45">
@@ -11184,7 +11211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
   <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11217,712 +11246,712 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="143"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="144"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="146"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="147"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="146"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="144"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="146"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="147"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="144"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="146"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="147"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="144"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="146"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="147"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="144"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="146"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="147"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="144"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="146"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="147"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="146"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="147"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="144"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="146"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="147"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="146"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="147"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="146"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="147"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="146"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="147"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="144"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="146"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="147"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="144"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="146"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="147"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B17" s="144"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="146"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B18" s="144"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="146"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B19" s="144"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="146"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="147"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B20" s="144"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="146"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="147"/>
       <c r="O2